--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C++" sheetId="3" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,47 +275,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -428,23 +393,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -460,6 +408,23 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -568,6 +533,41 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1149,11 +1149,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="2141779136"/>
-        <c:axId val="2141784576"/>
+        <c:axId val="-1245112400"/>
+        <c:axId val="-1245111312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141779136"/>
+        <c:axId val="-1245112400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1257,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141784576"/>
+        <c:crossAx val="-1245111312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1265,7 +1265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141784576"/>
+        <c:axId val="-1245111312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1372,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141779136"/>
+        <c:crossAx val="-1245112400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,7 +1702,7 @@
             <c:numRef>
               <c:f>'C#'!$J$5:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>0,000,000,000</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.76388888888888895</c:v>
@@ -1748,11 +1748,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="278635968"/>
-        <c:axId val="341250880"/>
+        <c:axId val="-1243526096"/>
+        <c:axId val="-1243521744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278635968"/>
+        <c:axId val="-1243526096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341250880"/>
+        <c:crossAx val="-1243521744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341250880"/>
+        <c:axId val="-1243521744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1975,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278635968"/>
+        <c:crossAx val="-1243526096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2292,7 +2292,7 @@
             <c:numRef>
               <c:f>Java!$H$5:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>0,000,000,000</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.5434782608695654</c:v>
@@ -2338,11 +2338,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="214864848"/>
-        <c:axId val="214867024"/>
+        <c:axId val="-1243523920"/>
+        <c:axId val="-1243527728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214864848"/>
+        <c:axId val="-1243523920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2446,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214867024"/>
+        <c:crossAx val="-1243527728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214867024"/>
+        <c:axId val="-1243527728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2561,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214864848"/>
+        <c:crossAx val="-1243523920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2823,7 +2823,7 @@
             <c:numRef>
               <c:f>Java!$J$5:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>0,000,000,000</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.847826086956522</c:v>
@@ -2869,11 +2869,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="214870288"/>
-        <c:axId val="214867568"/>
+        <c:axId val="-1245952816"/>
+        <c:axId val="-1245958256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214870288"/>
+        <c:axId val="-1245952816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,7 +2977,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214867568"/>
+        <c:crossAx val="-1245958256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2985,7 +2985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214867568"/>
+        <c:axId val="-1245958256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3096,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214870288"/>
+        <c:crossAx val="-1245952816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,11 +3527,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="57768784"/>
-        <c:axId val="57768240"/>
+        <c:axId val="-1245954992"/>
+        <c:axId val="-1245957712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57768784"/>
+        <c:axId val="-1245954992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +3635,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57768240"/>
+        <c:crossAx val="-1245957712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3643,7 +3643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57768240"/>
+        <c:axId val="-1245957712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,7 +3719,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3750,9 +3750,10 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57768784"/>
+        <c:crossAx val="-1245954992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4612,11 +4613,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="2141786208"/>
-        <c:axId val="2141787296"/>
+        <c:axId val="-1245110224"/>
+        <c:axId val="-1245107504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141786208"/>
+        <c:axId val="-1245110224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,7 +4721,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141787296"/>
+        <c:crossAx val="-1245107504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4728,7 +4729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141787296"/>
+        <c:axId val="-1245107504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4836,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141786208"/>
+        <c:crossAx val="-1245110224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5463,11 +5464,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="51478064"/>
-        <c:axId val="51472080"/>
+        <c:axId val="-1184239776"/>
+        <c:axId val="-1184243584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51478064"/>
+        <c:axId val="-1184239776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,7 +5572,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51472080"/>
+        <c:crossAx val="-1184243584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5579,7 +5580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51472080"/>
+        <c:axId val="-1184243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,7 +5687,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51478064"/>
+        <c:crossAx val="-1184239776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5916,25 +5917,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>306493253</c:v>
+                  <c:v>329577253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1129819993</c:v>
+                  <c:v>1129732982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3096628383</c:v>
+                  <c:v>3096224336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6582369919</c:v>
+                  <c:v>6583003700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12004596597</c:v>
+                  <c:v>12003934342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19810943428</c:v>
+                  <c:v>19810986187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30427624872</c:v>
+                  <c:v>30428744273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6010,25 +6011,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>327859740</c:v>
+                  <c:v>265128744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1188137073</c:v>
+                  <c:v>1185823032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3211809425</c:v>
+                  <c:v>3206099103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6778482912</c:v>
+                  <c:v>6765107689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12282276048</c:v>
+                  <c:v>12281201205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20208783796</c:v>
+                  <c:v>20199864806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30963787607</c:v>
+                  <c:v>30948060007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,25 +6105,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>64861260</c:v>
+                  <c:v>81495028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>594510165</c:v>
+                  <c:v>586066908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1681108013</c:v>
+                  <c:v>1682800130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3511604949</c:v>
+                  <c:v>3514935813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6328942336</c:v>
+                  <c:v>6336141354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10364446452</c:v>
+                  <c:v>10367461814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15823170476</c:v>
+                  <c:v>15829628911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6198,25 +6199,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>26342675</c:v>
+                  <c:v>28803040</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120736651</c:v>
+                  <c:v>131553392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977844656</c:v>
+                  <c:v>888587876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2426277308</c:v>
+                  <c:v>2440069630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4383943592</c:v>
+                  <c:v>4373531501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7135164820</c:v>
+                  <c:v>7113825542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10844597209</c:v>
+                  <c:v>10813940433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6292,25 +6293,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23996833</c:v>
+                  <c:v>25933478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86744880</c:v>
+                  <c:v>92842834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300548588</c:v>
+                  <c:v>301388030</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1356347875</c:v>
+                  <c:v>1395447177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3368476511</c:v>
+                  <c:v>3378946614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5505543193</c:v>
+                  <c:v>5513768294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8348817364</c:v>
+                  <c:v>8359076836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6326,11 +6327,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="50757296"/>
-        <c:axId val="50756208"/>
+        <c:axId val="-1184239232"/>
+        <c:axId val="-1184243040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50757296"/>
+        <c:axId val="-1184239232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6373,7 +6374,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50756208"/>
+        <c:crossAx val="-1184243040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6381,7 +6382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50756208"/>
+        <c:axId val="-1184243040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +6489,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50757296"/>
+        <c:crossAx val="-1184239232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6726,25 +6727,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77545061</c:v>
+                  <c:v>84587707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157358855</c:v>
+                  <c:v>153441693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>403380287</c:v>
+                  <c:v>434159307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1089366045</c:v>
+                  <c:v>1205581353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2218658083</c:v>
+                  <c:v>2107603327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6237216809</c:v>
+                  <c:v>6105229005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20319244046</c:v>
+                  <c:v>19727829583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6820,25 +6821,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>80187465</c:v>
+                  <c:v>44877128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>202935726</c:v>
+                  <c:v>163223387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560727025</c:v>
+                  <c:v>460373871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1758777113</c:v>
+                  <c:v>1379947069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3129559255</c:v>
+                  <c:v>3031737205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9897424111</c:v>
+                  <c:v>9164086882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23077151353</c:v>
+                  <c:v>23456308936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6914,25 +6915,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53852583</c:v>
+                  <c:v>60336932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170424548</c:v>
+                  <c:v>159850950</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>391033962</c:v>
+                  <c:v>375079510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>770410308</c:v>
+                  <c:v>728128357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1255970472</c:v>
+                  <c:v>1188229567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2082641594</c:v>
+                  <c:v>1928971430</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3499926106</c:v>
+                  <c:v>2916601620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7008,25 +7009,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53780886</c:v>
+                  <c:v>58104083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165434253</c:v>
+                  <c:v>175440065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>388170210</c:v>
+                  <c:v>398933080</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>722855878</c:v>
+                  <c:v>738453944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1156516727</c:v>
+                  <c:v>1174212734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1754755741</c:v>
+                  <c:v>1777309414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2508947813</c:v>
+                  <c:v>2592243825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7102,25 +7103,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61617859</c:v>
+                  <c:v>62500528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174720567</c:v>
+                  <c:v>193533226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>376975242</c:v>
+                  <c:v>415403351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750110328</c:v>
+                  <c:v>748640798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1194063085</c:v>
+                  <c:v>1169076244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1779130937</c:v>
+                  <c:v>1729706287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2553393680</c:v>
+                  <c:v>2458134609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7136,11 +7137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="51309920"/>
-        <c:axId val="51313184"/>
+        <c:axId val="-1184240320"/>
+        <c:axId val="-1184238688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51309920"/>
+        <c:axId val="-1184240320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7184,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51313184"/>
+        <c:crossAx val="-1184238688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7191,7 +7192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51313184"/>
+        <c:axId val="-1184238688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7298,7 +7299,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51309920"/>
+        <c:crossAx val="-1184240320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3000000000"/>
@@ -7502,6 +7503,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Naive DCM'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Naive DCM'!$F$4:$F$10</c:f>
@@ -7509,25 +7540,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.7094751226851852</c:v>
+                  <c:v>0.21698445857489254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56490999649999996</c:v>
+                  <c:v>0.16095190247072802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56425444296647231</c:v>
+                  <c:v>0.16088188499668035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56433212611454042</c:v>
+                  <c:v>0.16101008462786892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56370194388617578</c:v>
+                  <c:v>0.16085010984345649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56357941021847979</c:v>
+                  <c:v>0.1608549378581425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56347453466666664</c:v>
+                  <c:v>0.16085298717817559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,6 +7597,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Naive DCM'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Naive DCM'!$F$13:$F$19</c:f>
@@ -7573,25 +7634,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.7589345833333333</c:v>
+                  <c:v>0.14557035244625954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59406853650000002</c:v>
+                  <c:v>0.15088595290196258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58524224216472298</c:v>
+                  <c:v>0.15346266458941257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58114565432098764</c:v>
+                  <c:v>0.15513720804566625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57674098647633354</c:v>
+                  <c:v>0.15606339788927207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57489712664997727</c:v>
+                  <c:v>0.15678382174315311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57340347420370374</c:v>
+                  <c:v>0.1573114487088792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7630,6 +7691,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Naive DCM'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Naive DCM'!$F$22:$F$28</c:f>
@@ -7637,25 +7728,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.15014180555555556</c:v>
+                  <c:v>8.0546784057657791E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29725508249999999</c:v>
+                  <c:v>0.1382292038927235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3063243463921283</c:v>
+                  <c:v>0.1521328148626068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3010635244341564</c:v>
+                  <c:v>0.15378706965301936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29718925319308792</c:v>
+                  <c:v>0.15476722734302925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29484656497496586</c:v>
+                  <c:v>0.15543676216218669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2930216754814815</c:v>
+                  <c:v>0.15600408240390606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7694,6 +7785,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Naive DCM'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Naive DCM'!$F$31:$F$37</c:f>
@@ -7701,25 +7822,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0978414351851855E-2</c:v>
+                  <c:v>3.6325023637023141E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.03683255E-2</c:v>
+                  <c:v>4.1874143480193672E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17817869096209912</c:v>
+                  <c:v>0.11132450871531467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20801417249657064</c:v>
+                  <c:v>0.15051887248000353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20585760668670172</c:v>
+                  <c:v>0.15185884772250688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20298033739189805</c:v>
+                  <c:v>0.15277421784492032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20082587424074075</c:v>
+                  <c:v>0.15357095498248388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7758,6 +7879,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Naive DCM'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Naive DCM'!$F$40:$F$46</c:f>
@@ -7765,25 +7916,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.554822453703704E-2</c:v>
+                  <c:v>3.7226426942829328E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3372439999999998E-2</c:v>
+                  <c:v>3.5230581232848363E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4764684402332363E-2</c:v>
+                  <c:v>4.6079581826922254E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11628496870713306</c:v>
+                  <c:v>0.10660263621900148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15817414120022538</c:v>
+                  <c:v>0.14720977946283459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15662105123463815</c:v>
+                  <c:v>0.14976728514331286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15460772896296296</c:v>
+                  <c:v>0.15095679909014076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7799,11 +7950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="49032480"/>
-        <c:axId val="49027584"/>
+        <c:axId val="-1195361456"/>
+        <c:axId val="-1195365264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49032480"/>
+        <c:axId val="-1195361456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7846,7 +7997,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49027584"/>
+        <c:crossAx val="-1195365264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7854,10 +8005,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49027584"/>
+        <c:axId val="-1195365264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7931,7 +8081,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7962,9 +8112,10 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49032480"/>
+        <c:crossAx val="-1195361456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -8199,25 +8350,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.7094751226851852</c:v>
+                  <c:v>0.21698445857489254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56490999649999996</c:v>
+                  <c:v>0.16095190247072802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56425444296647231</c:v>
+                  <c:v>0.16088188499668035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56433212611454042</c:v>
+                  <c:v>0.16101008462786892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56370194388617578</c:v>
+                  <c:v>0.16085010984345649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56357941021847979</c:v>
+                  <c:v>0.1608549378581425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56347453466666664</c:v>
+                  <c:v>0.16085298717817559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8293,25 +8444,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18561913194444443</c:v>
+                  <c:v>2.4640026732582049E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10146786300000001</c:v>
+                  <c:v>2.0768795696136225E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10217329172740525</c:v>
+                  <c:v>2.2036187491800838E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15078678952331961</c:v>
+                  <c:v>3.1644896929512924E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14695526178625093</c:v>
+                  <c:v>3.852580882128985E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28156076783682293</c:v>
+                  <c:v>7.1128226745333784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42735465468518519</c:v>
+                  <c:v>0.11923028258477517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8387,25 +8538,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12465875694444445</c:v>
+                  <c:v>5.9634875301909002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5212274000000005E-2</c:v>
+                  <c:v>3.7702298591469952E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1252544096209916E-2</c:v>
+                  <c:v>3.3908900193386167E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6050266460905352E-2</c:v>
+                  <c:v>3.1857402897700525E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8976825319308791E-2</c:v>
+                  <c:v>2.9023815167176302E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9246745391442875E-2</c:v>
+                  <c:v>2.8920586230438288E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.481344640740741E-2</c:v>
+                  <c:v>2.8743678201430579E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8481,25 +8632,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12449279166666667</c:v>
+                  <c:v>7.3278104963314786E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2717126500000002E-2</c:v>
+                  <c:v>5.5843504620424415E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0730723396501452E-2</c:v>
+                  <c:v>4.9979332760204491E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1973240569272975E-2</c:v>
+                  <c:v>4.5552493118522878E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4306758405334332E-2</c:v>
+                  <c:v>4.0771306374622701E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.991908685138826E-2</c:v>
+                  <c:v>3.8168922472046708E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6461996537037038E-2</c:v>
+                  <c:v>3.6812978785963027E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8575,25 +8726,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.14263393287037038</c:v>
+                  <c:v>8.9716903358672481E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7360283499999997E-2</c:v>
+                  <c:v>7.343903396839653E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8690823979591836E-2</c:v>
+                  <c:v>6.3511522682510674E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4309870370370364E-2</c:v>
+                  <c:v>5.7191045252941865E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6069829310668673E-2</c:v>
+                  <c:v>5.0932872197926658E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0612509586936735E-2</c:v>
+                  <c:v>4.6983007062739293E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7285068148148146E-2</c:v>
+                  <c:v>4.4391520689131603E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,11 +8760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="50756752"/>
-        <c:axId val="50759472"/>
+        <c:axId val="-1195358736"/>
+        <c:axId val="-1195360368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50756752"/>
+        <c:axId val="-1195358736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8656,7 +8807,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50759472"/>
+        <c:crossAx val="-1195360368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8664,10 +8815,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50759472"/>
+        <c:axId val="-1195360368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8741,7 +8891,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8772,9 +8922,10 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50756752"/>
+        <c:crossAx val="-1195358736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -9330,11 +9481,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="2141774784"/>
-        <c:axId val="2141776416"/>
+        <c:axId val="-1195363632"/>
+        <c:axId val="-1195362544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141774784"/>
+        <c:axId val="-1195363632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9438,7 +9589,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141776416"/>
+        <c:crossAx val="-1195362544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9446,7 +9597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141776416"/>
+        <c:axId val="-1195362544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9558,7 +9709,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141774784"/>
+        <c:crossAx val="-1195363632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9921,11 +10072,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="51296240"/>
-        <c:axId val="51306576"/>
+        <c:axId val="-1243524464"/>
+        <c:axId val="-1243522288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51296240"/>
+        <c:axId val="-1243524464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10029,7 +10180,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51306576"/>
+        <c:crossAx val="-1243522288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10037,7 +10188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51306576"/>
+        <c:axId val="-1243522288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10144,7 +10295,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51296240"/>
+        <c:crossAx val="-1243524464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17708,40 +17859,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B4:J15"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Dimensions" dataDxfId="21"/>
-    <tableColumn id="2" name="Column (Sequential)" dataDxfId="20"/>
-    <tableColumn id="3" name="Line (Sequential)" dataDxfId="19"/>
-    <tableColumn id="4" name="Column (Parallel)" dataDxfId="18"/>
-    <tableColumn id="5" name="Line (Parallel)" dataDxfId="17"/>
-    <tableColumn id="6" name="Speedup (Column)" dataDxfId="16"/>
-    <tableColumn id="7" name="Speedup (Line)" dataDxfId="15">
+    <tableColumn id="1" name="Dimensions" dataDxfId="19"/>
+    <tableColumn id="2" name="Column (Sequential)" dataDxfId="18"/>
+    <tableColumn id="3" name="Line (Sequential)" dataDxfId="17"/>
+    <tableColumn id="4" name="Column (Parallel)" dataDxfId="16"/>
+    <tableColumn id="5" name="Line (Parallel)" dataDxfId="15"/>
+    <tableColumn id="6" name="Speedup (Column)" dataDxfId="14"/>
+    <tableColumn id="7" name="Speedup (Line)" dataDxfId="13">
       <calculatedColumnFormula>D5/F5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Naive VS Line (Sequential)" dataDxfId="14"/>
-    <tableColumn id="9" name="Naive VS Line (Parallel)" dataDxfId="13"/>
+    <tableColumn id="8" name="Naive VS Line (Sequential)" dataDxfId="12"/>
+    <tableColumn id="9" name="Naive VS Line (Parallel)" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:J15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:J15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B4:J15"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Dimensions" dataDxfId="10"/>
-    <tableColumn id="2" name="Column (Sequential)" dataDxfId="9"/>
-    <tableColumn id="3" name="Line (Sequential)" dataDxfId="8"/>
-    <tableColumn id="4" name="Column (Parallel)" dataDxfId="7"/>
-    <tableColumn id="5" name="Line (Parallel)" dataDxfId="6"/>
-    <tableColumn id="6" name="Speedup (Column)" dataDxfId="5"/>
-    <tableColumn id="7" name="Speedup (Line)" dataDxfId="4">
+    <tableColumn id="1" name="Dimensions" dataDxfId="8"/>
+    <tableColumn id="2" name="Column (Sequential)" dataDxfId="7"/>
+    <tableColumn id="3" name="Line (Sequential)" dataDxfId="6"/>
+    <tableColumn id="4" name="Column (Parallel)" dataDxfId="5"/>
+    <tableColumn id="5" name="Line (Parallel)" dataDxfId="4"/>
+    <tableColumn id="6" name="Speedup (Column)" dataDxfId="3"/>
+    <tableColumn id="7" name="Speedup (Line)" dataDxfId="2">
       <calculatedColumnFormula>D5/F5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Naive VS Line (Sequential)" dataDxfId="3"/>
-    <tableColumn id="9" name="Naive VS Line (Parallel)" dataDxfId="2"/>
+    <tableColumn id="8" name="Naive VS Line (Sequential)" dataDxfId="1"/>
+    <tableColumn id="9" name="Naive VS Line (Parallel)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18012,7 +18163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F31" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -18032,38 +18183,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -18071,26 +18222,26 @@
       <c r="B5" s="5">
         <v>600</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.121</v>
       </c>
-      <c r="E5" s="13">
-        <f>C14/C5</f>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E11" si="0">C14/C5</f>
         <v>0.66101694915254239</v>
       </c>
-      <c r="F5" s="13">
-        <f>C24/D5</f>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F11" si="1">C24/D5</f>
         <v>3.6776859504132231</v>
       </c>
-      <c r="G5" s="13">
-        <f>C14/C24</f>
+      <c r="G5" s="12">
+        <f t="shared" ref="G5:G11" si="2">C14/C24</f>
         <v>0.43820224719101125</v>
       </c>
-      <c r="H5" s="13">
-        <f>C5/D5</f>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5:H11" si="3">C5/D5</f>
         <v>2.4380165289256199</v>
       </c>
     </row>
@@ -18098,26 +18249,26 @@
       <c r="B6" s="5">
         <v>1000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1.0740000000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.52</v>
       </c>
-      <c r="E6" s="13">
-        <f>C15/C6</f>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>0.9897579143389198</v>
       </c>
-      <c r="F6" s="13">
-        <f>C25/D6</f>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
         <v>1.0019230769230769</v>
       </c>
-      <c r="G6" s="13">
-        <f>C15/C25</f>
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
         <v>2.0403071017274472</v>
       </c>
-      <c r="H6" s="13">
-        <f>C6/D6</f>
+      <c r="H6" s="12">
+        <f t="shared" si="3"/>
         <v>2.0653846153846156</v>
       </c>
     </row>
@@ -18125,26 +18276,26 @@
       <c r="B7" s="5">
         <v>1400</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>2.5550000000000002</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1.421</v>
       </c>
-      <c r="E7" s="13">
-        <f>C16/C7</f>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>1.3217221135029353</v>
       </c>
-      <c r="F7" s="13">
-        <f>C26/D7</f>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
         <v>1.023926812104152</v>
       </c>
-      <c r="G7" s="13">
-        <f>C16/C26</f>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
         <v>2.3209621993127145</v>
       </c>
-      <c r="H7" s="13">
-        <f>C7/D7</f>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
         <v>1.7980295566502464</v>
       </c>
     </row>
@@ -18152,26 +18303,26 @@
       <c r="B8" s="5">
         <v>1800</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>4.9340000000000002</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>3.0019999999999998</v>
       </c>
-      <c r="E8" s="13">
-        <f>C17/C8</f>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>1.5626266720713418</v>
       </c>
-      <c r="F8" s="13">
-        <f>C27/D8</f>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
         <v>1.0229846768820787</v>
       </c>
-      <c r="G8" s="13">
-        <f>C17/C27</f>
+      <c r="G8" s="12">
+        <f t="shared" si="2"/>
         <v>2.5105828720286549</v>
       </c>
-      <c r="H8" s="13">
-        <f>C8/D8</f>
+      <c r="H8" s="12">
+        <f t="shared" si="3"/>
         <v>1.6435709526982014</v>
       </c>
     </row>
@@ -18179,26 +18330,26 @@
       <c r="B9" s="5">
         <v>2200</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>8.3940000000000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5.4809999999999999</v>
       </c>
-      <c r="E9" s="13">
-        <f>C18/C9</f>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>1.7377888968310697</v>
       </c>
-      <c r="F9" s="13">
-        <f>C28/D9</f>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
         <v>1.0634920634920635</v>
       </c>
-      <c r="G9" s="13">
-        <f>C18/C28</f>
+      <c r="G9" s="12">
+        <f t="shared" si="2"/>
         <v>2.5024875621890548</v>
       </c>
-      <c r="H9" s="13">
-        <f>C9/D9</f>
+      <c r="H9" s="12">
+        <f t="shared" si="3"/>
         <v>1.5314723590585659</v>
       </c>
     </row>
@@ -18206,26 +18357,26 @@
       <c r="B10" s="5">
         <v>2600</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>13.569000000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>9.0549999999999997</v>
       </c>
-      <c r="E10" s="13">
-        <f>C19/C10</f>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>1.7616626133097502</v>
       </c>
-      <c r="F10" s="13">
-        <f>C29/D10</f>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
         <v>1.0919933738266152</v>
       </c>
-      <c r="G10" s="13">
-        <f>C19/C29</f>
+      <c r="G10" s="12">
+        <f t="shared" si="2"/>
         <v>2.4174757281553396</v>
       </c>
-      <c r="H10" s="13">
-        <f>C10/D10</f>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
         <v>1.4985091109884043</v>
       </c>
     </row>
@@ -18233,76 +18384,76 @@
       <c r="B11" s="5">
         <v>3000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>19.736000000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>13.897</v>
       </c>
-      <c r="E11" s="13">
-        <f>C20/C11</f>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>1.8314248074584516</v>
       </c>
-      <c r="F11" s="13">
-        <f>C30/D11</f>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
         <v>1.0920342519968338</v>
       </c>
-      <c r="G11" s="13">
-        <f>C20/C30</f>
+      <c r="G11" s="12">
+        <f t="shared" si="2"/>
         <v>2.3817211386399579</v>
       </c>
-      <c r="H11" s="13">
-        <f>C11/D11</f>
+      <c r="H11" s="12">
+        <f t="shared" si="3"/>
         <v>1.4201626250269843</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -18310,59 +18461,59 @@
       <c r="B14" s="5">
         <v>600</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0.309</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.25600000000000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="H14" s="13">
-        <f>D14/E14</f>
+      <c r="H14" s="12">
+        <f t="shared" ref="H14:J20" si="4">D14/E14</f>
         <v>1.1704545454545454</v>
       </c>
-      <c r="I14" s="13">
-        <f>E14/F14</f>
+      <c r="I14" s="12">
+        <f t="shared" si="4"/>
         <v>1.03125</v>
       </c>
-      <c r="J14" s="13">
-        <f>F14/G14</f>
+      <c r="J14" s="12">
+        <f t="shared" si="4"/>
         <v>0.86779661016949161</v>
       </c>
-      <c r="K14" s="13">
-        <f>D14/G14</f>
+      <c r="K14" s="12">
+        <f t="shared" ref="K14:K20" si="5">D14/G14</f>
         <v>1.0474576271186442</v>
       </c>
       <c r="L14" s="5">
         <f>C14/D14</f>
         <v>0.6310679611650486</v>
       </c>
-      <c r="M14" s="19">
-        <f>(2*$B14*$B14*$B14)/C14/1000000</f>
+      <c r="M14" s="18">
+        <f t="shared" ref="M14:Q20" si="6">(2*$B14*$B14*$B14)/C14/1000000</f>
         <v>2215.3846153846152</v>
       </c>
-      <c r="N14" s="19">
-        <f>(2*$B14*$B14*$B14)/D14/1000000</f>
+      <c r="N14" s="18">
+        <f t="shared" si="6"/>
         <v>1398.0582524271845</v>
       </c>
-      <c r="O14" s="19">
-        <f>(2*$B14*$B14*$B14)/E14/1000000</f>
+      <c r="O14" s="18">
+        <f t="shared" si="6"/>
         <v>1636.3636363636363</v>
       </c>
-      <c r="P14" s="19">
-        <f>(2*$B14*$B14*$B14)/F14/1000000</f>
+      <c r="P14" s="18">
+        <f t="shared" si="6"/>
         <v>1687.5</v>
       </c>
-      <c r="Q14" s="19">
-        <f>(2*$B14*$B14*$B14)/G14/1000000</f>
+      <c r="Q14" s="18">
+        <f t="shared" si="6"/>
         <v>1464.406779661017</v>
       </c>
     </row>
@@ -18370,59 +18521,59 @@
       <c r="B15" s="5">
         <v>1000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1.0629999999999999</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1.3680000000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>1.123</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0.96799999999999997</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>1.0740000000000001</v>
       </c>
-      <c r="H15" s="13">
-        <f>D15/E15</f>
+      <c r="H15" s="12">
+        <f t="shared" si="4"/>
         <v>1.2181656277827249</v>
       </c>
-      <c r="I15" s="13">
-        <f>E15/F15</f>
+      <c r="I15" s="12">
+        <f t="shared" si="4"/>
         <v>1.1601239669421488</v>
       </c>
-      <c r="J15" s="13">
-        <f>F15/G15</f>
+      <c r="J15" s="12">
+        <f t="shared" si="4"/>
         <v>0.90130353817504649</v>
       </c>
-      <c r="K15" s="13">
-        <f>D15/G15</f>
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
         <v>1.2737430167597765</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" ref="L15:L21" si="0">C15/D15</f>
+        <f t="shared" ref="L15:L20" si="7">C15/D15</f>
         <v>0.77704678362573087</v>
       </c>
-      <c r="M15" s="19">
-        <f>(2*$B15*$B15*$B15)/C15/1000000</f>
+      <c r="M15" s="18">
+        <f t="shared" si="6"/>
         <v>1881.4675446848544</v>
       </c>
-      <c r="N15" s="19">
-        <f>(2*$B15*$B15*$B15)/D15/1000000</f>
+      <c r="N15" s="18">
+        <f t="shared" si="6"/>
         <v>1461.9883040935672</v>
       </c>
-      <c r="O15" s="19">
-        <f>(2*$B15*$B15*$B15)/E15/1000000</f>
+      <c r="O15" s="18">
+        <f t="shared" si="6"/>
         <v>1780.9439002671415</v>
       </c>
-      <c r="P15" s="19">
-        <f>(2*$B15*$B15*$B15)/F15/1000000</f>
+      <c r="P15" s="18">
+        <f t="shared" si="6"/>
         <v>2066.1157024793388</v>
       </c>
-      <c r="Q15" s="19">
-        <f>(2*$B15*$B15*$B15)/G15/1000000</f>
+      <c r="Q15" s="18">
+        <f t="shared" si="6"/>
         <v>1862.1973929236499</v>
       </c>
     </row>
@@ -18430,59 +18581,59 @@
       <c r="B16" s="5">
         <v>1400</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>3.3769999999999998</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>3.919</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>2.9249999999999998</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2.4129999999999998</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2.5550000000000002</v>
       </c>
-      <c r="H16" s="13">
-        <f>D16/E16</f>
+      <c r="H16" s="12">
+        <f t="shared" si="4"/>
         <v>1.3398290598290599</v>
       </c>
-      <c r="I16" s="13">
-        <f>E16/F16</f>
+      <c r="I16" s="12">
+        <f t="shared" si="4"/>
         <v>1.212184003315375</v>
       </c>
-      <c r="J16" s="13">
-        <f>F16/G16</f>
+      <c r="J16" s="12">
+        <f t="shared" si="4"/>
         <v>0.944422700587084</v>
       </c>
-      <c r="K16" s="13">
-        <f>D16/G16</f>
+      <c r="K16" s="12">
+        <f t="shared" si="5"/>
         <v>1.5338551859099803</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.86169941311559062</v>
       </c>
-      <c r="M16" s="19">
-        <f>(2*$B16*$B16*$B16)/C16/1000000</f>
+      <c r="M16" s="18">
+        <f t="shared" si="6"/>
         <v>1625.1110453064853</v>
       </c>
-      <c r="N16" s="19">
-        <f>(2*$B16*$B16*$B16)/D16/1000000</f>
+      <c r="N16" s="18">
+        <f t="shared" si="6"/>
         <v>1400.3572339882624</v>
       </c>
-      <c r="O16" s="19">
-        <f>(2*$B16*$B16*$B16)/E16/1000000</f>
+      <c r="O16" s="18">
+        <f t="shared" si="6"/>
         <v>1876.2393162393164</v>
       </c>
-      <c r="P16" s="19">
-        <f>(2*$B16*$B16*$B16)/F16/1000000</f>
+      <c r="P16" s="18">
+        <f t="shared" si="6"/>
         <v>2274.3472855366763</v>
       </c>
-      <c r="Q16" s="19">
-        <f>(2*$B16*$B16*$B16)/G16/1000000</f>
+      <c r="Q16" s="18">
+        <f t="shared" si="6"/>
         <v>2147.9452054794519</v>
       </c>
     </row>
@@ -18490,59 +18641,59 @@
       <c r="B17" s="5">
         <v>1800</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>7.71</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>8.6259999999999994</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>5.8739999999999997</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>4.8540000000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>4.9340000000000002</v>
       </c>
-      <c r="H17" s="13">
-        <f>D17/E17</f>
+      <c r="H17" s="12">
+        <f t="shared" si="4"/>
         <v>1.4685052774940415</v>
       </c>
-      <c r="I17" s="13">
-        <f>E17/F17</f>
+      <c r="I17" s="12">
+        <f t="shared" si="4"/>
         <v>1.2101359703337453</v>
       </c>
-      <c r="J17" s="13">
-        <f>F17/G17</f>
+      <c r="J17" s="12">
+        <f t="shared" si="4"/>
         <v>0.98378597486826103</v>
       </c>
-      <c r="K17" s="13">
-        <f>D17/G17</f>
+      <c r="K17" s="12">
+        <f t="shared" si="5"/>
         <v>1.7482772598297525</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.89380941340134479</v>
       </c>
-      <c r="M17" s="19">
-        <f>(2*$B17*$B17*$B17)/C17/1000000</f>
+      <c r="M17" s="18">
+        <f t="shared" si="6"/>
         <v>1512.8404669260699</v>
       </c>
-      <c r="N17" s="19">
-        <f>(2*$B17*$B17*$B17)/D17/1000000</f>
+      <c r="N17" s="18">
+        <f t="shared" si="6"/>
         <v>1352.1910503130073</v>
       </c>
-      <c r="O17" s="19">
-        <f>(2*$B17*$B17*$B17)/E17/1000000</f>
+      <c r="O17" s="18">
+        <f t="shared" si="6"/>
         <v>1985.6996935648622</v>
       </c>
-      <c r="P17" s="19">
-        <f>(2*$B17*$B17*$B17)/F17/1000000</f>
+      <c r="P17" s="18">
+        <f t="shared" si="6"/>
         <v>2402.9666254635354</v>
       </c>
-      <c r="Q17" s="19">
-        <f>(2*$B17*$B17*$B17)/G17/1000000</f>
+      <c r="Q17" s="18">
+        <f t="shared" si="6"/>
         <v>2364.0048642075394</v>
       </c>
     </row>
@@ -18550,59 +18701,59 @@
       <c r="B18" s="5">
         <v>2200</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>14.587</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>15.813000000000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>10.407</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>8.3379999999999992</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>8.3940000000000001</v>
       </c>
-      <c r="H18" s="13">
-        <f>D18/E18</f>
+      <c r="H18" s="12">
+        <f t="shared" si="4"/>
         <v>1.5194580570769676</v>
       </c>
-      <c r="I18" s="13">
-        <f>E18/F18</f>
+      <c r="I18" s="12">
+        <f t="shared" si="4"/>
         <v>1.2481410410170306</v>
       </c>
-      <c r="J18" s="13">
-        <f>F18/G18</f>
+      <c r="J18" s="12">
+        <f t="shared" si="4"/>
         <v>0.99332856802477953</v>
       </c>
-      <c r="K18" s="13">
-        <f>D18/G18</f>
+      <c r="K18" s="12">
+        <f t="shared" si="5"/>
         <v>1.8838456040028593</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.92246885473977103</v>
       </c>
-      <c r="M18" s="19">
-        <f>(2*$B18*$B18*$B18)/C18/1000000</f>
+      <c r="M18" s="18">
+        <f t="shared" si="6"/>
         <v>1459.9300747240693</v>
       </c>
-      <c r="N18" s="19">
-        <f>(2*$B18*$B18*$B18)/D18/1000000</f>
+      <c r="N18" s="18">
+        <f t="shared" si="6"/>
         <v>1346.7400240308607</v>
       </c>
-      <c r="O18" s="19">
-        <f>(2*$B18*$B18*$B18)/E18/1000000</f>
+      <c r="O18" s="18">
+        <f t="shared" si="6"/>
         <v>2046.31498030172</v>
       </c>
-      <c r="P18" s="19">
-        <f>(2*$B18*$B18*$B18)/F18/1000000</f>
+      <c r="P18" s="18">
+        <f t="shared" si="6"/>
         <v>2554.0897097625334</v>
       </c>
-      <c r="Q18" s="19">
-        <f>(2*$B18*$B18*$B18)/G18/1000000</f>
+      <c r="Q18" s="18">
+        <f t="shared" si="6"/>
         <v>2537.050274005242</v>
       </c>
     </row>
@@ -18610,59 +18761,59 @@
       <c r="B19" s="5">
         <v>2600</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>23.904</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>25.512</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>17.033999999999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>13.378</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>13.569000000000001</v>
       </c>
-      <c r="H19" s="13">
-        <f>D19/E19</f>
+      <c r="H19" s="12">
+        <f t="shared" si="4"/>
         <v>1.4977104614300811</v>
       </c>
-      <c r="I19" s="13">
-        <f>E19/F19</f>
+      <c r="I19" s="12">
+        <f t="shared" si="4"/>
         <v>1.2732844969352668</v>
       </c>
-      <c r="J19" s="13">
-        <f>F19/G19</f>
+      <c r="J19" s="12">
+        <f t="shared" si="4"/>
         <v>0.98592379688996978</v>
       </c>
-      <c r="K19" s="13">
-        <f>D19/G19</f>
+      <c r="K19" s="12">
+        <f t="shared" si="5"/>
         <v>1.8801680300685384</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.93697083725305741</v>
       </c>
-      <c r="M19" s="19">
-        <f>(2*$B19*$B19*$B19)/C19/1000000</f>
+      <c r="M19" s="18">
+        <f t="shared" si="6"/>
         <v>1470.5488621151271</v>
       </c>
-      <c r="N19" s="19">
-        <f>(2*$B19*$B19*$B19)/D19/1000000</f>
+      <c r="N19" s="18">
+        <f t="shared" si="6"/>
         <v>1377.8613985575416</v>
       </c>
-      <c r="O19" s="19">
-        <f>(2*$B19*$B19*$B19)/E19/1000000</f>
+      <c r="O19" s="18">
+        <f t="shared" si="6"/>
         <v>2063.6374310203128</v>
       </c>
-      <c r="P19" s="19">
-        <f>(2*$B19*$B19*$B19)/F19/1000000</f>
+      <c r="P19" s="18">
+        <f t="shared" si="6"/>
         <v>2627.597548213485</v>
       </c>
-      <c r="Q19" s="19">
-        <f>(2*$B19*$B19*$B19)/G19/1000000</f>
+      <c r="Q19" s="18">
+        <f t="shared" si="6"/>
         <v>2590.6109514334144</v>
       </c>
     </row>
@@ -18670,81 +18821,81 @@
       <c r="B20" s="5">
         <v>3000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>36.145000000000003</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>38.738999999999997</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>25.876999999999999</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>20.093</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>19.736000000000001</v>
       </c>
-      <c r="H20" s="13">
-        <f>D20/E20</f>
+      <c r="H20" s="12">
+        <f t="shared" si="4"/>
         <v>1.4970437067666267</v>
       </c>
-      <c r="I20" s="13">
-        <f>E20/F20</f>
+      <c r="I20" s="12">
+        <f t="shared" si="4"/>
         <v>1.287861444284079</v>
       </c>
-      <c r="J20" s="13">
-        <f>F20/G20</f>
+      <c r="J20" s="12">
+        <f t="shared" si="4"/>
         <v>1.0180887717875962</v>
       </c>
-      <c r="K20" s="13">
-        <f>D20/G20</f>
+      <c r="K20" s="12">
+        <f t="shared" si="5"/>
         <v>1.9628597486826103</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.93303905624822547</v>
       </c>
-      <c r="M20" s="19">
-        <f>(2*$B20*$B20*$B20)/C20/1000000</f>
+      <c r="M20" s="18">
+        <f t="shared" si="6"/>
         <v>1493.9825702033474</v>
       </c>
-      <c r="N20" s="19">
-        <f>(2*$B20*$B20*$B20)/D20/1000000</f>
+      <c r="N20" s="18">
+        <f t="shared" si="6"/>
         <v>1393.9440873538297</v>
       </c>
-      <c r="O20" s="19">
-        <f>(2*$B20*$B20*$B20)/E20/1000000</f>
+      <c r="O20" s="18">
+        <f t="shared" si="6"/>
         <v>2086.7952235575995</v>
       </c>
-      <c r="P20" s="19">
-        <f>(2*$B20*$B20*$B20)/F20/1000000</f>
+      <c r="P20" s="18">
+        <f t="shared" si="6"/>
         <v>2687.5031105360076</v>
       </c>
-      <c r="Q20" s="19">
-        <f>(2*$B20*$B20*$B20)/G20/1000000</f>
+      <c r="Q20" s="18">
+        <f t="shared" si="6"/>
         <v>2736.1167409809486</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <f>2/1</f>
         <v>2</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <f>4/1</f>
         <v>4</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>1</v>
       </c>
       <c r="M21" s="5"/>
@@ -18761,52 +18912,52 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -18817,29 +18968,29 @@
       <c r="C24" s="5">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <v>0.222</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>0.15</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.121</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <f>D24/E24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <f>E24/F24</f>
         <v>1.48</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <f>F24/G24</f>
         <v>1.2396694214876034</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <f>D24/G24</f>
         <v>0</v>
       </c>
@@ -18847,24 +18998,24 @@
         <f>#REF!/D24</f>
         <v>#REF!</v>
       </c>
-      <c r="M24" s="19">
-        <f>(2*$B24*$B24*$B24)/C24/1000000</f>
+      <c r="M24" s="18">
+        <f t="shared" ref="M24:Q30" si="8">(2*$B24*$B24*$B24)/C24/1000000</f>
         <v>970.78651685393265</v>
       </c>
-      <c r="N24" s="19" t="e">
-        <f>(2*$B24*$B24*$B24)/D24/1000000</f>
+      <c r="N24" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="19">
-        <f>(2*$B24*$B24*$B24)/E24/1000000</f>
+      <c r="O24" s="18">
+        <f t="shared" si="8"/>
         <v>1945.9459459459461</v>
       </c>
-      <c r="P24" s="19">
-        <f>(2*$B24*$B24*$B24)/F24/1000000</f>
+      <c r="P24" s="18">
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
-      <c r="Q24" s="19">
-        <f>(2*$B24*$B24*$B24)/G24/1000000</f>
+      <c r="Q24" s="18">
+        <f t="shared" si="8"/>
         <v>3570.2479338842977</v>
       </c>
     </row>
@@ -18875,54 +19026,54 @@
       <c r="C25" s="5">
         <v>0.52100000000000002</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>1.03</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.52</v>
       </c>
-      <c r="H25" s="13">
-        <f t="shared" ref="H25:H34" si="1">D25/E25</f>
+      <c r="H25" s="12">
+        <f t="shared" ref="H25:H34" si="9">D25/E25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <f t="shared" ref="I25:I34" si="2">E25/F25</f>
+      <c r="I25" s="12">
+        <f t="shared" ref="I25:I34" si="10">E25/F25</f>
         <v>1.5014577259475217</v>
       </c>
-      <c r="J25" s="13">
-        <f t="shared" ref="J25:J34" si="3">F25/G25</f>
+      <c r="J25" s="12">
+        <f t="shared" ref="J25:J34" si="11">F25/G25</f>
         <v>1.3192307692307692</v>
       </c>
-      <c r="K25" s="13">
-        <f t="shared" ref="K25:K34" si="4">D25/G25</f>
+      <c r="K25" s="12">
+        <f t="shared" ref="K25:K34" si="12">D25/G25</f>
         <v>0</v>
       </c>
       <c r="L25" s="5" t="e">
         <f>#REF!/D25</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="19">
-        <f>(2*$B25*$B25*$B25)/C25/1000000</f>
+      <c r="M25" s="18">
+        <f t="shared" si="8"/>
         <v>3838.7715930902109</v>
       </c>
-      <c r="N25" s="19" t="e">
-        <f>(2*$B25*$B25*$B25)/D25/1000000</f>
+      <c r="N25" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="19">
-        <f>(2*$B25*$B25*$B25)/E25/1000000</f>
+      <c r="O25" s="18">
+        <f t="shared" si="8"/>
         <v>1941.7475728155339</v>
       </c>
-      <c r="P25" s="19">
-        <f>(2*$B25*$B25*$B25)/F25/1000000</f>
+      <c r="P25" s="18">
+        <f t="shared" si="8"/>
         <v>2915.4518950437318</v>
       </c>
-      <c r="Q25" s="19">
-        <f>(2*$B25*$B25*$B25)/G25/1000000</f>
+      <c r="Q25" s="18">
+        <f t="shared" si="8"/>
         <v>3846.1538461538457</v>
       </c>
     </row>
@@ -18933,54 +19084,54 @@
       <c r="C26" s="5">
         <v>1.4550000000000001</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <v>2.8279999999999998</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>1.8859999999999999</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>1.421</v>
       </c>
-      <c r="H26" s="13">
-        <f t="shared" si="1"/>
+      <c r="H26" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I26" s="13">
-        <f t="shared" si="2"/>
+      <c r="I26" s="12">
+        <f t="shared" si="10"/>
         <v>1.4994697773064687</v>
       </c>
-      <c r="J26" s="13">
-        <f t="shared" si="3"/>
+      <c r="J26" s="12">
+        <f t="shared" si="11"/>
         <v>1.3272343420126671</v>
       </c>
-      <c r="K26" s="13">
-        <f t="shared" si="4"/>
+      <c r="K26" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L26" s="5" t="e">
         <f>#REF!/D26</f>
         <v>#REF!</v>
       </c>
-      <c r="M26" s="19">
-        <f>(2*$B26*$B26*$B26)/C26/1000000</f>
+      <c r="M26" s="18">
+        <f t="shared" si="8"/>
         <v>3771.8213058419242</v>
       </c>
-      <c r="N26" s="19" t="e">
-        <f>(2*$B26*$B26*$B26)/D26/1000000</f>
+      <c r="N26" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="19">
-        <f>(2*$B26*$B26*$B26)/E26/1000000</f>
+      <c r="O26" s="18">
+        <f t="shared" si="8"/>
         <v>1940.5940594059407</v>
       </c>
-      <c r="P26" s="19">
-        <f>(2*$B26*$B26*$B26)/F26/1000000</f>
+      <c r="P26" s="18">
+        <f t="shared" si="8"/>
         <v>2909.8621420996819</v>
       </c>
-      <c r="Q26" s="19">
-        <f>(2*$B26*$B26*$B26)/G26/1000000</f>
+      <c r="Q26" s="18">
+        <f t="shared" si="8"/>
         <v>3862.0689655172414</v>
       </c>
     </row>
@@ -18991,54 +19142,54 @@
       <c r="C27" s="5">
         <v>3.0710000000000002</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
         <v>6.0069999999999997</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>4.0030000000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>3.0019999999999998</v>
       </c>
-      <c r="H27" s="13">
-        <f t="shared" si="1"/>
+      <c r="H27" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <f t="shared" si="2"/>
+      <c r="I27" s="12">
+        <f t="shared" si="10"/>
         <v>1.5006245316012989</v>
       </c>
-      <c r="J27" s="13">
-        <f t="shared" si="3"/>
+      <c r="J27" s="12">
+        <f t="shared" si="11"/>
         <v>1.3334443704197203</v>
       </c>
-      <c r="K27" s="13">
-        <f t="shared" si="4"/>
+      <c r="K27" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27" s="5" t="e">
         <f>#REF!/D27</f>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="19">
-        <f>(2*$B27*$B27*$B27)/C27/1000000</f>
+      <c r="M27" s="18">
+        <f t="shared" si="8"/>
         <v>3798.1113643764243</v>
       </c>
-      <c r="N27" s="19" t="e">
-        <f>(2*$B27*$B27*$B27)/D27/1000000</f>
+      <c r="N27" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="19">
-        <f>(2*$B27*$B27*$B27)/E27/1000000</f>
+      <c r="O27" s="18">
+        <f t="shared" si="8"/>
         <v>1941.7346429165973</v>
       </c>
-      <c r="P27" s="19">
-        <f>(2*$B27*$B27*$B27)/F27/1000000</f>
+      <c r="P27" s="18">
+        <f t="shared" si="8"/>
         <v>2913.8146390207344</v>
       </c>
-      <c r="Q27" s="19">
-        <f>(2*$B27*$B27*$B27)/G27/1000000</f>
+      <c r="Q27" s="18">
+        <f t="shared" si="8"/>
         <v>3885.4097268487676</v>
       </c>
     </row>
@@ -19049,54 +19200,54 @@
       <c r="C28" s="5">
         <v>5.8289999999999997</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>10.976000000000001</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>7.3070000000000004</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>5.4809999999999999</v>
       </c>
-      <c r="H28" s="13">
-        <f t="shared" si="1"/>
+      <c r="H28" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I28" s="13">
-        <f t="shared" si="2"/>
+      <c r="I28" s="12">
+        <f t="shared" si="10"/>
         <v>1.5021212535924457</v>
       </c>
-      <c r="J28" s="13">
-        <f t="shared" si="3"/>
+      <c r="J28" s="12">
+        <f t="shared" si="11"/>
         <v>1.3331508848750229</v>
       </c>
-      <c r="K28" s="13">
-        <f t="shared" si="4"/>
+      <c r="K28" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L28" s="5" t="e">
         <f>#REF!/D28</f>
         <v>#REF!</v>
       </c>
-      <c r="M28" s="19">
-        <f>(2*$B28*$B28*$B28)/C28/1000000</f>
+      <c r="M28" s="18">
+        <f t="shared" si="8"/>
         <v>3653.4568536627212</v>
       </c>
-      <c r="N28" s="19" t="e">
-        <f>(2*$B28*$B28*$B28)/D28/1000000</f>
+      <c r="N28" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="19">
-        <f>(2*$B28*$B28*$B28)/E28/1000000</f>
+      <c r="O28" s="18">
+        <f t="shared" si="8"/>
         <v>1940.2332361516035</v>
       </c>
-      <c r="P28" s="19">
-        <f>(2*$B28*$B28*$B28)/F28/1000000</f>
+      <c r="P28" s="18">
+        <f t="shared" si="8"/>
         <v>2914.4655809497744</v>
       </c>
-      <c r="Q28" s="19">
-        <f>(2*$B28*$B28*$B28)/G28/1000000</f>
+      <c r="Q28" s="18">
+        <f t="shared" si="8"/>
         <v>3885.422368180989</v>
       </c>
     </row>
@@ -19107,54 +19258,54 @@
       <c r="C29" s="5">
         <v>9.8879999999999999</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>18.097000000000001</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>12.071</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>9.0549999999999997</v>
       </c>
-      <c r="H29" s="13">
-        <f t="shared" si="1"/>
+      <c r="H29" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I29" s="13">
-        <f t="shared" si="2"/>
+      <c r="I29" s="12">
+        <f t="shared" si="10"/>
         <v>1.4992129898102893</v>
       </c>
-      <c r="J29" s="13">
-        <f t="shared" si="3"/>
+      <c r="J29" s="12">
+        <f t="shared" si="11"/>
         <v>1.3330756488128106</v>
       </c>
-      <c r="K29" s="13">
-        <f t="shared" si="4"/>
+      <c r="K29" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L29" s="5" t="e">
         <f>#REF!/D29</f>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="19">
-        <f>(2*$B29*$B29*$B29)/C29/1000000</f>
+      <c r="M29" s="18">
+        <f t="shared" si="8"/>
         <v>3555.0161812297733</v>
       </c>
-      <c r="N29" s="19" t="e">
-        <f>(2*$B29*$B29*$B29)/D29/1000000</f>
+      <c r="N29" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="19">
-        <f>(2*$B29*$B29*$B29)/E29/1000000</f>
+      <c r="O29" s="18">
+        <f t="shared" si="8"/>
         <v>1942.4213958114603</v>
       </c>
-      <c r="P29" s="19">
-        <f>(2*$B29*$B29*$B29)/F29/1000000</f>
+      <c r="P29" s="18">
+        <f t="shared" si="8"/>
         <v>2912.1033882859747</v>
       </c>
-      <c r="Q29" s="19">
-        <f>(2*$B29*$B29*$B29)/G29/1000000</f>
+      <c r="Q29" s="18">
+        <f t="shared" si="8"/>
         <v>3882.0541137493101</v>
       </c>
     </row>
@@ -19165,54 +19316,54 @@
       <c r="C30" s="5">
         <v>15.176</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
         <v>27.821999999999999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>18.536000000000001</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>13.897</v>
       </c>
-      <c r="H30" s="13">
-        <f t="shared" si="1"/>
+      <c r="H30" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I30" s="13">
-        <f t="shared" si="2"/>
+      <c r="I30" s="12">
+        <f t="shared" si="10"/>
         <v>1.5009710832973671</v>
       </c>
-      <c r="J30" s="13">
-        <f t="shared" si="3"/>
+      <c r="J30" s="12">
+        <f t="shared" si="11"/>
         <v>1.3338130531769448</v>
       </c>
-      <c r="K30" s="13">
-        <f t="shared" si="4"/>
+      <c r="K30" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L30" s="5" t="e">
         <f>#REF!/D30</f>
         <v>#REF!</v>
       </c>
-      <c r="M30" s="19">
-        <f>(2*$B30*$B30*$B30)/C30/1000000</f>
+      <c r="M30" s="18">
+        <f t="shared" si="8"/>
         <v>3558.2498682129681</v>
       </c>
-      <c r="N30" s="19" t="e">
-        <f>(2*$B30*$B30*$B30)/D30/1000000</f>
+      <c r="N30" s="18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="19">
-        <f>(2*$B30*$B30*$B30)/E30/1000000</f>
+      <c r="O30" s="18">
+        <f t="shared" si="8"/>
         <v>1940.9100711667027</v>
       </c>
-      <c r="P30" s="19">
-        <f>(2*$B30*$B30*$B30)/F30/1000000</f>
+      <c r="P30" s="18">
+        <f t="shared" si="8"/>
         <v>2913.2498921018559</v>
       </c>
-      <c r="Q30" s="19">
-        <f>(2*$B30*$B30*$B30)/G30/1000000</f>
+      <c r="Q30" s="18">
+        <f t="shared" si="8"/>
         <v>3885.7307332517812</v>
       </c>
     </row>
@@ -19225,50 +19376,50 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>43.918999999999997</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>32.997999999999998</v>
       </c>
-      <c r="H31" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="H31" s="12" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="13">
-        <f t="shared" si="2"/>
+      <c r="I31" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J31" s="13">
-        <f t="shared" si="3"/>
+      <c r="J31" s="12">
+        <f t="shared" si="11"/>
         <v>1.3309594520880053</v>
       </c>
-      <c r="K31" s="13">
-        <f t="shared" si="4"/>
+      <c r="K31" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L31" s="5" t="e">
-        <f t="shared" ref="L25:L35" si="5">C31/D31</f>
+        <f t="shared" ref="L31:L34" si="13">C31/D31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" ref="M31:Q34" si="6">(2*$B31*$B31*$B31)/C31/1000000</f>
+      <c r="M31" s="18">
+        <f t="shared" ref="M31:Q34" si="14">(2*$B31*$B31*$B31)/C31/1000000</f>
         <v>3577.0176615247042</v>
       </c>
-      <c r="N31" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="N31" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="O31" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="19">
-        <f t="shared" si="6"/>
+      <c r="P31" s="18">
+        <f t="shared" si="14"/>
         <v>2914.456157927093</v>
       </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="6"/>
+      <c r="Q31" s="18">
+        <f t="shared" si="14"/>
         <v>3879.0229710891572</v>
       </c>
     </row>
@@ -19281,50 +19432,50 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>148.27199999999999</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>111.21</v>
       </c>
-      <c r="H32" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="H32" s="12" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="13">
-        <f t="shared" si="2"/>
+      <c r="I32" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J32" s="13">
-        <f t="shared" si="3"/>
+      <c r="J32" s="12">
+        <f t="shared" si="11"/>
         <v>1.3332613973563527</v>
       </c>
-      <c r="K32" s="13">
-        <f t="shared" si="4"/>
+      <c r="K32" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L32" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="19">
-        <f t="shared" si="6"/>
+      <c r="M32" s="18">
+        <f t="shared" si="14"/>
         <v>3564.5034861174145</v>
       </c>
-      <c r="N32" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="N32" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="O32" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P32" s="19">
-        <f t="shared" si="6"/>
+      <c r="P32" s="18">
+        <f t="shared" si="14"/>
         <v>2913.5642602784078</v>
       </c>
-      <c r="Q32" s="19">
-        <f t="shared" si="6"/>
+      <c r="Q32" s="18">
+        <f t="shared" si="14"/>
         <v>3884.5427569463181</v>
       </c>
     </row>
@@ -19337,50 +19488,50 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>351.11900000000003</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>264.99400000000003</v>
       </c>
-      <c r="H33" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="H33" s="12" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="13">
-        <f t="shared" si="2"/>
+      <c r="I33" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J33" s="13">
-        <f t="shared" si="3"/>
+      <c r="J33" s="12">
+        <f t="shared" si="11"/>
         <v>1.3250073586571771</v>
       </c>
-      <c r="K33" s="13">
-        <f t="shared" si="4"/>
+      <c r="K33" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L33" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="19">
-        <f t="shared" si="6"/>
+      <c r="M33" s="18">
+        <f t="shared" si="14"/>
         <v>3569.6482292941232</v>
       </c>
-      <c r="N33" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="N33" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="O33" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P33" s="19">
-        <f t="shared" si="6"/>
+      <c r="P33" s="18">
+        <f t="shared" si="14"/>
         <v>2916.3901697145411</v>
       </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="6"/>
+      <c r="Q33" s="18">
+        <f t="shared" si="14"/>
         <v>3864.2384355872205</v>
       </c>
     </row>
@@ -19393,50 +19544,50 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>685.423</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>517.62400000000002</v>
       </c>
-      <c r="H34" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="H34" s="12" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="13">
-        <f t="shared" si="2"/>
+      <c r="I34" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J34" s="13">
-        <f t="shared" si="3"/>
+      <c r="J34" s="12">
+        <f t="shared" si="11"/>
         <v>1.3241715994621579</v>
       </c>
-      <c r="K34" s="13">
-        <f t="shared" si="4"/>
+      <c r="K34" s="12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L34" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="19">
-        <f t="shared" si="6"/>
+      <c r="M34" s="18">
+        <f t="shared" si="14"/>
         <v>3565.5517780515329</v>
       </c>
-      <c r="N34" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="N34" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="O34" s="18" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="19">
-        <f t="shared" si="6"/>
+      <c r="P34" s="18">
+        <f t="shared" si="14"/>
         <v>2917.9061688913271</v>
       </c>
-      <c r="Q34" s="19">
-        <f t="shared" si="6"/>
+      <c r="Q34" s="18">
+        <f t="shared" si="14"/>
         <v>3863.8084787413254</v>
       </c>
     </row>
@@ -19446,23 +19597,23 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <f>2/1</f>
         <v>2</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <f>4/1</f>
         <v>4</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19488,14 +19639,14 @@
   <dimension ref="B2:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
@@ -19504,32 +19655,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19537,190 +19688,183 @@
       <c r="B4" s="5">
         <v>600</v>
       </c>
-      <c r="C4" s="8">
-        <v>306493253</v>
-      </c>
-      <c r="D4" s="8">
-        <v>77545061</v>
-      </c>
-      <c r="E4" s="8">
-        <f>2*POWER(B4,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F4" s="16">
-        <f>C4/E4</f>
-        <v>0.7094751226851852</v>
-      </c>
-      <c r="G4" s="17">
-        <f>D4/E4</f>
-        <v>0.17950245601851852</v>
+      <c r="C4" s="7">
+        <v>329577253</v>
+      </c>
+      <c r="D4" s="7">
+        <v>84587707</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1518897967</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F10" si="0">C4/E4</f>
+        <v>0.21698445857489254</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G10" si="1">D4/E4</f>
+        <v>5.5690183829181464E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>1000</v>
       </c>
-      <c r="C5" s="8">
-        <v>1129819993</v>
-      </c>
-      <c r="D5" s="8">
-        <v>157358855</v>
-      </c>
-      <c r="E5" s="8">
-        <f>2*POWER(B5,3)</f>
-        <v>2000000000</v>
-      </c>
-      <c r="F5" s="16">
-        <f>C5/E5</f>
-        <v>0.56490999649999996</v>
-      </c>
-      <c r="G5" s="17">
-        <f>D5/E5</f>
-        <v>7.8679427499999996E-2</v>
+      <c r="C5" s="7">
+        <v>1129732982</v>
+      </c>
+      <c r="D5" s="7">
+        <v>153441693</v>
+      </c>
+      <c r="E5" s="17">
+        <v>7019071938</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16095190247072802</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>2.186068106373068E-2</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>1400</v>
       </c>
-      <c r="C6" s="8">
-        <v>3096628383</v>
-      </c>
-      <c r="D6" s="8">
-        <v>403380287</v>
-      </c>
-      <c r="E6" s="8">
-        <f>2*POWER(B6,3)</f>
-        <v>5488000000</v>
-      </c>
-      <c r="F6" s="16">
-        <f>C6/E6</f>
-        <v>0.56425444296647231</v>
-      </c>
-      <c r="G6" s="17">
-        <f>D6/E6</f>
-        <v>7.3502238884839644E-2</v>
+      <c r="C6" s="7">
+        <v>3096224336</v>
+      </c>
+      <c r="D6" s="7">
+        <v>434159307</v>
+      </c>
+      <c r="E6" s="17">
+        <v>19245326073</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16088188499668035</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>2.2559207641022962E-2</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>1800</v>
       </c>
-      <c r="C7" s="8">
-        <v>6582369919</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1089366045</v>
-      </c>
-      <c r="E7" s="8">
-        <f>2*POWER(B7,3)</f>
-        <v>11664000000</v>
-      </c>
-      <c r="F7" s="16">
-        <f>C7/E7</f>
-        <v>0.56433212611454042</v>
-      </c>
-      <c r="G7" s="17">
-        <f>D7/E7</f>
-        <v>9.339557998971193E-2</v>
+      <c r="C7" s="7">
+        <v>6583003700</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1205581353</v>
+      </c>
+      <c r="E7" s="17">
+        <v>40885660766</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16101008462786892</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>2.9486654499724908E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>2200</v>
       </c>
-      <c r="C8" s="8">
-        <v>12004596597</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2218658083</v>
-      </c>
-      <c r="E8" s="8">
-        <f>2*POWER(B8,3)</f>
-        <v>21296000000</v>
-      </c>
-      <c r="F8" s="16">
-        <f>C8/E8</f>
-        <v>0.56370194388617578</v>
-      </c>
-      <c r="G8" s="17">
-        <f>D8/E8</f>
-        <v>0.10418191599361383</v>
+      <c r="C8" s="7">
+        <v>12003934342</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2107603327</v>
+      </c>
+      <c r="E8" s="17">
+        <v>74628076746</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16085010984345649</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>2.824142626873961E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2600</v>
       </c>
-      <c r="C9" s="8">
-        <v>19810943428</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6237216809</v>
-      </c>
-      <c r="E9" s="8">
-        <f>2*POWER(B9,3)</f>
-        <v>35152000000</v>
-      </c>
-      <c r="F9" s="16">
-        <f>C9/E9</f>
-        <v>0.56357941021847979</v>
-      </c>
-      <c r="G9" s="17">
-        <f>D9/E9</f>
-        <v>0.17743561700614474</v>
+      <c r="C9" s="7">
+        <v>19810986187</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6105229005</v>
+      </c>
+      <c r="E9" s="17">
+        <v>123160572195</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.1608549378581425</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="1"/>
+        <v>4.957129458065198E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3000</v>
       </c>
-      <c r="C10" s="8">
-        <v>30427624872</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20319244046</v>
-      </c>
-      <c r="E10" s="8">
-        <f>2*POWER(B10,3)</f>
-        <v>54000000000</v>
-      </c>
-      <c r="F10" s="16">
-        <f>C10/E10</f>
-        <v>0.56347453466666664</v>
-      </c>
-      <c r="G10" s="17">
-        <f>D10/E10</f>
-        <v>0.37628229714814815</v>
+      <c r="C10" s="7">
+        <v>30428744273</v>
+      </c>
+      <c r="D10" s="7">
+        <v>19727829583</v>
+      </c>
+      <c r="E10" s="17">
+        <v>189171148182</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16085298717817559</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.10428561528854294</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19728,190 +19872,183 @@
       <c r="B13" s="5">
         <v>600</v>
       </c>
-      <c r="C13" s="8">
-        <v>327859740</v>
-      </c>
-      <c r="D13" s="8">
-        <v>80187465</v>
-      </c>
-      <c r="E13" s="8">
-        <f>2*POWER(B13,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F13" s="16">
-        <f>C13/E13</f>
-        <v>0.7589345833333333</v>
-      </c>
-      <c r="G13" s="17">
-        <f>D13/E13</f>
-        <v>0.18561913194444443</v>
+      <c r="C13" s="7">
+        <v>265128744</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44877128</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1821310037</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" ref="F13:F19" si="2">C13/E13</f>
+        <v>0.14557035244625954</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" ref="G13:G19" si="3">D13/E13</f>
+        <v>2.4640026732582049E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="8">
-        <v>1188137073</v>
-      </c>
-      <c r="D14" s="8">
-        <v>202935726</v>
-      </c>
-      <c r="E14" s="8">
-        <f>2*POWER(B14,3)</f>
-        <v>2000000000</v>
-      </c>
-      <c r="F14" s="16">
-        <f>C14/E14</f>
-        <v>0.59406853650000002</v>
-      </c>
-      <c r="G14" s="17">
-        <f>D14/E14</f>
-        <v>0.10146786300000001</v>
+      <c r="C14" s="7">
+        <v>1185823032</v>
+      </c>
+      <c r="D14" s="7">
+        <v>163223387</v>
+      </c>
+      <c r="E14" s="17">
+        <v>7859068450</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15088595290196258</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="3"/>
+        <v>2.0768795696136225E-2</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>1400</v>
       </c>
-      <c r="C15" s="8">
-        <v>3211809425</v>
-      </c>
-      <c r="D15" s="8">
-        <v>560727025</v>
-      </c>
-      <c r="E15" s="8">
-        <f>2*POWER(B15,3)</f>
-        <v>5488000000</v>
-      </c>
-      <c r="F15" s="16">
-        <f>C15/E15</f>
-        <v>0.58524224216472298</v>
-      </c>
-      <c r="G15" s="17">
-        <f>D15/E15</f>
-        <v>0.10217329172740525</v>
+      <c r="C15" s="7">
+        <v>3206099103</v>
+      </c>
+      <c r="D15" s="7">
+        <v>460373871</v>
+      </c>
+      <c r="E15" s="17">
+        <v>20891720547</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15346266458941257</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2036187491800838E-2</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>1800</v>
       </c>
-      <c r="C16" s="8">
-        <v>6778482912</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1758777113</v>
-      </c>
-      <c r="E16" s="8">
-        <f>2*POWER(B16,3)</f>
-        <v>11664000000</v>
-      </c>
-      <c r="F16" s="16">
-        <f>C16/E16</f>
-        <v>0.58114565432098764</v>
-      </c>
-      <c r="G16" s="17">
-        <f>D16/E16</f>
-        <v>0.15078678952331961</v>
+      <c r="C16" s="7">
+        <v>6765107689</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1379947069</v>
+      </c>
+      <c r="E16" s="17">
+        <v>43607254341</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15513720804566625</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="3"/>
+        <v>3.1644896929512924E-2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>2200</v>
       </c>
-      <c r="C17" s="8">
-        <v>12282276048</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3129559255</v>
-      </c>
-      <c r="E17" s="8">
-        <f>2*POWER(B17,3)</f>
-        <v>21296000000</v>
-      </c>
-      <c r="F17" s="16">
-        <f>C17/E17</f>
-        <v>0.57674098647633354</v>
-      </c>
-      <c r="G17" s="17">
-        <f>D17/E17</f>
-        <v>0.14695526178625093</v>
+      <c r="C17" s="7">
+        <v>12281201205</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3031737205</v>
+      </c>
+      <c r="E17" s="17">
+        <v>78693667901</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15606339788927207</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="3"/>
+        <v>3.852580882128985E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>2600</v>
       </c>
-      <c r="C18" s="8">
-        <v>20208783796</v>
-      </c>
-      <c r="D18" s="8">
-        <v>9897424111</v>
-      </c>
-      <c r="E18" s="8">
-        <f>2*POWER(B18,3)</f>
-        <v>35152000000</v>
-      </c>
-      <c r="F18" s="16">
-        <f>C18/E18</f>
-        <v>0.57489712664997727</v>
-      </c>
-      <c r="G18" s="17">
-        <f>D18/E18</f>
-        <v>0.28156076783682293</v>
+      <c r="C18" s="7">
+        <v>20199864806</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9164086882</v>
+      </c>
+      <c r="E18" s="17">
+        <v>128838961708</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15678382174315311</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="3"/>
+        <v>7.1128226745333784E-2</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>3000</v>
       </c>
-      <c r="C19" s="8">
-        <v>30963787607</v>
-      </c>
-      <c r="D19" s="8">
-        <v>23077151353</v>
-      </c>
-      <c r="E19" s="8">
-        <f>2*POWER(B19,3)</f>
-        <v>54000000000</v>
-      </c>
-      <c r="F19" s="16">
-        <f>C19/E19</f>
-        <v>0.57340347420370374</v>
-      </c>
-      <c r="G19" s="17">
-        <f>D19/E19</f>
-        <v>0.42735465468518519</v>
+      <c r="C19" s="7">
+        <v>30948060007</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23456308936</v>
+      </c>
+      <c r="E19" s="17">
+        <v>196731135979</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="2"/>
+        <v>0.1573114487088792</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11923028258477517</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19919,190 +20056,183 @@
       <c r="B22" s="5">
         <v>600</v>
       </c>
-      <c r="C22" s="8">
-        <v>64861260</v>
-      </c>
-      <c r="D22" s="8">
-        <v>53852583</v>
-      </c>
-      <c r="E22" s="8">
-        <f>2*POWER(B22,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F22" s="16">
-        <f>C22/E22</f>
-        <v>0.15014180555555556</v>
-      </c>
-      <c r="G22" s="17">
-        <f>D22/E22</f>
-        <v>0.12465875694444445</v>
+      <c r="C22" s="7">
+        <v>81495028</v>
+      </c>
+      <c r="D22" s="7">
+        <v>60336932</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1011772586</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" ref="F22:F28" si="4">C22/E22</f>
+        <v>8.0546784057657791E-2</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" ref="G22:G28" si="5">D22/E22</f>
+        <v>5.9634875301909002E-2</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>1000</v>
       </c>
-      <c r="C23" s="8">
-        <v>594510165</v>
-      </c>
-      <c r="D23" s="8">
-        <v>170424548</v>
-      </c>
-      <c r="E23" s="8">
-        <f>2*POWER(B23,3)</f>
-        <v>2000000000</v>
-      </c>
-      <c r="F23" s="16">
-        <f>C23/E23</f>
-        <v>0.29725508249999999</v>
-      </c>
-      <c r="G23" s="17">
-        <f>D23/E23</f>
-        <v>8.5212274000000005E-2</v>
+      <c r="C23" s="7">
+        <v>586066908</v>
+      </c>
+      <c r="D23" s="7">
+        <v>159850950</v>
+      </c>
+      <c r="E23" s="17">
+        <v>4239819745</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="4"/>
+        <v>0.1382292038927235</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="5"/>
+        <v>3.7702298591469952E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>1400</v>
       </c>
-      <c r="C24" s="8">
-        <v>1681108013</v>
-      </c>
-      <c r="D24" s="8">
-        <v>391033962</v>
-      </c>
-      <c r="E24" s="8">
-        <f>2*POWER(B24,3)</f>
-        <v>5488000000</v>
-      </c>
-      <c r="F24" s="16">
-        <f>C24/E24</f>
-        <v>0.3063243463921283</v>
-      </c>
-      <c r="G24" s="17">
-        <f>D24/E24</f>
-        <v>7.1252544096209916E-2</v>
+      <c r="C24" s="7">
+        <v>1682800130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>375079510</v>
+      </c>
+      <c r="E24" s="17">
+        <v>11061388245</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="4"/>
+        <v>0.1521328148626068</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="5"/>
+        <v>3.3908900193386167E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>1800</v>
       </c>
-      <c r="C25" s="8">
-        <v>3511604949</v>
-      </c>
-      <c r="D25" s="8">
-        <v>770410308</v>
-      </c>
-      <c r="E25" s="8">
-        <f>2*POWER(B25,3)</f>
-        <v>11664000000</v>
-      </c>
-      <c r="F25" s="16">
-        <f>C25/E25</f>
-        <v>0.3010635244341564</v>
-      </c>
-      <c r="G25" s="17">
-        <f>D25/E25</f>
-        <v>6.6050266460905352E-2</v>
+      <c r="C25" s="7">
+        <v>3514935813</v>
+      </c>
+      <c r="D25" s="7">
+        <v>728128357</v>
+      </c>
+      <c r="E25" s="17">
+        <v>22855860515</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15378706965301936</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="5"/>
+        <v>3.1857402897700525E-2</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>2200</v>
       </c>
-      <c r="C26" s="8">
-        <v>6328942336</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1255970472</v>
-      </c>
-      <c r="E26" s="8">
-        <f>2*POWER(B26,3)</f>
-        <v>21296000000</v>
-      </c>
-      <c r="F26" s="16">
-        <f>C26/E26</f>
-        <v>0.29718925319308792</v>
-      </c>
-      <c r="G26" s="17">
-        <f>D26/E26</f>
-        <v>5.8976825319308791E-2</v>
+      <c r="C26" s="7">
+        <v>6336141354</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1188229567</v>
+      </c>
+      <c r="E26" s="17">
+        <v>40939813052</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15476722734302925</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="5"/>
+        <v>2.9023815167176302E-2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>2600</v>
       </c>
-      <c r="C27" s="8">
-        <v>10364446452</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2082641594</v>
-      </c>
-      <c r="E27" s="8">
-        <f>2*POWER(B27,3)</f>
-        <v>35152000000</v>
-      </c>
-      <c r="F27" s="16">
-        <f>C27/E27</f>
-        <v>0.29484656497496586</v>
-      </c>
-      <c r="G27" s="17">
-        <f>D27/E27</f>
-        <v>5.9246745391442875E-2</v>
+      <c r="C27" s="7">
+        <v>10367461814</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1928971430</v>
+      </c>
+      <c r="E27" s="17">
+        <v>66698904878</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15543676216218669</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="5"/>
+        <v>2.8920586230438288E-2</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>3000</v>
       </c>
-      <c r="C28" s="8">
-        <v>15823170476</v>
-      </c>
-      <c r="D28" s="8">
-        <v>3499926106</v>
-      </c>
-      <c r="E28" s="8">
-        <f>2*POWER(B28,3)</f>
-        <v>54000000000</v>
-      </c>
-      <c r="F28" s="16">
-        <f>C28/E28</f>
-        <v>0.2930216754814815</v>
-      </c>
-      <c r="G28" s="17">
-        <f>D28/E28</f>
-        <v>6.481344640740741E-2</v>
+      <c r="C28" s="7">
+        <v>15829628911</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2916601620</v>
+      </c>
+      <c r="E28" s="17">
+        <v>101469324822</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15600408240390606</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="5"/>
+        <v>2.8743678201430579E-2</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20110,190 +20240,183 @@
       <c r="B31" s="5">
         <v>600</v>
       </c>
-      <c r="C31" s="8">
-        <v>26342675</v>
-      </c>
-      <c r="D31" s="8">
-        <v>53780886</v>
-      </c>
-      <c r="E31" s="8">
-        <f>2*POWER(B31,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F31" s="16">
-        <f>C31/E31</f>
-        <v>6.0978414351851855E-2</v>
-      </c>
-      <c r="G31" s="17">
-        <f>D31/E31</f>
-        <v>0.12449279166666667</v>
+      <c r="C31" s="7">
+        <v>28803040</v>
+      </c>
+      <c r="D31" s="7">
+        <v>58104083</v>
+      </c>
+      <c r="E31" s="17">
+        <v>792925568</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" ref="F31:F37" si="6">C31/E31</f>
+        <v>3.6325023637023141E-2</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" ref="G31:G37" si="7">D31/E31</f>
+        <v>7.3278104963314786E-2</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>1000</v>
       </c>
-      <c r="C32" s="8">
-        <v>120736651</v>
-      </c>
-      <c r="D32" s="8">
-        <v>165434253</v>
-      </c>
-      <c r="E32" s="8">
-        <f>2*POWER(B32,3)</f>
-        <v>2000000000</v>
-      </c>
-      <c r="F32" s="16">
-        <f>C32/E32</f>
-        <v>6.03683255E-2</v>
-      </c>
-      <c r="G32" s="17">
-        <f>D32/E32</f>
-        <v>8.2717126500000002E-2</v>
+      <c r="C32" s="7">
+        <v>131553392</v>
+      </c>
+      <c r="D32" s="7">
+        <v>175440065</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3141637800</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="6"/>
+        <v>4.1874143480193672E-2</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="7"/>
+        <v>5.5843504620424415E-2</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>1400</v>
       </c>
-      <c r="C33" s="8">
-        <v>977844656</v>
-      </c>
-      <c r="D33" s="8">
-        <v>388170210</v>
-      </c>
-      <c r="E33" s="8">
-        <f>2*POWER(B33,3)</f>
-        <v>5488000000</v>
-      </c>
-      <c r="F33" s="16">
-        <f>C33/E33</f>
-        <v>0.17817869096209912</v>
-      </c>
-      <c r="G33" s="17">
-        <f>D33/E33</f>
-        <v>7.0730723396501452E-2</v>
+      <c r="C33" s="7">
+        <v>888587876</v>
+      </c>
+      <c r="D33" s="7">
+        <v>398933080</v>
+      </c>
+      <c r="E33" s="17">
+        <v>7981960902</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.11132450871531467</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" si="7"/>
+        <v>4.9979332760204491E-2</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>1800</v>
       </c>
-      <c r="C34" s="8">
-        <v>2426277308</v>
-      </c>
-      <c r="D34" s="8">
-        <v>722855878</v>
-      </c>
-      <c r="E34" s="8">
-        <f>2*POWER(B34,3)</f>
-        <v>11664000000</v>
-      </c>
-      <c r="F34" s="16">
-        <f>C34/E34</f>
-        <v>0.20801417249657064</v>
-      </c>
-      <c r="G34" s="17">
-        <f>D34/E34</f>
-        <v>6.1973240569272975E-2</v>
+      <c r="C34" s="7">
+        <v>2440069630</v>
+      </c>
+      <c r="D34" s="7">
+        <v>738453944</v>
+      </c>
+      <c r="E34" s="17">
+        <v>16211054400</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15051887248000353</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="7"/>
+        <v>4.5552493118522878E-2</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>2200</v>
       </c>
-      <c r="C35" s="8">
-        <v>4383943592</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1156516727</v>
-      </c>
-      <c r="E35" s="8">
-        <f>2*POWER(B35,3)</f>
-        <v>21296000000</v>
-      </c>
-      <c r="F35" s="16">
-        <f>C35/E35</f>
-        <v>0.20585760668670172</v>
-      </c>
-      <c r="G35" s="17">
-        <f>D35/E35</f>
-        <v>5.4306758405334332E-2</v>
+      <c r="C35" s="7">
+        <v>4373531501</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1174212734</v>
+      </c>
+      <c r="E35" s="17">
+        <v>28799978181</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15185884772250688</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="7"/>
+        <v>4.0771306374622701E-2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>2600</v>
       </c>
-      <c r="C36" s="8">
-        <v>7135164820</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1754755741</v>
-      </c>
-      <c r="E36" s="8">
-        <f>2*POWER(B36,3)</f>
-        <v>35152000000</v>
-      </c>
-      <c r="F36" s="16">
-        <f>C36/E36</f>
-        <v>0.20298033739189805</v>
-      </c>
-      <c r="G36" s="17">
-        <f>D36/E36</f>
-        <v>4.991908685138826E-2</v>
+      <c r="C36" s="7">
+        <v>7113825542</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1777309414</v>
+      </c>
+      <c r="E36" s="17">
+        <v>46564306742</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15277421784492032</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" si="7"/>
+        <v>3.8168922472046708E-2</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>3000</v>
       </c>
-      <c r="C37" s="8">
-        <v>10844597209</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2508947813</v>
-      </c>
-      <c r="E37" s="8">
-        <f>2*POWER(B37,3)</f>
-        <v>54000000000</v>
-      </c>
-      <c r="F37" s="16">
-        <f>C37/E37</f>
-        <v>0.20082587424074075</v>
-      </c>
-      <c r="G37" s="17">
-        <f>D37/E37</f>
-        <v>4.6461996537037038E-2</v>
+      <c r="C37" s="7">
+        <v>10813940433</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2592243825</v>
+      </c>
+      <c r="E37" s="17">
+        <v>70416573461</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15357095498248388</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" si="7"/>
+        <v>3.6812978785963027E-2</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20301,161 +20424,154 @@
       <c r="B40" s="5">
         <v>600</v>
       </c>
-      <c r="C40" s="8">
-        <v>23996833</v>
-      </c>
-      <c r="D40" s="8">
-        <v>61617859</v>
-      </c>
-      <c r="E40" s="8">
-        <f>2*POWER(B40,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F40" s="16">
-        <f>C40/E40</f>
-        <v>5.554822453703704E-2</v>
-      </c>
-      <c r="G40" s="17">
-        <f>D40/E40</f>
-        <v>0.14263393287037038</v>
+      <c r="C40" s="7">
+        <v>25933478</v>
+      </c>
+      <c r="D40" s="7">
+        <v>62500528</v>
+      </c>
+      <c r="E40" s="17">
+        <v>696641610</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" ref="F40:F46" si="8">C40/E40</f>
+        <v>3.7226426942829328E-2</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" ref="G40:G46" si="9">D40/E40</f>
+        <v>8.9716903358672481E-2</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>1000</v>
       </c>
-      <c r="C41" s="8">
-        <v>86744880</v>
-      </c>
-      <c r="D41" s="8">
-        <v>174720567</v>
-      </c>
-      <c r="E41" s="8">
-        <f>2*POWER(B41,3)</f>
-        <v>2000000000</v>
-      </c>
-      <c r="F41" s="16">
-        <f>C41/E41</f>
-        <v>4.3372439999999998E-2</v>
-      </c>
-      <c r="G41" s="17">
-        <f>D41/E41</f>
-        <v>8.7360283499999997E-2</v>
+      <c r="C41" s="7">
+        <v>92842834</v>
+      </c>
+      <c r="D41" s="7">
+        <v>193533226</v>
+      </c>
+      <c r="E41" s="17">
+        <v>2635291010</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="8"/>
+        <v>3.5230581232848363E-2</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="9"/>
+        <v>7.343903396839653E-2</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>1400</v>
       </c>
-      <c r="C42" s="8">
-        <v>300548588</v>
-      </c>
-      <c r="D42" s="8">
-        <v>376975242</v>
-      </c>
-      <c r="E42" s="8">
-        <f>2*POWER(B42,3)</f>
-        <v>5488000000</v>
-      </c>
-      <c r="F42" s="16">
-        <f>C42/E42</f>
-        <v>5.4764684402332363E-2</v>
-      </c>
-      <c r="G42" s="17">
-        <f>D42/E42</f>
-        <v>6.8690823979591836E-2</v>
+      <c r="C42" s="7">
+        <v>301388030</v>
+      </c>
+      <c r="D42" s="7">
+        <v>415403351</v>
+      </c>
+      <c r="E42" s="17">
+        <v>6540598201</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="8"/>
+        <v>4.6079581826922254E-2</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="9"/>
+        <v>6.3511522682510674E-2</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>1800</v>
       </c>
-      <c r="C43" s="8">
-        <v>1356347875</v>
-      </c>
-      <c r="D43" s="8">
-        <v>750110328</v>
-      </c>
-      <c r="E43" s="8">
-        <f>2*POWER(B43,3)</f>
-        <v>11664000000</v>
-      </c>
-      <c r="F43" s="16">
-        <f>C43/E43</f>
-        <v>0.11628496870713306</v>
-      </c>
-      <c r="G43" s="17">
-        <f>D43/E43</f>
-        <v>6.4309870370370364E-2</v>
+      <c r="C43" s="7">
+        <v>1395447177</v>
+      </c>
+      <c r="D43" s="7">
+        <v>748640798</v>
+      </c>
+      <c r="E43" s="17">
+        <v>13090175126</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="8"/>
+        <v>0.10660263621900148</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="9"/>
+        <v>5.7191045252941865E-2</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>2200</v>
       </c>
-      <c r="C44" s="8">
-        <v>3368476511</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1194063085</v>
-      </c>
-      <c r="E44" s="8">
-        <f>2*POWER(B44,3)</f>
-        <v>21296000000</v>
-      </c>
-      <c r="F44" s="16">
-        <f>C44/E44</f>
-        <v>0.15817414120022538</v>
-      </c>
-      <c r="G44" s="17">
-        <f>D44/E44</f>
-        <v>5.6069829310668673E-2</v>
+      <c r="C44" s="7">
+        <v>3378946614</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1169076244</v>
+      </c>
+      <c r="E44" s="17">
+        <v>22953275430</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="8"/>
+        <v>0.14720977946283459</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0932872197926658E-2</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>2600</v>
       </c>
-      <c r="C45" s="8">
-        <v>5505543193</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1779130937</v>
-      </c>
-      <c r="E45" s="8">
-        <f>2*POWER(B45,3)</f>
-        <v>35152000000</v>
-      </c>
-      <c r="F45" s="16">
-        <f>C45/E45</f>
-        <v>0.15662105123463815</v>
-      </c>
-      <c r="G45" s="17">
-        <f>D45/E45</f>
-        <v>5.0612509586936735E-2</v>
+      <c r="C45" s="7">
+        <v>5513768294</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1729706287</v>
+      </c>
+      <c r="E45" s="17">
+        <v>36815572164</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="8"/>
+        <v>0.14976728514331286</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="9"/>
+        <v>4.6983007062739293E-2</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>3000</v>
       </c>
-      <c r="C46" s="8">
-        <v>8348817364</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2553393680</v>
-      </c>
-      <c r="E46" s="8">
-        <f>2*POWER(B46,3)</f>
-        <v>54000000000</v>
-      </c>
-      <c r="F46" s="16">
-        <f>C46/E46</f>
-        <v>0.15460772896296296</v>
-      </c>
-      <c r="G46" s="17">
-        <f>D46/E46</f>
-        <v>4.7285068148148146E-2</v>
+      <c r="C46" s="7">
+        <v>8359076836</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2458134609</v>
+      </c>
+      <c r="E46" s="17">
+        <v>55373967164</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="8"/>
+        <v>0.15095679909014076</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="9"/>
+        <v>4.4391520689131603E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20475,7 +20591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -20489,32 +20605,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20522,22 +20638,22 @@
       <c r="B4" s="5">
         <v>600</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>27122148</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>61045414</v>
       </c>
-      <c r="E4" s="18">
-        <f>2*POWER(B4,3)</f>
+      <c r="E4" s="17">
+        <f t="shared" ref="E4:E14" si="0">2*POWER(B4,3)</f>
         <v>432000000</v>
       </c>
-      <c r="F4" s="16">
-        <f>C4/E4</f>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F10" si="1">C4/E4</f>
         <v>6.2782749999999998E-2</v>
       </c>
-      <c r="G4" s="17">
-        <f>D4/E4</f>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G10" si="2">D4/E4</f>
         <v>0.1413088287037037</v>
       </c>
     </row>
@@ -20545,22 +20661,22 @@
       <c r="B5" s="5">
         <v>1000</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>125698205</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>261856296</v>
       </c>
-      <c r="E5" s="18">
-        <f>2*POWER(B5,3)</f>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
         <v>2000000000</v>
       </c>
-      <c r="F5" s="16">
-        <f>C5/E5</f>
+      <c r="F5" s="15">
+        <f t="shared" si="1"/>
         <v>6.2849102500000004E-2</v>
       </c>
-      <c r="G5" s="17">
-        <f>D5/E5</f>
+      <c r="G5" s="16">
+        <f t="shared" si="2"/>
         <v>0.13092814799999999</v>
       </c>
     </row>
@@ -20568,22 +20684,22 @@
       <c r="B6" s="5">
         <v>1400</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>346919524</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>710373756</v>
       </c>
-      <c r="E6" s="18">
-        <f>2*POWER(B6,3)</f>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
         <v>5488000000</v>
       </c>
-      <c r="F6" s="16">
-        <f>C6/E6</f>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
         <v>6.3214198979591837E-2</v>
       </c>
-      <c r="G6" s="17">
-        <f>D6/E6</f>
+      <c r="G6" s="16">
+        <f t="shared" si="2"/>
         <v>0.12944128206997085</v>
       </c>
     </row>
@@ -20591,22 +20707,22 @@
       <c r="B7" s="5">
         <v>1800</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>740659276</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1511340246</v>
       </c>
-      <c r="E7" s="18">
-        <f>2*POWER(B7,3)</f>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
         <v>11664000000</v>
       </c>
-      <c r="F7" s="16">
-        <f>C7/E7</f>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
         <v>6.3499594993141284E-2</v>
       </c>
-      <c r="G7" s="17">
-        <f>D7/E7</f>
+      <c r="G7" s="16">
+        <f t="shared" si="2"/>
         <v>0.12957306635802468</v>
       </c>
     </row>
@@ -20614,22 +20730,22 @@
       <c r="B8" s="5">
         <v>2200</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>2048718443</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2753833160</v>
       </c>
-      <c r="E8" s="18">
-        <f>2*POWER(B8,3)</f>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
         <v>21296000000</v>
       </c>
-      <c r="F8" s="16">
-        <f>C8/E8</f>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
         <v>9.6202030569120967E-2</v>
       </c>
-      <c r="G8" s="17">
-        <f>D8/E8</f>
+      <c r="G8" s="16">
+        <f t="shared" si="2"/>
         <v>0.12931222577009768</v>
       </c>
     </row>
@@ -20637,22 +20753,22 @@
       <c r="B9" s="5">
         <v>2600</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>4373741778</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>4559666661</v>
       </c>
-      <c r="E9" s="18">
-        <f>2*POWER(B9,3)</f>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
         <v>35152000000</v>
       </c>
-      <c r="F9" s="16">
-        <f>C9/E9</f>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
         <v>0.1244236964610833</v>
       </c>
-      <c r="G9" s="17">
-        <f>D9/E9</f>
+      <c r="G9" s="16">
+        <f t="shared" si="2"/>
         <v>0.12971286586822942</v>
       </c>
     </row>
@@ -20660,22 +20776,22 @@
       <c r="B10" s="5">
         <v>3000</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>6762208063</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>7003555308</v>
       </c>
-      <c r="E10" s="18">
-        <f>2*POWER(B10,3)</f>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
         <v>54000000000</v>
       </c>
-      <c r="F10" s="16">
-        <f>C10/E10</f>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
         <v>0.12522607524074075</v>
       </c>
-      <c r="G10" s="17">
-        <f>D10/E10</f>
+      <c r="G10" s="16">
+        <f t="shared" si="2"/>
         <v>0.12969546866666667</v>
       </c>
     </row>
@@ -20683,22 +20799,22 @@
       <c r="B11" s="5">
         <v>4000</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>16054766836</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>16606792682</v>
       </c>
-      <c r="E11" s="18">
-        <f>2*POWER(B11,3)</f>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
         <v>128000000000</v>
       </c>
-      <c r="F11" s="16">
-        <f t="shared" ref="F11:F14" si="0">C11/E11</f>
+      <c r="F11" s="15">
+        <f t="shared" ref="F11:F14" si="3">C11/E11</f>
         <v>0.12542786590624999</v>
       </c>
-      <c r="G11" s="17">
-        <f t="shared" ref="G11:G14" si="1">D11/E11</f>
+      <c r="G11" s="16">
+        <f t="shared" ref="G11:G14" si="4">D11/E11</f>
         <v>0.12974056782812499</v>
       </c>
     </row>
@@ -20706,22 +20822,22 @@
       <c r="B12" s="5">
         <v>6000</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>54108919327</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>56067889906</v>
       </c>
-      <c r="E12" s="18">
-        <f>2*POWER(B12,3)</f>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
         <v>432000000000</v>
       </c>
-      <c r="F12" s="16">
-        <f t="shared" si="0"/>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
         <v>0.12525212807175926</v>
       </c>
-      <c r="G12" s="17">
-        <f t="shared" si="1"/>
+      <c r="G12" s="16">
+        <f t="shared" si="4"/>
         <v>0.12978678218981482</v>
       </c>
     </row>
@@ -20729,22 +20845,22 @@
       <c r="B13" s="5">
         <v>8000</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>128598185230</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>132776205772</v>
       </c>
-      <c r="E13" s="18">
-        <f>2*POWER(B13,3)</f>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
         <v>1024000000000</v>
       </c>
-      <c r="F13" s="16">
-        <f t="shared" si="0"/>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
         <v>0.12558416526367189</v>
       </c>
-      <c r="G13" s="17">
-        <f t="shared" si="1"/>
+      <c r="G13" s="16">
+        <f t="shared" si="4"/>
         <v>0.12966426344921875</v>
       </c>
     </row>
@@ -20752,52 +20868,52 @@
       <c r="B14" s="5">
         <v>10000</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>250407970741</v>
       </c>
       <c r="D14">
         <v>259802532962</v>
       </c>
-      <c r="E14" s="18">
-        <f>2*POWER(B14,3)</f>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
         <v>2000000000000</v>
       </c>
-      <c r="F14" s="16">
-        <f t="shared" si="0"/>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
         <v>0.12520398537050001</v>
       </c>
-      <c r="G14" s="17">
-        <f t="shared" si="1"/>
+      <c r="G14" s="16">
+        <f t="shared" si="4"/>
         <v>0.12990126648100001</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20805,18 +20921,18 @@
       <c r="B17" s="5">
         <v>600</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="18">
-        <f>2*POWER(B17,3)</f>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="17">
+        <f t="shared" ref="E17:E27" si="5">2*POWER(B17,3)</f>
         <v>432000000</v>
       </c>
-      <c r="F17" s="16">
-        <f>C17/E17</f>
+      <c r="F17" s="15">
+        <f t="shared" ref="F17:F23" si="6">C17/E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="17">
-        <f>D17/E17</f>
+      <c r="G17" s="16">
+        <f t="shared" ref="G17:G23" si="7">D17/E17</f>
         <v>0</v>
       </c>
     </row>
@@ -20824,18 +20940,18 @@
       <c r="B18" s="5">
         <v>1000</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="18">
-        <f>2*POWER(B18,3)</f>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="17">
+        <f t="shared" si="5"/>
         <v>2000000000</v>
       </c>
-      <c r="F18" s="16">
-        <f>C18/E18</f>
+      <c r="F18" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G18" s="17">
-        <f>D18/E18</f>
+      <c r="G18" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20843,18 +20959,18 @@
       <c r="B19" s="5">
         <v>1400</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="18">
-        <f>2*POWER(B19,3)</f>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="17">
+        <f t="shared" si="5"/>
         <v>5488000000</v>
       </c>
-      <c r="F19" s="16">
-        <f>C19/E19</f>
+      <c r="F19" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G19" s="17">
-        <f>D19/E19</f>
+      <c r="G19" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20862,18 +20978,18 @@
       <c r="B20" s="5">
         <v>1800</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="18">
-        <f>2*POWER(B20,3)</f>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="17">
+        <f t="shared" si="5"/>
         <v>11664000000</v>
       </c>
-      <c r="F20" s="16">
-        <f>C20/E20</f>
+      <c r="F20" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="17">
-        <f>D20/E20</f>
+      <c r="G20" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20881,18 +20997,18 @@
       <c r="B21" s="5">
         <v>2200</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="18">
-        <f>2*POWER(B21,3)</f>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="17">
+        <f t="shared" si="5"/>
         <v>21296000000</v>
       </c>
-      <c r="F21" s="16">
-        <f>C21/E21</f>
+      <c r="F21" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="17">
-        <f>D21/E21</f>
+      <c r="G21" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20900,18 +21016,18 @@
       <c r="B22" s="5">
         <v>2600</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="18">
-        <f>2*POWER(B22,3)</f>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="17">
+        <f t="shared" si="5"/>
         <v>35152000000</v>
       </c>
-      <c r="F22" s="16">
-        <f>C22/E22</f>
+      <c r="F22" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="17">
-        <f>D22/E22</f>
+      <c r="G22" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20919,18 +21035,18 @@
       <c r="B23" s="5">
         <v>3000</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="18">
-        <f>2*POWER(B23,3)</f>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="17">
+        <f t="shared" si="5"/>
         <v>54000000000</v>
       </c>
-      <c r="F23" s="16">
-        <f>C23/E23</f>
+      <c r="F23" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="17">
-        <f>D23/E23</f>
+      <c r="G23" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20938,16 +21054,16 @@
       <c r="B24" s="5">
         <v>4000</v>
       </c>
-      <c r="E24" s="18">
-        <f>2*POWER(B24,3)</f>
+      <c r="E24" s="17">
+        <f t="shared" si="5"/>
         <v>128000000000</v>
       </c>
-      <c r="F24" s="16">
-        <f t="shared" ref="F24:F27" si="2">C24/E24</f>
+      <c r="F24" s="15">
+        <f t="shared" ref="F24:F27" si="8">C24/E24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" ref="G24:G27" si="3">D24/E24</f>
+      <c r="G24" s="16">
+        <f t="shared" ref="G24:G27" si="9">D24/E24</f>
         <v>0</v>
       </c>
     </row>
@@ -20955,16 +21071,16 @@
       <c r="B25" s="5">
         <v>6000</v>
       </c>
-      <c r="E25" s="18">
-        <f>2*POWER(B25,3)</f>
+      <c r="E25" s="17">
+        <f t="shared" si="5"/>
         <v>432000000000</v>
       </c>
-      <c r="F25" s="16">
-        <f t="shared" si="2"/>
+      <c r="F25" s="15">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G25" s="17">
-        <f t="shared" si="3"/>
+      <c r="G25" s="16">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20972,16 +21088,16 @@
       <c r="B26" s="5">
         <v>8000</v>
       </c>
-      <c r="E26" s="18">
-        <f>2*POWER(B26,3)</f>
+      <c r="E26" s="17">
+        <f t="shared" si="5"/>
         <v>1024000000000</v>
       </c>
-      <c r="F26" s="16">
-        <f t="shared" si="2"/>
+      <c r="F26" s="15">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G26" s="17">
-        <f t="shared" si="3"/>
+      <c r="G26" s="16">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20989,46 +21105,46 @@
       <c r="B27" s="5">
         <v>10000</v>
       </c>
-      <c r="E27" s="18">
-        <f>2*POWER(B27,3)</f>
+      <c r="E27" s="17">
+        <f t="shared" si="5"/>
         <v>2000000000000</v>
       </c>
-      <c r="F27" s="16">
-        <f t="shared" si="2"/>
+      <c r="F27" s="15">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G27" s="17">
-        <f t="shared" si="3"/>
+      <c r="G27" s="16">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -21036,18 +21152,18 @@
       <c r="B30" s="5">
         <v>600</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="18">
-        <f>2*POWER(B30,3)</f>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="17">
+        <f t="shared" ref="E30:E40" si="10">2*POWER(B30,3)</f>
         <v>432000000</v>
       </c>
-      <c r="F30" s="16">
-        <f>C30/E30</f>
+      <c r="F30" s="15">
+        <f t="shared" ref="F30:F36" si="11">C30/E30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="17">
-        <f>D30/E30</f>
+      <c r="G30" s="16">
+        <f t="shared" ref="G30:G36" si="12">D30/E30</f>
         <v>0</v>
       </c>
     </row>
@@ -21055,18 +21171,18 @@
       <c r="B31" s="5">
         <v>1000</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="18">
-        <f>2*POWER(B31,3)</f>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="17">
+        <f t="shared" si="10"/>
         <v>2000000000</v>
       </c>
-      <c r="F31" s="16">
-        <f>C31/E31</f>
+      <c r="F31" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G31" s="17">
-        <f>D31/E31</f>
+      <c r="G31" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -21074,18 +21190,18 @@
       <c r="B32" s="5">
         <v>1400</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="18">
-        <f>2*POWER(B32,3)</f>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="17">
+        <f t="shared" si="10"/>
         <v>5488000000</v>
       </c>
-      <c r="F32" s="16">
-        <f>C32/E32</f>
+      <c r="F32" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G32" s="17">
-        <f>D32/E32</f>
+      <c r="G32" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -21093,18 +21209,18 @@
       <c r="B33" s="5">
         <v>1800</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="18">
-        <f>2*POWER(B33,3)</f>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="17">
+        <f t="shared" si="10"/>
         <v>11664000000</v>
       </c>
-      <c r="F33" s="16">
-        <f>C33/E33</f>
+      <c r="F33" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G33" s="17">
-        <f>D33/E33</f>
+      <c r="G33" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -21112,18 +21228,18 @@
       <c r="B34" s="5">
         <v>2200</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="18">
-        <f>2*POWER(B34,3)</f>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="17">
+        <f t="shared" si="10"/>
         <v>21296000000</v>
       </c>
-      <c r="F34" s="16">
-        <f>C34/E34</f>
+      <c r="F34" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G34" s="17">
-        <f>D34/E34</f>
+      <c r="G34" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -21131,18 +21247,18 @@
       <c r="B35" s="5">
         <v>2600</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="18">
-        <f>2*POWER(B35,3)</f>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="17">
+        <f t="shared" si="10"/>
         <v>35152000000</v>
       </c>
-      <c r="F35" s="16">
-        <f>C35/E35</f>
+      <c r="F35" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G35" s="17">
-        <f>D35/E35</f>
+      <c r="G35" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -21150,18 +21266,18 @@
       <c r="B36" s="5">
         <v>3000</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="18">
-        <f>2*POWER(B36,3)</f>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="17">
+        <f t="shared" si="10"/>
         <v>54000000000</v>
       </c>
-      <c r="F36" s="16">
-        <f>C36/E36</f>
+      <c r="F36" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G36" s="17">
-        <f>D36/E36</f>
+      <c r="G36" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -21169,16 +21285,16 @@
       <c r="B37" s="5">
         <v>4000</v>
       </c>
-      <c r="E37" s="18">
-        <f>2*POWER(B37,3)</f>
+      <c r="E37" s="17">
+        <f t="shared" si="10"/>
         <v>128000000000</v>
       </c>
-      <c r="F37" s="16">
-        <f t="shared" ref="F37:F40" si="4">C37/E37</f>
+      <c r="F37" s="15">
+        <f t="shared" ref="F37:F40" si="13">C37/E37</f>
         <v>0</v>
       </c>
-      <c r="G37" s="17">
-        <f t="shared" ref="G37:G40" si="5">D37/E37</f>
+      <c r="G37" s="16">
+        <f t="shared" ref="G37:G40" si="14">D37/E37</f>
         <v>0</v>
       </c>
     </row>
@@ -21186,16 +21302,16 @@
       <c r="B38" s="5">
         <v>6000</v>
       </c>
-      <c r="E38" s="18">
-        <f>2*POWER(B38,3)</f>
+      <c r="E38" s="17">
+        <f t="shared" si="10"/>
         <v>432000000000</v>
       </c>
-      <c r="F38" s="16">
-        <f t="shared" si="4"/>
+      <c r="F38" s="15">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G38" s="17">
-        <f t="shared" si="5"/>
+      <c r="G38" s="16">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21203,16 +21319,16 @@
       <c r="B39" s="5">
         <v>8000</v>
       </c>
-      <c r="E39" s="18">
-        <f>2*POWER(B39,3)</f>
+      <c r="E39" s="17">
+        <f t="shared" si="10"/>
         <v>1024000000000</v>
       </c>
-      <c r="F39" s="16">
-        <f t="shared" si="4"/>
+      <c r="F39" s="15">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G39" s="17">
-        <f t="shared" si="5"/>
+      <c r="G39" s="16">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21220,46 +21336,46 @@
       <c r="B40" s="5">
         <v>10000</v>
       </c>
-      <c r="E40" s="18">
-        <f>2*POWER(B40,3)</f>
+      <c r="E40" s="17">
+        <f t="shared" si="10"/>
         <v>2000000000000</v>
       </c>
-      <c r="F40" s="16">
-        <f t="shared" si="4"/>
+      <c r="F40" s="15">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G40" s="17">
-        <f t="shared" si="5"/>
+      <c r="G40" s="16">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -21267,22 +21383,22 @@
       <c r="B43" s="5">
         <v>600</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>9067835</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>19382784</v>
       </c>
-      <c r="E43" s="18">
-        <f>2*POWER(B43,3)</f>
+      <c r="E43" s="17">
+        <f t="shared" ref="E43:E53" si="15">2*POWER(B43,3)</f>
         <v>432000000</v>
       </c>
-      <c r="F43" s="16">
-        <f>C43/E43</f>
+      <c r="F43" s="15">
+        <f t="shared" ref="F43:F49" si="16">C43/E43</f>
         <v>2.0990358796296297E-2</v>
       </c>
-      <c r="G43" s="17">
-        <f>D43/E43</f>
+      <c r="G43" s="16">
+        <f t="shared" ref="G43:G49" si="17">D43/E43</f>
         <v>4.4867555555555556E-2</v>
       </c>
     </row>
@@ -21290,22 +21406,22 @@
       <c r="B44" s="5">
         <v>1000</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>42123275</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>87222043</v>
       </c>
-      <c r="E44" s="18">
-        <f>2*POWER(B44,3)</f>
+      <c r="E44" s="17">
+        <f t="shared" si="15"/>
         <v>2000000000</v>
       </c>
-      <c r="F44" s="16">
-        <f>C44/E44</f>
+      <c r="F44" s="15">
+        <f t="shared" si="16"/>
         <v>2.1061637500000001E-2</v>
       </c>
-      <c r="G44" s="17">
-        <f>D44/E44</f>
+      <c r="G44" s="16">
+        <f t="shared" si="17"/>
         <v>4.36110215E-2</v>
       </c>
     </row>
@@ -21313,22 +21429,22 @@
       <c r="B45" s="5">
         <v>1400</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>115958147</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>233721370</v>
       </c>
-      <c r="E45" s="18">
-        <f>2*POWER(B45,3)</f>
+      <c r="E45" s="17">
+        <f t="shared" si="15"/>
         <v>5488000000</v>
       </c>
-      <c r="F45" s="16">
-        <f>C45/E45</f>
+      <c r="F45" s="15">
+        <f t="shared" si="16"/>
         <v>2.1129399963556852E-2</v>
       </c>
-      <c r="G45" s="17">
-        <f>D45/E45</f>
+      <c r="G45" s="16">
+        <f t="shared" si="17"/>
         <v>4.2587713192419822E-2</v>
       </c>
     </row>
@@ -21336,22 +21452,22 @@
       <c r="B46" s="5">
         <v>1800</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>247255936</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>495611026</v>
       </c>
-      <c r="E46" s="18">
-        <f>2*POWER(B46,3)</f>
+      <c r="E46" s="17">
+        <f t="shared" si="15"/>
         <v>11664000000</v>
       </c>
-      <c r="F46" s="16">
-        <f>C46/E46</f>
+      <c r="F46" s="15">
+        <f t="shared" si="16"/>
         <v>2.1198211248285321E-2</v>
       </c>
-      <c r="G46" s="17">
-        <f>D46/E46</f>
+      <c r="G46" s="16">
+        <f t="shared" si="17"/>
         <v>4.2490657235939644E-2</v>
       </c>
     </row>
@@ -21359,22 +21475,22 @@
       <c r="B47" s="5">
         <v>2200</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>689266546</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>894777185</v>
       </c>
-      <c r="E47" s="18">
-        <f>2*POWER(B47,3)</f>
+      <c r="E47" s="17">
+        <f t="shared" si="15"/>
         <v>21296000000</v>
       </c>
-      <c r="F47" s="16">
-        <f>C47/E47</f>
+      <c r="F47" s="15">
+        <f t="shared" si="16"/>
         <v>3.236600986100676E-2</v>
       </c>
-      <c r="G47" s="17">
-        <f>D47/E47</f>
+      <c r="G47" s="16">
+        <f t="shared" si="17"/>
         <v>4.2016208912471827E-2</v>
       </c>
     </row>
@@ -21382,22 +21498,22 @@
       <c r="B48" s="5">
         <v>2600</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1468741005</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>1477021762</v>
       </c>
-      <c r="E48" s="18">
-        <f>2*POWER(B48,3)</f>
+      <c r="E48" s="17">
+        <f t="shared" si="15"/>
         <v>35152000000</v>
       </c>
-      <c r="F48" s="16">
-        <f>C48/E48</f>
+      <c r="F48" s="15">
+        <f t="shared" si="16"/>
         <v>4.1782572968821118E-2</v>
       </c>
-      <c r="G48" s="17">
-        <f>D48/E48</f>
+      <c r="G48" s="16">
+        <f t="shared" si="17"/>
         <v>4.201814297906236E-2</v>
       </c>
     </row>
@@ -21405,22 +21521,22 @@
       <c r="B49" s="5">
         <v>3000</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>2255563001</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>2270493948</v>
       </c>
-      <c r="E49" s="18">
-        <f>2*POWER(B49,3)</f>
+      <c r="E49" s="17">
+        <f t="shared" si="15"/>
         <v>54000000000</v>
       </c>
-      <c r="F49" s="16">
-        <f>C49/E49</f>
+      <c r="F49" s="15">
+        <f t="shared" si="16"/>
         <v>4.1769685203703701E-2</v>
       </c>
-      <c r="G49" s="17">
-        <f>D49/E49</f>
+      <c r="G49" s="16">
+        <f t="shared" si="17"/>
         <v>4.204618422222222E-2</v>
       </c>
     </row>
@@ -21434,16 +21550,16 @@
       <c r="D50">
         <v>5365554108</v>
       </c>
-      <c r="E50" s="18">
-        <f>2*POWER(B50,3)</f>
+      <c r="E50" s="17">
+        <f t="shared" si="15"/>
         <v>128000000000</v>
       </c>
-      <c r="F50" s="16">
-        <f t="shared" ref="F50:F53" si="6">C50/E50</f>
+      <c r="F50" s="15">
+        <f t="shared" ref="F50:F53" si="18">C50/E50</f>
         <v>4.1849250632812501E-2</v>
       </c>
-      <c r="G50" s="17">
-        <f t="shared" ref="G50:G53" si="7">D50/E50</f>
+      <c r="G50" s="16">
+        <f t="shared" ref="G50:G53" si="19">D50/E50</f>
         <v>4.1918391468750003E-2</v>
       </c>
     </row>
@@ -21457,16 +21573,16 @@
       <c r="D51">
         <v>18063851453</v>
       </c>
-      <c r="E51" s="18">
-        <f>2*POWER(B51,3)</f>
+      <c r="E51" s="17">
+        <f t="shared" si="15"/>
         <v>432000000000</v>
       </c>
-      <c r="F51" s="16">
-        <f t="shared" si="6"/>
+      <c r="F51" s="15">
+        <f t="shared" si="18"/>
         <v>4.1763795171296296E-2</v>
       </c>
-      <c r="G51" s="17">
-        <f t="shared" si="7"/>
+      <c r="G51" s="16">
+        <f t="shared" si="19"/>
         <v>4.1814470956018521E-2</v>
       </c>
     </row>
@@ -21480,16 +21596,16 @@
       <c r="D52">
         <v>42825173051</v>
       </c>
-      <c r="E52" s="18">
-        <f>2*POWER(B52,3)</f>
+      <c r="E52" s="17">
+        <f t="shared" si="15"/>
         <v>1024000000000</v>
       </c>
-      <c r="F52" s="16">
-        <f t="shared" si="6"/>
+      <c r="F52" s="15">
+        <f t="shared" si="18"/>
         <v>4.1876882599609373E-2</v>
       </c>
-      <c r="G52" s="17">
-        <f t="shared" si="7"/>
+      <c r="G52" s="16">
+        <f t="shared" si="19"/>
         <v>4.1821458057617188E-2</v>
       </c>
     </row>
@@ -21503,46 +21619,46 @@
       <c r="D53">
         <v>83899472149</v>
       </c>
-      <c r="E53" s="18">
-        <f>2*POWER(B53,3)</f>
+      <c r="E53" s="17">
+        <f t="shared" si="15"/>
         <v>2000000000000</v>
       </c>
-      <c r="F53" s="16">
-        <f t="shared" si="6"/>
+      <c r="F53" s="15">
+        <f t="shared" si="18"/>
         <v>4.1751441860499998E-2</v>
       </c>
-      <c r="G53" s="17">
-        <f t="shared" si="7"/>
+      <c r="G53" s="16">
+        <f t="shared" si="19"/>
         <v>4.1949736074499998E-2</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -21550,22 +21666,22 @@
       <c r="B56" s="5">
         <v>600</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>6812471</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>15308696</v>
       </c>
-      <c r="E56" s="18">
-        <f>2*POWER(B56,3)</f>
+      <c r="E56" s="17">
+        <f t="shared" ref="E56:E66" si="20">2*POWER(B56,3)</f>
         <v>432000000</v>
       </c>
-      <c r="F56" s="16">
-        <f>C56/E56</f>
+      <c r="F56" s="15">
+        <f t="shared" ref="F56:F62" si="21">C56/E56</f>
         <v>1.5769608796296297E-2</v>
       </c>
-      <c r="G56" s="17">
-        <f>D56/E56</f>
+      <c r="G56" s="16">
+        <f t="shared" ref="G56:G62" si="22">D56/E56</f>
         <v>3.54367962962963E-2</v>
       </c>
     </row>
@@ -21573,22 +21689,22 @@
       <c r="B57" s="5">
         <v>1000</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>31577512</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>66481100</v>
       </c>
-      <c r="E57" s="18">
-        <f>2*POWER(B57,3)</f>
+      <c r="E57" s="17">
+        <f t="shared" si="20"/>
         <v>2000000000</v>
       </c>
-      <c r="F57" s="16">
-        <f>C57/E57</f>
+      <c r="F57" s="15">
+        <f t="shared" si="21"/>
         <v>1.5788756000000001E-2</v>
       </c>
-      <c r="G57" s="17">
-        <f>D57/E57</f>
+      <c r="G57" s="16">
+        <f t="shared" si="22"/>
         <v>3.3240550000000001E-2</v>
       </c>
     </row>
@@ -21596,22 +21712,22 @@
       <c r="B58" s="5">
         <v>1400</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>87070806</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>179142326</v>
       </c>
-      <c r="E58" s="18">
-        <f>2*POWER(B58,3)</f>
+      <c r="E58" s="17">
+        <f t="shared" si="20"/>
         <v>5488000000</v>
       </c>
-      <c r="F58" s="16">
-        <f>C58/E58</f>
+      <c r="F58" s="15">
+        <f t="shared" si="21"/>
         <v>1.5865671647230319E-2</v>
       </c>
-      <c r="G58" s="17">
-        <f>D58/E58</f>
+      <c r="G58" s="16">
+        <f t="shared" si="22"/>
         <v>3.2642552113702622E-2</v>
       </c>
     </row>
@@ -21619,22 +21735,22 @@
       <c r="B59" s="5">
         <v>1800</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>185772947</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>380827334</v>
       </c>
-      <c r="E59" s="18">
-        <f>2*POWER(B59,3)</f>
+      <c r="E59" s="17">
+        <f t="shared" si="20"/>
         <v>11664000000</v>
       </c>
-      <c r="F59" s="16">
-        <f>C59/E59</f>
+      <c r="F59" s="15">
+        <f t="shared" si="21"/>
         <v>1.5927035922496571E-2</v>
       </c>
-      <c r="G59" s="17">
-        <f>D59/E59</f>
+      <c r="G59" s="16">
+        <f t="shared" si="22"/>
         <v>3.2649805727023321E-2</v>
       </c>
     </row>
@@ -21642,22 +21758,22 @@
       <c r="B60" s="5">
         <v>2200</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>516834742</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>691748875</v>
       </c>
-      <c r="E60" s="18">
-        <f>2*POWER(B60,3)</f>
+      <c r="E60" s="17">
+        <f t="shared" si="20"/>
         <v>21296000000</v>
       </c>
-      <c r="F60" s="16">
-        <f>C60/E60</f>
+      <c r="F60" s="15">
+        <f t="shared" si="21"/>
         <v>2.4269099455296768E-2</v>
       </c>
-      <c r="G60" s="17">
-        <f>D60/E60</f>
+      <c r="G60" s="16">
+        <f t="shared" si="22"/>
         <v>3.2482573018407214E-2</v>
       </c>
     </row>
@@ -21665,22 +21781,22 @@
       <c r="B61" s="5">
         <v>2600</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>1101419744</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>1141369499</v>
       </c>
-      <c r="E61" s="18">
-        <f>2*POWER(B61,3)</f>
+      <c r="E61" s="17">
+        <f t="shared" si="20"/>
         <v>35152000000</v>
       </c>
-      <c r="F61" s="16">
-        <f>C61/E61</f>
+      <c r="F61" s="15">
+        <f t="shared" si="21"/>
         <v>3.1333060537096037E-2</v>
       </c>
-      <c r="G61" s="17">
-        <f>D61/E61</f>
+      <c r="G61" s="16">
+        <f t="shared" si="22"/>
         <v>3.2469546512289484E-2</v>
       </c>
     </row>
@@ -21688,22 +21804,22 @@
       <c r="B62" s="5">
         <v>3000</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>1692279158</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>1752041615</v>
       </c>
-      <c r="E62" s="18">
-        <f>2*POWER(B62,3)</f>
+      <c r="E62" s="17">
+        <f t="shared" si="20"/>
         <v>54000000000</v>
       </c>
-      <c r="F62" s="16">
-        <f>C62/E62</f>
+      <c r="F62" s="15">
+        <f t="shared" si="21"/>
         <v>3.1338502925925923E-2</v>
       </c>
-      <c r="G62" s="17">
-        <f>D62/E62</f>
+      <c r="G62" s="16">
+        <f t="shared" si="22"/>
         <v>3.2445215092592593E-2</v>
       </c>
     </row>
@@ -21717,16 +21833,16 @@
       <c r="D63">
         <v>4126160563</v>
       </c>
-      <c r="E63" s="18">
-        <f>2*POWER(B63,3)</f>
+      <c r="E63" s="17">
+        <f t="shared" si="20"/>
         <v>128000000000</v>
       </c>
-      <c r="F63" s="16">
-        <f t="shared" ref="F63:F66" si="8">C63/E63</f>
+      <c r="F63" s="15">
+        <f t="shared" ref="F63:F66" si="23">C63/E63</f>
         <v>3.1380273210937497E-2</v>
       </c>
-      <c r="G63" s="17">
-        <f t="shared" ref="G63:G66" si="9">D63/E63</f>
+      <c r="G63" s="16">
+        <f t="shared" ref="G63:G66" si="24">D63/E63</f>
         <v>3.22356293984375E-2</v>
       </c>
     </row>
@@ -21740,16 +21856,16 @@
       <c r="D64">
         <v>13820853265</v>
       </c>
-      <c r="E64" s="18">
-        <f>2*POWER(B64,3)</f>
+      <c r="E64" s="17">
+        <f t="shared" si="20"/>
         <v>432000000000</v>
       </c>
-      <c r="F64" s="16">
-        <f t="shared" si="8"/>
+      <c r="F64" s="15">
+        <f t="shared" si="23"/>
         <v>3.132863331712963E-2</v>
       </c>
-      <c r="G64" s="17">
-        <f t="shared" si="9"/>
+      <c r="G64" s="16">
+        <f t="shared" si="24"/>
         <v>3.1992715891203706E-2</v>
       </c>
     </row>
@@ -21763,16 +21879,16 @@
       <c r="D65">
         <v>32662229208</v>
       </c>
-      <c r="E65" s="18">
-        <f>2*POWER(B65,3)</f>
+      <c r="E65" s="17">
+        <f t="shared" si="20"/>
         <v>1024000000000</v>
       </c>
-      <c r="F65" s="16">
-        <f t="shared" si="8"/>
+      <c r="F65" s="15">
+        <f t="shared" si="23"/>
         <v>3.140803920019531E-2</v>
       </c>
-      <c r="G65" s="17">
-        <f t="shared" si="9"/>
+      <c r="G65" s="16">
+        <f t="shared" si="24"/>
         <v>3.1896708210937499E-2</v>
       </c>
     </row>
@@ -21786,16 +21902,16 @@
       <c r="D66">
         <v>62823007351</v>
       </c>
-      <c r="E66" s="18">
-        <f>2*POWER(B66,3)</f>
+      <c r="E66" s="17">
+        <f t="shared" si="20"/>
         <v>2000000000000</v>
       </c>
-      <c r="F66" s="16">
-        <f t="shared" si="8"/>
+      <c r="F66" s="15">
+        <f t="shared" si="23"/>
         <v>3.1310954673500001E-2</v>
       </c>
-      <c r="G66" s="17">
-        <f t="shared" si="9"/>
+      <c r="G66" s="16">
+        <f t="shared" si="24"/>
         <v>3.1411503675499997E-2</v>
       </c>
     </row>
@@ -21815,7 +21931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -21834,17 +21950,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -21925,7 +22041,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G12" si="0">C6/E6</f>
+        <f t="shared" ref="G6:G11" si="0">C6/E6</f>
         <v>3.6587136929460584</v>
       </c>
       <c r="H6" s="3">
@@ -22110,29 +22226,29 @@
       <c r="B12" s="4">
         <v>4000</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>122.825</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2">
         <v>38.21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>3.2144726511384456</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22140,29 +22256,29 @@
       <c r="B13" s="4">
         <v>6000</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>414.86399999999998</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="2">
         <v>128.63499999999999</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>3.2251253546857388</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22170,29 +22286,29 @@
       <c r="B14" s="4">
         <v>8000</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>983.24300000000005</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2">
         <v>305.73099999999999</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>3.2160395903588452</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22200,42 +22316,42 @@
       <c r="B15" s="4">
         <v>10000</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2">
         <v>1920.7650000000001</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2">
         <v>596.27800000000002</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>3.2212575342373859</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22255,8 +22371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22273,17 +22389,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -22549,29 +22665,29 @@
       <c r="B12" s="4">
         <v>4000</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>35.527000000000001</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2">
         <v>12.214</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>2.9087113148845587</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22579,29 +22695,29 @@
       <c r="B13" s="4">
         <v>6000</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>120.479</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="2">
         <v>43.046999999999997</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>2.7987780797732711</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22609,29 +22725,29 @@
       <c r="B14" s="4">
         <v>8000</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>284.18400000000003</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2">
         <v>101.59699999999999</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>2.7971692077521979</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22639,29 +22755,29 @@
       <c r="B15" s="4">
         <v>10000</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2">
         <v>561.63599999999997</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2">
         <v>215.209</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>2.6097235710402442</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="C++" sheetId="3" r:id="rId1"/>
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,6 +285,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,11 +1188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270242720"/>
-        <c:axId val="1270249792"/>
+        <c:axId val="-1730738304"/>
+        <c:axId val="-1730739936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270242720"/>
+        <c:axId val="-1730738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1265,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270249792"/>
+        <c:crossAx val="-1730739936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1266,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270249792"/>
+        <c:axId val="-1730739936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1381,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270242720"/>
+        <c:crossAx val="-1730738304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,11 +2070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270243808"/>
-        <c:axId val="1270240000"/>
+        <c:axId val="-1943918080"/>
+        <c:axId val="-1664505344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270243808"/>
+        <c:axId val="-1943918080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2147,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270240000"/>
+        <c:crossAx val="-1664505344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2148,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270240000"/>
+        <c:axId val="-1664505344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2263,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270243808"/>
+        <c:crossAx val="-1943918080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3000000000"/>
@@ -2949,11 +2956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270241088"/>
-        <c:axId val="1270242176"/>
+        <c:axId val="-1664508064"/>
+        <c:axId val="-1664507520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270241088"/>
+        <c:axId val="-1664508064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3033,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270242176"/>
+        <c:crossAx val="-1664507520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3034,7 +3041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270242176"/>
+        <c:axId val="-1664507520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3149,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270241088"/>
+        <c:crossAx val="-1664508064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000004E-2"/>
@@ -3832,11 +3839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270245984"/>
-        <c:axId val="1272048848"/>
+        <c:axId val="-1664497728"/>
+        <c:axId val="-1664505888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270245984"/>
+        <c:axId val="-1664497728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3909,7 +3916,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272048848"/>
+        <c:crossAx val="-1664505888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3917,7 +3924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272048848"/>
+        <c:axId val="-1664505888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +4032,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270245984"/>
+        <c:crossAx val="-1664497728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000004E-2"/>
@@ -4276,25 +4283,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>27122148</c:v>
+                  <c:v>27118239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125698205</c:v>
+                  <c:v>125705957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346919524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>740659276</c:v>
+                  <c:v>346875192</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>740645397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048718443</c:v>
+                  <c:v>1942974410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4373741778</c:v>
+                  <c:v>4387780051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6762208063</c:v>
+                  <c:v>6760971656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,7 +4313,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Line DCM'!$B$15:$G$15</c:f>
+              <c:f>'Line DCM'!$B$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4372,7 +4379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Line DCM'!$C$17:$C$23</c:f>
+              <c:f>'Line DCM'!$C$13:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4407,7 +4414,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Line DCM'!$B$28:$G$28</c:f>
+              <c:f>'Line DCM'!$B$20:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4473,7 +4480,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Line DCM'!$C$30:$C$36</c:f>
+              <c:f>'Line DCM'!$C$22:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4508,7 +4515,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Line DCM'!$B$41:$G$41</c:f>
+              <c:f>'Line DCM'!$B$29:$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4574,30 +4581,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Line DCM'!$C$43:$C$49</c:f>
+              <c:f>'Line DCM'!$C$31:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9067835</c:v>
+                  <c:v>9066127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42123275</c:v>
+                  <c:v>42130151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115958147</c:v>
+                  <c:v>115996704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>247255936</c:v>
+                  <c:v>247362799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>689266546</c:v>
+                  <c:v>674184310</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1468741005</c:v>
+                  <c:v>1468597194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2255563001</c:v>
+                  <c:v>2255662819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,7 +4616,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Line DCM'!$B$54:$G$54</c:f>
+              <c:f>'Line DCM'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4675,30 +4682,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Line DCM'!$C$56:$C$62</c:f>
+              <c:f>'Line DCM'!$C$40:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6812471</c:v>
+                  <c:v>6811025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31577512</c:v>
+                  <c:v>31587949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87070806</c:v>
+                  <c:v>87037432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185772947</c:v>
+                  <c:v>185738485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>516834742</c:v>
+                  <c:v>516743973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1101419744</c:v>
+                  <c:v>1101403909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1692279158</c:v>
+                  <c:v>1692074535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,11 +4722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1401125904"/>
-        <c:axId val="1401126448"/>
+        <c:axId val="-1664504800"/>
+        <c:axId val="-1664504256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1401125904"/>
+        <c:axId val="-1664504800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4799,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1401126448"/>
+        <c:crossAx val="-1664504256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +4807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1401126448"/>
+        <c:axId val="-1664504256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4915,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1401125904"/>
+        <c:crossAx val="-1664504800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5027,33 +5034,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Line </a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Line Algorithm (L2 DCM)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Algorithm (L2 DCM)</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-PT">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5071,16 +5067,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -5098,32 +5094,39 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$2</c:f>
+              <c:f>'Line DCM'!$B$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (Sequential)</c:v>
+                  <c:v>Line (Sequential)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5157,30 +5160,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$D$4:$D$10</c:f>
+              <c:f>'Line DCM'!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>84587707</c:v>
+                  <c:v>60782230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153441693</c:v>
+                  <c:v>260780329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>434159307</c:v>
+                  <c:v>705784785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1205581353</c:v>
+                  <c:v>1494507032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2107603327</c:v>
+                  <c:v>2726954085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6105229005</c:v>
+                  <c:v>4494239215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19727829583</c:v>
+                  <c:v>6900253494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5192,32 +5195,39 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$11</c:f>
+              <c:f>'Line DCM'!$B$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (1T)</c:v>
+                  <c:v>Line (1T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5251,30 +5261,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$D$13:$D$19</c:f>
+              <c:f>'Line DCM'!$D$13:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44877128</c:v>
+                  <c:v>58541880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163223387</c:v>
+                  <c:v>264577826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460373871</c:v>
+                  <c:v>713523237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1379947069</c:v>
+                  <c:v>1509307371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3031737205</c:v>
+                  <c:v>2753704482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9164086882</c:v>
+                  <c:v>4552164674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23456308936</c:v>
+                  <c:v>6993669938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,32 +5296,39 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$20</c:f>
+              <c:f>'Line DCM'!$B$20:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (2T)</c:v>
+                  <c:v>Line (2T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5345,30 +5362,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$D$22:$D$28</c:f>
+              <c:f>'Line DCM'!$D$22:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60336932</c:v>
+                  <c:v>28757928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159850950</c:v>
+                  <c:v>128071252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375079510</c:v>
+                  <c:v>347397270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>728128357</c:v>
+                  <c:v>737300807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1188229567</c:v>
+                  <c:v>1341184539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1928971430</c:v>
+                  <c:v>2218489414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2916601620</c:v>
+                  <c:v>3406405375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5380,32 +5397,39 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$29:$G$29</c:f>
+              <c:f>'Line DCM'!$B$29:$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (3T)</c:v>
+                  <c:v>Line (3T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5439,30 +5463,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$D$31:$D$37</c:f>
+              <c:f>'Line DCM'!$D$31:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58104083</c:v>
+                  <c:v>19264039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175440065</c:v>
+                  <c:v>85777422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398933080</c:v>
+                  <c:v>232737152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>738453944</c:v>
+                  <c:v>493439059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1174212734</c:v>
+                  <c:v>900494197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1777309414</c:v>
+                  <c:v>1485854097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2592243825</c:v>
+                  <c:v>2278507350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,32 +5498,39 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$38:$G$38</c:f>
+              <c:f>'Line DCM'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (4T)</c:v>
+                  <c:v>Line (4T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5533,30 +5564,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$D$40:$D$46</c:f>
+              <c:f>'Line DCM'!$D$40:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62500528</c:v>
+                  <c:v>15319146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193533226</c:v>
+                  <c:v>65956773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>415403351</c:v>
+                  <c:v>175727559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>748640798</c:v>
+                  <c:v>373411023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1169076244</c:v>
+                  <c:v>676357926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1729706287</c:v>
+                  <c:v>1114036186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2458134609</c:v>
+                  <c:v>1694938079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,26 +5602,57 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270715680"/>
-        <c:axId val="1270719488"/>
+        <c:axId val="-1664511872"/>
+        <c:axId val="-1664501536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270715680"/>
+        <c:axId val="-1664511872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -5604,9 +5666,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5619,7 +5681,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270719488"/>
+        <c:crossAx val="-1664501536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5627,9 +5689,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270719488"/>
+        <c:axId val="-1664501536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5637,9 +5701,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5654,9 +5719,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -5687,9 +5752,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -5721,7 +5786,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5734,10 +5799,10 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270715680"/>
+        <c:crossAx val="-1664511872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="3000000000"/>
+        <c:majorUnit val="1000000000"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
         </c:dispUnits>
@@ -5751,7 +5816,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -5765,9 +5830,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5782,7 +5847,17 @@
         </c:txPr>
       </c:dTable>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -5795,11 +5870,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5907,11 +5982,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$2:$G$2</c:f>
+              <c:f>'Line DCM'!$B$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (Sequential)</c:v>
+                  <c:v>Line (Sequential)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5973,30 +6048,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$F$4:$F$10</c:f>
+              <c:f>'Line DCM'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.21698445857489254</c:v>
+                  <c:v>1.7874929173491448E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16095190247072802</c:v>
+                  <c:v>1.7921952523866122E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16088188499668035</c:v>
+                  <c:v>1.8033044172598569E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16101008462786892</c:v>
+                  <c:v>1.8122217943549995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16085010984345649</c:v>
+                  <c:v>2.6043877799762426E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1608549378581425</c:v>
+                  <c:v>3.5636277372562371E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16085298717817559</c:v>
+                  <c:v>3.5748475248174261E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6008,11 +6083,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$11:$G$11</c:f>
+              <c:f>'Line DCM'!$B$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (1T)</c:v>
+                  <c:v>Line (1T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6074,30 +6149,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$F$13:$F$19</c:f>
+              <c:f>'Line DCM'!$F$13:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.14557035244625954</c:v>
+                  <c:v>1.7852709952384097E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15088595290196258</c:v>
+                  <c:v>1.7911392121365201E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15346266458941257</c:v>
+                  <c:v>1.8009636716819311E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15513720804566625</c:v>
+                  <c:v>1.8100245538981388E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15606339788927207</c:v>
+                  <c:v>2.7246882738471385E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15678382174315311</c:v>
+                  <c:v>3.5733442132290495E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1573114487088792</c:v>
+                  <c:v>3.5746230940687608E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6109,11 +6184,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$20:$G$20</c:f>
+              <c:f>'Line DCM'!$B$20:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (2T)</c:v>
+                  <c:v>Line (2T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6175,30 +6250,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$F$22:$F$28</c:f>
+              <c:f>'Line DCM'!$F$22:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.0546784057657791E-2</c:v>
+                  <c:v>1.7805770131550148E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1382292038927235</c:v>
+                  <c:v>1.7886586970714671E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1521328148626068</c:v>
+                  <c:v>1.8027301998822076E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15378706965301936</c:v>
+                  <c:v>1.8116375241611398E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15476722734302925</c:v>
+                  <c:v>2.7647211815715313E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15543676216218669</c:v>
+                  <c:v>3.5504213944612055E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15600408240390606</c:v>
+                  <c:v>3.5727570153417834E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6210,11 +6285,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$29:$G$29</c:f>
+              <c:f>'Line DCM'!$B$29:$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (3T)</c:v>
+                  <c:v>Line (3T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6276,30 +6351,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$F$31:$F$37</c:f>
+              <c:f>'Line DCM'!$F$31:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.6325023637023141E-2</c:v>
+                  <c:v>1.7831115698875737E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1874143480193672E-2</c:v>
+                  <c:v>1.7911149187686635E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11132450871531467</c:v>
+                  <c:v>1.8031667577175683E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15051887248000353</c:v>
+                  <c:v>1.812305218585725E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15185884772250688</c:v>
+                  <c:v>2.7045025890353118E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15277421784492032</c:v>
+                  <c:v>3.5723788825133176E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15357095498248388</c:v>
+                  <c:v>3.5741639272319305E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6311,11 +6386,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$38:$G$38</c:f>
+              <c:f>'Line DCM'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (4T)</c:v>
+                  <c:v>Line (4T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6377,30 +6452,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$F$40:$F$46</c:f>
+              <c:f>'Line DCM'!$F$40:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.7226426942829328E-2</c:v>
+                  <c:v>1.7827904324503669E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5230581232848363E-2</c:v>
+                  <c:v>1.7915474982650652E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6079581826922254E-2</c:v>
+                  <c:v>1.8036092446670451E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10660263621900148</c:v>
+                  <c:v>1.8131746629485468E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14720977946283459</c:v>
+                  <c:v>2.7648983712721894E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14976728514331286</c:v>
+                  <c:v>3.5719776126649477E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15095679909014076</c:v>
+                  <c:v>3.5734550403620197E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,11 +6492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1035125392"/>
-        <c:axId val="1379226160"/>
+        <c:axId val="-1664500448"/>
+        <c:axId val="-1664498816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1035125392"/>
+        <c:axId val="-1664500448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6494,7 +6569,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379226160"/>
+        <c:crossAx val="-1664498816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6502,9 +6577,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1379226160"/>
+        <c:axId val="-1664498816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000008E-2"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6579,7 +6656,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6610,10 +6687,10 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1035125392"/>
+        <c:crossAx val="-1664500448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
+        <c:majorUnit val="2.5000000000000005E-3"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -6730,31 +6807,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Line </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> (L2 DCM, %Instructions)</a:t>
+              <a:t>Line Algorithm (L2 DCM, %Instructions)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6773,16 +6840,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -6800,32 +6867,39 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$2:$G$2</c:f>
+              <c:f>'Line DCM'!$B$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (Sequential)</c:v>
+                  <c:v>Line (Sequential)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -6859,30 +6933,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$F$4:$F$10</c:f>
+              <c:f>'Line DCM'!$G$4:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.21698445857489254</c:v>
+                  <c:v>4.0064476762553314E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16095190247072802</c:v>
+                  <c:v>3.7179564016176163E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16088188499668035</c:v>
+                  <c:v>3.6691722261455305E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16101008462786892</c:v>
+                  <c:v>3.6567812696569078E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16085010984345649</c:v>
+                  <c:v>3.655244175619532E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1608549378581425</c:v>
+                  <c:v>3.6500907835588993E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16085298717817559</c:v>
+                  <c:v>3.6484924621371165E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6894,32 +6968,39 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$11:$G$11</c:f>
+              <c:f>'Line DCM'!$B$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (1T)</c:v>
+                  <c:v>Line (1T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -6953,30 +7034,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$G$13:$G$19</c:f>
+              <c:f>'Line DCM'!$G$13:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.4640026732582049E-2</c:v>
+                  <c:v>3.8533067810801812E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0768795696136225E-2</c:v>
+                  <c:v>3.7688738566043496E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2036187491800838E-2</c:v>
+                  <c:v>3.7071359314134536E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1644896929512924E-2</c:v>
+                  <c:v>3.6912392455447141E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.852580882128985E-2</c:v>
+                  <c:v>3.6896645721862263E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1128226745333784E-2</c:v>
+                  <c:v>3.695918714856046E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11923028258477517</c:v>
+                  <c:v>3.696830678857773E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6988,32 +7069,39 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$20:$G$20</c:f>
+              <c:f>'Line DCM'!$B$20:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (2T)</c:v>
+                  <c:v>Line (2T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7047,30 +7135,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$G$22:$G$28</c:f>
+              <c:f>'Line DCM'!$G$22:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.9634875301909002E-2</c:v>
+                  <c:v>3.7782874608676839E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7702298591469952E-2</c:v>
+                  <c:v>3.6423506490864635E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3908900193386167E-2</c:v>
+                  <c:v>3.6060923947405454E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1857402897700525E-2</c:v>
+                  <c:v>3.6036993768747583E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9023815167176302E-2</c:v>
+                  <c:v>3.5920128415785166E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8920586230438288E-2</c:v>
+                  <c:v>3.6006922401371461E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8743678201430579E-2</c:v>
+                  <c:v>3.5997771148889163E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7082,32 +7170,39 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$29:$G$29</c:f>
+              <c:f>'Line DCM'!$B$29:$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (3T)</c:v>
+                  <c:v>Line (3T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7141,30 +7236,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$G$31:$G$37</c:f>
+              <c:f>'Line DCM'!$G$31:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.3278104963314786E-2</c:v>
+                  <c:v>3.7888208298499947E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5843504620424415E-2</c:v>
+                  <c:v>3.6467284496016966E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9979332760204491E-2</c:v>
+                  <c:v>3.6178950030533702E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5552493118522878E-2</c:v>
+                  <c:v>3.6151846004933402E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0771306374622701E-2</c:v>
+                  <c:v>3.6123488059189246E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8168922472046708E-2</c:v>
+                  <c:v>3.6143564895158686E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6812978785963027E-2</c:v>
+                  <c:v>3.6103617569549599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7176,32 +7271,39 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Naive DCM'!$B$38:$G$38</c:f>
+              <c:f>'Line DCM'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive (4T)</c:v>
+                  <c:v>Line (4T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7235,30 +7337,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Naive DCM'!$G$40:$G$46</c:f>
+              <c:f>'Line DCM'!$G$40:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.9716903358672481E-2</c:v>
+                  <c:v>4.0097968987208694E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.343903396839653E-2</c:v>
+                  <c:v>3.740815576908358E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3511522682510674E-2</c:v>
+                  <c:v>3.6414660068919955E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7191045252941865E-2</c:v>
+                  <c:v>3.6452295051792691E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0932872197926658E-2</c:v>
+                  <c:v>3.6189312806836273E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6983007062739293E-2</c:v>
+                  <c:v>3.6129455176017934E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4391520689131603E-2</c:v>
+                  <c:v>3.5795024960316356E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7273,26 +7375,57 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1379204944"/>
-        <c:axId val="1379207664"/>
+        <c:axId val="-1665268304"/>
+        <c:axId val="-1665281904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1379204944"/>
+        <c:axId val="-1665268304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -7306,9 +7439,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -7321,7 +7454,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379207664"/>
+        <c:crossAx val="-1665281904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7329,9 +7462,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1379207664"/>
+        <c:axId val="-1665281904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.200000000000001E-2"/>
+          <c:min val="3.5000000000000003E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7339,9 +7474,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7356,9 +7492,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -7370,13 +7506,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Cache Misses /</a:t>
+                  <a:t>Cache Misses / Instruction</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Instruction</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7394,9 +7525,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -7410,7 +7541,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7428,7 +7559,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -7441,10 +7572,10 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379204944"/>
+        <c:crossAx val="-1665268304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
+        <c:majorUnit val="5.0000000000000012E-4"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -7455,7 +7586,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -7469,9 +7600,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -7486,7 +7617,17 @@
         </c:txPr>
       </c:dTable>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -7499,11 +7640,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -8034,11 +8175,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1272039600"/>
-        <c:axId val="1272042864"/>
+        <c:axId val="-1665267216"/>
+        <c:axId val="-1665269392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1272039600"/>
+        <c:axId val="-1665267216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8167,7 +8308,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272042864"/>
+        <c:crossAx val="-1665269392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8175,7 +8316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272042864"/>
+        <c:axId val="-1665269392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -8284,7 +8425,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272039600"/>
+        <c:crossAx val="-1665267216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8677,11 +8818,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1272045040"/>
-        <c:axId val="1272047216"/>
+        <c:axId val="-1665277008"/>
+        <c:axId val="-1665277552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1272045040"/>
+        <c:axId val="-1665277008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8810,7 +8951,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272047216"/>
+        <c:crossAx val="-1665277552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8818,7 +8959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272047216"/>
+        <c:axId val="-1665277552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8926,7 +9067,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272045040"/>
+        <c:crossAx val="-1665277008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9327,11 +9468,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1272049936"/>
-        <c:axId val="1272037424"/>
+        <c:axId val="-1665273200"/>
+        <c:axId val="-1665275920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1272049936"/>
+        <c:axId val="-1665273200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9460,7 +9601,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272037424"/>
+        <c:crossAx val="-1665275920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9468,7 +9609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272037424"/>
+        <c:axId val="-1665275920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9576,7 +9717,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272049936"/>
+        <c:crossAx val="-1665273200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10539,11 +10680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270238368"/>
-        <c:axId val="1270237280"/>
+        <c:axId val="-1730743200"/>
+        <c:axId val="-1730738848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270238368"/>
+        <c:axId val="-1730743200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10586,7 +10727,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270237280"/>
+        <c:crossAx val="-1730738848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10594,7 +10735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270237280"/>
+        <c:axId val="-1730738848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10702,7 +10843,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270238368"/>
+        <c:crossAx val="-1730743200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11102,11 +11243,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1272050480"/>
-        <c:axId val="1272042320"/>
+        <c:axId val="-1665268848"/>
+        <c:axId val="-1665274288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1272050480"/>
+        <c:axId val="-1665268848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11235,7 +11376,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272042320"/>
+        <c:crossAx val="-1665274288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11243,7 +11384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272042320"/>
+        <c:axId val="-1665274288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11351,7 +11492,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272050480"/>
+        <c:crossAx val="-1665268848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11684,11 +11825,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1272036336"/>
-        <c:axId val="1272036880"/>
+        <c:axId val="-1665272656"/>
+        <c:axId val="-1665272112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1272036336"/>
+        <c:axId val="-1665272656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11817,7 +11958,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272036880"/>
+        <c:crossAx val="-1665272112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11825,7 +11966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272036880"/>
+        <c:axId val="-1665272112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11933,7 +12074,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272036336"/>
+        <c:crossAx val="-1665272656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12408,11 +12549,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1272038512"/>
-        <c:axId val="1272041776"/>
+        <c:axId val="-1665269936"/>
+        <c:axId val="-1665279728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1272038512"/>
+        <c:axId val="-1665269936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12541,7 +12682,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272041776"/>
+        <c:crossAx val="-1665279728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12549,7 +12690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1272041776"/>
+        <c:axId val="-1665279728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12657,7 +12798,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272038512"/>
+        <c:crossAx val="-1665269936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -13340,11 +13481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270237824"/>
-        <c:axId val="1270236192"/>
+        <c:axId val="-1730742112"/>
+        <c:axId val="-1729792752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270237824"/>
+        <c:axId val="-1730742112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13417,7 +13558,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270236192"/>
+        <c:crossAx val="-1729792752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13425,7 +13566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270236192"/>
+        <c:axId val="-1729792752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13533,7 +13674,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270237824"/>
+        <c:crossAx val="-1730742112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -14122,11 +14263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1374542832"/>
-        <c:axId val="1374549904"/>
+        <c:axId val="-1729795472"/>
+        <c:axId val="-1729793840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1374542832"/>
+        <c:axId val="-1729795472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14199,7 +14340,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374549904"/>
+        <c:crossAx val="-1729793840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14207,7 +14348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1374549904"/>
+        <c:axId val="-1729793840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14259,7 +14400,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374542832"/>
+        <c:crossAx val="-1729795472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -14938,11 +15079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1374548816"/>
-        <c:axId val="1374540656"/>
+        <c:axId val="-1729806352"/>
+        <c:axId val="-1729805264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1374548816"/>
+        <c:axId val="-1729806352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15015,7 +15156,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374540656"/>
+        <c:crossAx val="-1729805264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15023,7 +15164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1374540656"/>
+        <c:axId val="-1729805264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15075,7 +15216,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374548816"/>
+        <c:crossAx val="-1729806352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -15878,11 +16019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270714592"/>
-        <c:axId val="1270718400"/>
+        <c:axId val="-1727297456"/>
+        <c:axId val="-1727301808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270714592"/>
+        <c:axId val="-1727297456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15955,7 +16096,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270718400"/>
+        <c:crossAx val="-1727301808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15963,7 +16104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270718400"/>
+        <c:axId val="-1727301808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16015,7 +16156,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270714592"/>
+        <c:crossAx val="-1727297456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16547,11 +16688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1401134064"/>
-        <c:axId val="1401125360"/>
+        <c:axId val="-1727306160"/>
+        <c:axId val="-1943678960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1401134064"/>
+        <c:axId val="-1727306160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16623,7 +16764,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1401125360"/>
+        <c:crossAx val="-1943678960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16631,7 +16772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1401125360"/>
+        <c:axId val="-1943678960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16683,7 +16824,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1401134064"/>
+        <c:crossAx val="-1727306160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17062,11 +17203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1401129712"/>
-        <c:axId val="1401121552"/>
+        <c:axId val="-1943673520"/>
+        <c:axId val="-1943688752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1401129712"/>
+        <c:axId val="-1943673520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17139,7 +17280,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1401121552"/>
+        <c:crossAx val="-1943688752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17147,7 +17288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1401121552"/>
+        <c:axId val="-1943688752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17199,7 +17340,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1401129712"/>
+        <c:crossAx val="-1943673520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.4"/>
@@ -17882,11 +18023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270236736"/>
-        <c:axId val="1270244352"/>
+        <c:axId val="-1767382224"/>
+        <c:axId val="-1767383312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270236736"/>
+        <c:axId val="-1767382224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17959,7 +18100,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270244352"/>
+        <c:crossAx val="-1767383312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17967,7 +18108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270244352"/>
+        <c:axId val="-1767383312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18075,7 +18216,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270236736"/>
+        <c:crossAx val="-1767382224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21809,508 +21950,6 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22861,34 +22500,34 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -22896,22 +22535,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -22926,7 +22565,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -22963,35 +22602,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -23003,15 +22652,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -23024,10 +22676,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -23043,16 +22695,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -23060,7 +22711,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -23072,17 +22723,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -23091,12 +22743,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -23110,14 +22762,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23129,23 +22781,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -23156,14 +22822,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23175,31 +22842,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -23207,13 +22855,32 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -23225,38 +22892,45 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -23264,12 +22938,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -23282,13 +22956,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -23297,7 +22971,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -23312,7 +22986,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -23330,26 +23004,578 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -23357,8 +23583,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -32101,7 +32340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N154" sqref="N154"/>
     </sheetView>
   </sheetViews>
@@ -32418,11 +32657,11 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="H14" s="5">
-        <f>C14/D14</f>
+        <f t="shared" ref="H14:H20" si="4">C14/D14</f>
         <v>0.6310679611650486</v>
       </c>
       <c r="I14" s="12">
-        <f>C14/E14</f>
+        <f t="shared" ref="I14:I20" si="5">C14/E14</f>
         <v>0.73863636363636365</v>
       </c>
       <c r="J14" s="12">
@@ -32434,31 +32673,31 @@
         <v>0.66101694915254239</v>
       </c>
       <c r="L14" s="12">
-        <f>E14/F14</f>
+        <f t="shared" ref="L14:M20" si="6">E14/F14</f>
         <v>1.03125</v>
       </c>
       <c r="M14" s="12">
-        <f>F14/G14</f>
+        <f t="shared" si="6"/>
         <v>0.86779661016949161</v>
       </c>
       <c r="N14" s="18">
-        <f>(2*$B14*$B14*$B14)/C14/1000000</f>
+        <f t="shared" ref="N14:R20" si="7">(2*$B14*$B14*$B14)/C14/1000000</f>
         <v>2215.3846153846152</v>
       </c>
       <c r="O14" s="18">
-        <f>(2*$B14*$B14*$B14)/D14/1000000</f>
+        <f t="shared" si="7"/>
         <v>1398.0582524271845</v>
       </c>
       <c r="P14" s="18">
-        <f>(2*$B14*$B14*$B14)/E14/1000000</f>
+        <f t="shared" si="7"/>
         <v>1636.3636363636363</v>
       </c>
       <c r="Q14" s="18">
-        <f>(2*$B14*$B14*$B14)/F14/1000000</f>
+        <f t="shared" si="7"/>
         <v>1687.5</v>
       </c>
       <c r="R14" s="18">
-        <f>(2*$B14*$B14*$B14)/G14/1000000</f>
+        <f t="shared" si="7"/>
         <v>1464.406779661017</v>
       </c>
     </row>
@@ -32482,47 +32721,47 @@
         <v>1.0740000000000001</v>
       </c>
       <c r="H15" s="5">
-        <f>C15/D15</f>
+        <f t="shared" si="4"/>
         <v>0.77704678362573087</v>
       </c>
       <c r="I15" s="12">
-        <f>C15/E15</f>
+        <f t="shared" si="5"/>
         <v>0.94657168299198569</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" ref="J15:J20" si="4">C15/F15</f>
+        <f t="shared" ref="J15:J20" si="8">C15/F15</f>
         <v>1.0981404958677685</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:K20" si="5">C15/G15</f>
+        <f t="shared" ref="K15:K20" si="9">C15/G15</f>
         <v>0.9897579143389198</v>
       </c>
       <c r="L15" s="12">
-        <f>E15/F15</f>
+        <f t="shared" si="6"/>
         <v>1.1601239669421488</v>
       </c>
       <c r="M15" s="12">
-        <f>F15/G15</f>
+        <f t="shared" si="6"/>
         <v>0.90130353817504649</v>
       </c>
       <c r="N15" s="18">
-        <f>(2*$B15*$B15*$B15)/C15/1000000</f>
+        <f t="shared" si="7"/>
         <v>1881.4675446848544</v>
       </c>
       <c r="O15" s="18">
-        <f>(2*$B15*$B15*$B15)/D15/1000000</f>
+        <f t="shared" si="7"/>
         <v>1461.9883040935672</v>
       </c>
       <c r="P15" s="18">
-        <f>(2*$B15*$B15*$B15)/E15/1000000</f>
+        <f t="shared" si="7"/>
         <v>1780.9439002671415</v>
       </c>
       <c r="Q15" s="18">
-        <f>(2*$B15*$B15*$B15)/F15/1000000</f>
+        <f t="shared" si="7"/>
         <v>2066.1157024793388</v>
       </c>
       <c r="R15" s="18">
-        <f>(2*$B15*$B15*$B15)/G15/1000000</f>
+        <f t="shared" si="7"/>
         <v>1862.1973929236499</v>
       </c>
     </row>
@@ -32546,47 +32785,47 @@
         <v>2.5550000000000002</v>
       </c>
       <c r="H16" s="5">
-        <f>C16/D16</f>
+        <f t="shared" si="4"/>
         <v>0.86169941311559062</v>
       </c>
       <c r="I16" s="12">
-        <f>C16/E16</f>
+        <f t="shared" si="5"/>
         <v>1.1545299145299146</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3995026937422297</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3217221135029353</v>
       </c>
       <c r="L16" s="12">
-        <f>E16/F16</f>
+        <f t="shared" si="6"/>
         <v>1.212184003315375</v>
       </c>
       <c r="M16" s="12">
-        <f>F16/G16</f>
+        <f t="shared" si="6"/>
         <v>0.944422700587084</v>
       </c>
       <c r="N16" s="18">
-        <f>(2*$B16*$B16*$B16)/C16/1000000</f>
+        <f t="shared" si="7"/>
         <v>1625.1110453064853</v>
       </c>
       <c r="O16" s="18">
-        <f>(2*$B16*$B16*$B16)/D16/1000000</f>
+        <f t="shared" si="7"/>
         <v>1400.3572339882624</v>
       </c>
       <c r="P16" s="18">
-        <f>(2*$B16*$B16*$B16)/E16/1000000</f>
+        <f t="shared" si="7"/>
         <v>1876.2393162393164</v>
       </c>
       <c r="Q16" s="18">
-        <f>(2*$B16*$B16*$B16)/F16/1000000</f>
+        <f t="shared" si="7"/>
         <v>2274.3472855366763</v>
       </c>
       <c r="R16" s="18">
-        <f>(2*$B16*$B16*$B16)/G16/1000000</f>
+        <f t="shared" si="7"/>
         <v>2147.9452054794519</v>
       </c>
     </row>
@@ -32610,47 +32849,47 @@
         <v>4.9340000000000002</v>
       </c>
       <c r="H17" s="5">
-        <f>C17/D17</f>
+        <f t="shared" si="4"/>
         <v>0.89380941340134479</v>
       </c>
       <c r="I17" s="12">
-        <f>C17/E17</f>
+        <f t="shared" si="5"/>
         <v>1.3125638406537283</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.588380716934487</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5626266720713418</v>
       </c>
       <c r="L17" s="12">
-        <f>E17/F17</f>
+        <f t="shared" si="6"/>
         <v>1.2101359703337453</v>
       </c>
       <c r="M17" s="12">
-        <f>F17/G17</f>
+        <f t="shared" si="6"/>
         <v>0.98378597486826103</v>
       </c>
       <c r="N17" s="18">
-        <f>(2*$B17*$B17*$B17)/C17/1000000</f>
+        <f t="shared" si="7"/>
         <v>1512.8404669260699</v>
       </c>
       <c r="O17" s="18">
-        <f>(2*$B17*$B17*$B17)/D17/1000000</f>
+        <f t="shared" si="7"/>
         <v>1352.1910503130073</v>
       </c>
       <c r="P17" s="18">
-        <f>(2*$B17*$B17*$B17)/E17/1000000</f>
+        <f t="shared" si="7"/>
         <v>1985.6996935648622</v>
       </c>
       <c r="Q17" s="18">
-        <f>(2*$B17*$B17*$B17)/F17/1000000</f>
+        <f t="shared" si="7"/>
         <v>2402.9666254635354</v>
       </c>
       <c r="R17" s="18">
-        <f>(2*$B17*$B17*$B17)/G17/1000000</f>
+        <f t="shared" si="7"/>
         <v>2364.0048642075394</v>
       </c>
     </row>
@@ -32674,47 +32913,47 @@
         <v>8.3940000000000001</v>
       </c>
       <c r="H18" s="5">
-        <f>C18/D18</f>
+        <f t="shared" si="4"/>
         <v>0.92246885473977103</v>
       </c>
       <c r="I18" s="12">
-        <f>C18/E18</f>
+        <f t="shared" si="5"/>
         <v>1.4016527337369078</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7494603022307509</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7377888968310697</v>
       </c>
       <c r="L18" s="12">
-        <f>E18/F18</f>
+        <f t="shared" si="6"/>
         <v>1.2481410410170306</v>
       </c>
       <c r="M18" s="12">
-        <f>F18/G18</f>
+        <f t="shared" si="6"/>
         <v>0.99332856802477953</v>
       </c>
       <c r="N18" s="18">
-        <f>(2*$B18*$B18*$B18)/C18/1000000</f>
+        <f t="shared" si="7"/>
         <v>1459.9300747240693</v>
       </c>
       <c r="O18" s="18">
-        <f>(2*$B18*$B18*$B18)/D18/1000000</f>
+        <f t="shared" si="7"/>
         <v>1346.7400240308607</v>
       </c>
       <c r="P18" s="18">
-        <f>(2*$B18*$B18*$B18)/E18/1000000</f>
+        <f t="shared" si="7"/>
         <v>2046.31498030172</v>
       </c>
       <c r="Q18" s="18">
-        <f>(2*$B18*$B18*$B18)/F18/1000000</f>
+        <f t="shared" si="7"/>
         <v>2554.0897097625334</v>
       </c>
       <c r="R18" s="18">
-        <f>(2*$B18*$B18*$B18)/G18/1000000</f>
+        <f t="shared" si="7"/>
         <v>2537.050274005242</v>
       </c>
     </row>
@@ -32738,47 +32977,47 @@
         <v>13.569000000000001</v>
       </c>
       <c r="H19" s="5">
-        <f>C19/D19</f>
+        <f t="shared" si="4"/>
         <v>0.93697083725305741</v>
       </c>
       <c r="I19" s="12">
-        <f>C19/E19</f>
+        <f t="shared" si="5"/>
         <v>1.4033110250088061</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7868141725220512</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7616626133097502</v>
       </c>
       <c r="L19" s="12">
-        <f>E19/F19</f>
+        <f t="shared" si="6"/>
         <v>1.2732844969352668</v>
       </c>
       <c r="M19" s="12">
-        <f>F19/G19</f>
+        <f t="shared" si="6"/>
         <v>0.98592379688996978</v>
       </c>
       <c r="N19" s="18">
-        <f>(2*$B19*$B19*$B19)/C19/1000000</f>
+        <f t="shared" si="7"/>
         <v>1470.5488621151271</v>
       </c>
       <c r="O19" s="18">
-        <f>(2*$B19*$B19*$B19)/D19/1000000</f>
+        <f t="shared" si="7"/>
         <v>1377.8613985575416</v>
       </c>
       <c r="P19" s="18">
-        <f>(2*$B19*$B19*$B19)/E19/1000000</f>
+        <f t="shared" si="7"/>
         <v>2063.6374310203128</v>
       </c>
       <c r="Q19" s="18">
-        <f>(2*$B19*$B19*$B19)/F19/1000000</f>
+        <f t="shared" si="7"/>
         <v>2627.597548213485</v>
       </c>
       <c r="R19" s="18">
-        <f>(2*$B19*$B19*$B19)/G19/1000000</f>
+        <f t="shared" si="7"/>
         <v>2590.6109514334144</v>
       </c>
     </row>
@@ -32802,47 +33041,47 @@
         <v>19.736000000000001</v>
       </c>
       <c r="H20" s="5">
-        <f>C20/D20</f>
+        <f t="shared" si="4"/>
         <v>0.93303905624822547</v>
       </c>
       <c r="I20" s="12">
-        <f>C20/E20</f>
+        <f t="shared" si="5"/>
         <v>1.3968002473238785</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7988851838948889</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8314248074584516</v>
       </c>
       <c r="L20" s="12">
-        <f>E20/F20</f>
+        <f t="shared" si="6"/>
         <v>1.287861444284079</v>
       </c>
       <c r="M20" s="12">
-        <f>F20/G20</f>
+        <f t="shared" si="6"/>
         <v>1.0180887717875962</v>
       </c>
       <c r="N20" s="18">
-        <f>(2*$B20*$B20*$B20)/C20/1000000</f>
+        <f t="shared" si="7"/>
         <v>1493.9825702033474</v>
       </c>
       <c r="O20" s="18">
-        <f>(2*$B20*$B20*$B20)/D20/1000000</f>
+        <f t="shared" si="7"/>
         <v>1393.9440873538297</v>
       </c>
       <c r="P20" s="18">
-        <f>(2*$B20*$B20*$B20)/E20/1000000</f>
+        <f t="shared" si="7"/>
         <v>2086.7952235575995</v>
       </c>
       <c r="Q20" s="18">
-        <f>(2*$B20*$B20*$B20)/F20/1000000</f>
+        <f t="shared" si="7"/>
         <v>2687.5031105360076</v>
       </c>
       <c r="R20" s="18">
-        <f>(2*$B20*$B20*$B20)/G20/1000000</f>
+        <f t="shared" si="7"/>
         <v>2736.1167409809486</v>
       </c>
     </row>
@@ -32979,23 +33218,23 @@
         <v>1.2396694214876034</v>
       </c>
       <c r="N24" s="18">
-        <f>(2*$B24*$B24*$B24)/C24/1000000</f>
+        <f t="shared" ref="N24:N34" si="10">(2*$B24*$B24*$B24)/C24/1000000</f>
         <v>970.78651685393265</v>
       </c>
       <c r="O24" s="18">
-        <f>(2*$B24*$B24*$B24)/D24/1000000</f>
+        <f t="shared" ref="O24:O34" si="11">(2*$B24*$B24*$B24)/D24/1000000</f>
         <v>4114.2857142857147</v>
       </c>
       <c r="P24" s="18">
-        <f>(2*$B24*$B24*$B24)/E24/1000000</f>
+        <f t="shared" ref="P24:P34" si="12">(2*$B24*$B24*$B24)/E24/1000000</f>
         <v>1945.9459459459461</v>
       </c>
       <c r="Q24" s="18">
-        <f>(2*$B24*$B24*$B24)/F24/1000000</f>
+        <f t="shared" ref="Q24:Q34" si="13">(2*$B24*$B24*$B24)/F24/1000000</f>
         <v>2880</v>
       </c>
       <c r="R24" s="18">
-        <f>(2*$B24*$B24*$B24)/G24/1000000</f>
+        <f t="shared" ref="R24:R34" si="14">(2*$B24*$B24*$B24)/G24/1000000</f>
         <v>3570.2479338842977</v>
       </c>
     </row>
@@ -33019,47 +33258,47 @@
         <v>0.52</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:H34" si="6">C25/D25</f>
+        <f t="shared" ref="H25:H34" si="15">C25/D25</f>
         <v>0.99617590822179736</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" ref="I25:I33" si="7">C25/E25</f>
+        <f t="shared" ref="I25:I33" si="16">C25/E25</f>
         <v>0.50680933852140075</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ref="J25:J34" si="8">C25/F25</f>
+        <f t="shared" ref="J25:J34" si="17">C25/F25</f>
         <v>0.75947521865889212</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" ref="K25:K34" si="9">C25/G25</f>
+        <f t="shared" ref="K25:K34" si="18">C25/G25</f>
         <v>1.0019230769230769</v>
       </c>
       <c r="L25" s="12">
-        <f t="shared" ref="L25:L34" si="10">E25/F25</f>
+        <f t="shared" ref="L25:L34" si="19">E25/F25</f>
         <v>1.4985422740524781</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" ref="M25:M34" si="11">F25/G25</f>
+        <f t="shared" ref="M25:M34" si="20">F25/G25</f>
         <v>1.3192307692307692</v>
       </c>
       <c r="N25" s="18">
-        <f>(2*$B25*$B25*$B25)/C25/1000000</f>
+        <f t="shared" si="10"/>
         <v>3838.7715930902109</v>
       </c>
       <c r="O25" s="18">
-        <f>(2*$B25*$B25*$B25)/D25/1000000</f>
+        <f t="shared" si="11"/>
         <v>3824.0917782026768</v>
       </c>
       <c r="P25" s="18">
-        <f>(2*$B25*$B25*$B25)/E25/1000000</f>
+        <f t="shared" si="12"/>
         <v>1945.5252918287938</v>
       </c>
       <c r="Q25" s="18">
-        <f>(2*$B25*$B25*$B25)/F25/1000000</f>
+        <f t="shared" si="13"/>
         <v>2915.4518950437318</v>
       </c>
       <c r="R25" s="18">
-        <f>(2*$B25*$B25*$B25)/G25/1000000</f>
+        <f t="shared" si="14"/>
         <v>3846.1538461538457</v>
       </c>
     </row>
@@ -33083,47 +33322,47 @@
         <v>1.421</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.0034482758620691</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.51540913921360254</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.77147401908801705</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.023926812104152</v>
       </c>
       <c r="L26" s="12">
+        <f t="shared" si="19"/>
+        <v>1.4968186638388123</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3272343420126671</v>
+      </c>
+      <c r="N26" s="18">
         <f t="shared" si="10"/>
-        <v>1.4968186638388123</v>
-      </c>
-      <c r="M26" s="12">
+        <v>3771.8213058419242</v>
+      </c>
+      <c r="O26" s="18">
         <f t="shared" si="11"/>
-        <v>1.3272343420126671</v>
-      </c>
-      <c r="N26" s="18">
-        <f>(2*$B26*$B26*$B26)/C26/1000000</f>
-        <v>3771.8213058419242</v>
-      </c>
-      <c r="O26" s="18">
-        <f>(2*$B26*$B26*$B26)/D26/1000000</f>
         <v>3784.8275862068967</v>
       </c>
       <c r="P26" s="18">
-        <f>(2*$B26*$B26*$B26)/E26/1000000</f>
+        <f t="shared" si="12"/>
         <v>1944.0311725115125</v>
       </c>
       <c r="Q26" s="18">
-        <f>(2*$B26*$B26*$B26)/F26/1000000</f>
+        <f t="shared" si="13"/>
         <v>2909.8621420996819</v>
       </c>
       <c r="R26" s="18">
-        <f>(2*$B26*$B26*$B26)/G26/1000000</f>
+        <f t="shared" si="14"/>
         <v>3862.0689655172414</v>
       </c>
     </row>
@@ -33147,47 +33386,47 @@
         <v>3.0019999999999998</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.97802547770700643</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.51174804199300117</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.76717461903572326</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0229846768820787</v>
       </c>
       <c r="L27" s="12">
+        <f t="shared" si="19"/>
+        <v>1.4991256557581814</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3334443704197203</v>
+      </c>
+      <c r="N27" s="18">
         <f t="shared" si="10"/>
-        <v>1.4991256557581814</v>
-      </c>
-      <c r="M27" s="12">
+        <v>3798.1113643764243</v>
+      </c>
+      <c r="O27" s="18">
         <f t="shared" si="11"/>
-        <v>1.3334443704197203</v>
-      </c>
-      <c r="N27" s="18">
-        <f>(2*$B27*$B27*$B27)/C27/1000000</f>
-        <v>3798.1113643764243</v>
-      </c>
-      <c r="O27" s="18">
-        <f>(2*$B27*$B27*$B27)/D27/1000000</f>
         <v>3714.6496815286623</v>
       </c>
       <c r="P27" s="18">
-        <f>(2*$B27*$B27*$B27)/E27/1000000</f>
+        <f t="shared" si="12"/>
         <v>1943.6760539910013</v>
       </c>
       <c r="Q27" s="18">
-        <f>(2*$B27*$B27*$B27)/F27/1000000</f>
+        <f t="shared" si="13"/>
         <v>2913.8146390207344</v>
       </c>
       <c r="R27" s="18">
-        <f>(2*$B27*$B27*$B27)/G27/1000000</f>
+        <f t="shared" si="14"/>
         <v>3885.4097268487676</v>
       </c>
     </row>
@@ -33211,47 +33450,47 @@
         <v>5.4809999999999999</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99589953869810355</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.53242601388381439</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.7977282058300259</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0634920634920635</v>
       </c>
       <c r="L28" s="12">
+        <f t="shared" si="19"/>
+        <v>1.4982893116189955</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3331508848750229</v>
+      </c>
+      <c r="N28" s="18">
         <f t="shared" si="10"/>
-        <v>1.4982893116189955</v>
-      </c>
-      <c r="M28" s="12">
+        <v>3653.4568536627212</v>
+      </c>
+      <c r="O28" s="18">
         <f t="shared" si="11"/>
-        <v>1.3331508848750229</v>
-      </c>
-      <c r="N28" s="18">
-        <f>(2*$B28*$B28*$B28)/C28/1000000</f>
-        <v>3653.4568536627212</v>
-      </c>
-      <c r="O28" s="18">
-        <f>(2*$B28*$B28*$B28)/D28/1000000</f>
         <v>3638.4759952161289</v>
       </c>
       <c r="P28" s="18">
-        <f>(2*$B28*$B28*$B28)/E28/1000000</f>
+        <f t="shared" si="12"/>
         <v>1945.1954694921446</v>
       </c>
       <c r="Q28" s="18">
-        <f>(2*$B28*$B28*$B28)/F28/1000000</f>
+        <f t="shared" si="13"/>
         <v>2914.4655809497744</v>
       </c>
       <c r="R28" s="18">
-        <f>(2*$B28*$B28*$B28)/G28/1000000</f>
+        <f t="shared" si="14"/>
         <v>3885.422368180989</v>
       </c>
     </row>
@@ -33275,47 +33514,47 @@
         <v>9.0549999999999997</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99098015634395675</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.54726588443657287</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.81915334272222684</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0919933738266152</v>
       </c>
       <c r="L29" s="12">
+        <f t="shared" si="19"/>
+        <v>1.4968105376522245</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3330756488128106</v>
+      </c>
+      <c r="N29" s="18">
         <f t="shared" si="10"/>
-        <v>1.4968105376522245</v>
-      </c>
-      <c r="M29" s="12">
+        <v>3555.0161812297733</v>
+      </c>
+      <c r="O29" s="18">
         <f t="shared" si="11"/>
-        <v>1.3330756488128106</v>
-      </c>
-      <c r="N29" s="18">
-        <f>(2*$B29*$B29*$B29)/C29/1000000</f>
-        <v>3555.0161812297733</v>
-      </c>
-      <c r="O29" s="18">
-        <f>(2*$B29*$B29*$B29)/D29/1000000</f>
         <v>3522.9504910803771</v>
       </c>
       <c r="P29" s="18">
-        <f>(2*$B29*$B29*$B29)/E29/1000000</f>
+        <f t="shared" si="12"/>
         <v>1945.53907460704</v>
       </c>
       <c r="Q29" s="18">
-        <f>(2*$B29*$B29*$B29)/F29/1000000</f>
+        <f t="shared" si="13"/>
         <v>2912.1033882859747</v>
       </c>
       <c r="R29" s="18">
-        <f>(2*$B29*$B29*$B29)/G29/1000000</f>
+        <f t="shared" si="14"/>
         <v>3882.0541137493101</v>
       </c>
     </row>
@@ -33339,47 +33578,47 @@
         <v>13.897</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99345378371301385</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.54694201174901791</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.81873111782477337</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0920342519968338</v>
       </c>
       <c r="L30" s="12">
+        <f t="shared" si="19"/>
+        <v>1.4969249028916702</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3338130531769448</v>
+      </c>
+      <c r="N30" s="18">
         <f t="shared" si="10"/>
-        <v>1.4969249028916702</v>
-      </c>
-      <c r="M30" s="12">
+        <v>3558.2498682129681</v>
+      </c>
+      <c r="O30" s="18">
         <f t="shared" si="11"/>
-        <v>1.3338130531769448</v>
-      </c>
-      <c r="N30" s="18">
-        <f>(2*$B30*$B30*$B30)/C30/1000000</f>
-        <v>3558.2498682129681</v>
-      </c>
-      <c r="O30" s="18">
-        <f>(2*$B30*$B30*$B30)/D30/1000000</f>
         <v>3534.956794972506</v>
       </c>
       <c r="P30" s="18">
-        <f>(2*$B30*$B30*$B30)/E30/1000000</f>
+        <f t="shared" si="12"/>
         <v>1946.1563412260784</v>
       </c>
       <c r="Q30" s="18">
-        <f>(2*$B30*$B30*$B30)/F30/1000000</f>
+        <f t="shared" si="13"/>
         <v>2913.2498921018559</v>
       </c>
       <c r="R30" s="18">
-        <f>(2*$B30*$B30*$B30)/G30/1000000</f>
+        <f t="shared" si="14"/>
         <v>3885.7307332517812</v>
       </c>
     </row>
@@ -33403,47 +33642,47 @@
         <v>32.997999999999998</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99944140319517361</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.543771939155409</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.81477264965049301</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0844293593551124</v>
       </c>
       <c r="L31" s="12">
+        <f t="shared" si="19"/>
+        <v>1.498372003005533</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3309594520880053</v>
+      </c>
+      <c r="N31" s="18">
         <f t="shared" si="10"/>
-        <v>1.498372003005533</v>
-      </c>
-      <c r="M31" s="12">
+        <v>3577.0176615247042</v>
+      </c>
+      <c r="O31" s="18">
         <f t="shared" si="11"/>
-        <v>1.3309594520880053</v>
-      </c>
-      <c r="N31" s="18">
-        <f>(2*$B31*$B31*$B31)/C31/1000000</f>
-        <v>3577.0176615247042</v>
-      </c>
-      <c r="O31" s="18">
-        <f>(2*$B31*$B31*$B31)/D31/1000000</f>
         <v>3575.0195508881689</v>
       </c>
       <c r="P31" s="18">
-        <f>(2*$B31*$B31*$B31)/E31/1000000</f>
+        <f t="shared" si="12"/>
         <v>1945.0818302004345</v>
       </c>
       <c r="Q31" s="18">
-        <f>(2*$B31*$B31*$B31)/F31/1000000</f>
+        <f t="shared" si="13"/>
         <v>2914.456157927093</v>
       </c>
       <c r="R31" s="18">
-        <f>(2*$B31*$B31*$B31)/G31/1000000</f>
+        <f t="shared" si="14"/>
         <v>3879.0229710891572</v>
       </c>
     </row>
@@ -33467,47 +33706,47 @@
         <v>111.21</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99710400092145424</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.54576608545284244</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.81738291788065176</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0897850912687708</v>
       </c>
       <c r="L32" s="12">
+        <f t="shared" si="19"/>
+        <v>1.4976799395705191</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3332613973563527</v>
+      </c>
+      <c r="N32" s="18">
         <f t="shared" si="10"/>
-        <v>1.4976799395705191</v>
-      </c>
-      <c r="M32" s="12">
+        <v>3564.5034861174145</v>
+      </c>
+      <c r="O32" s="18">
         <f t="shared" si="11"/>
-        <v>1.3332613973563527</v>
-      </c>
-      <c r="N32" s="18">
-        <f>(2*$B32*$B32*$B32)/C32/1000000</f>
-        <v>3564.5034861174145</v>
-      </c>
-      <c r="O32" s="18">
-        <f>(2*$B32*$B32*$B32)/D32/1000000</f>
         <v>3554.180687306145</v>
       </c>
       <c r="P32" s="18">
-        <f>(2*$B32*$B32*$B32)/E32/1000000</f>
+        <f t="shared" si="12"/>
         <v>1945.3851142013114</v>
       </c>
       <c r="Q32" s="18">
-        <f>(2*$B32*$B32*$B32)/F32/1000000</f>
+        <f t="shared" si="13"/>
         <v>2913.5642602784078</v>
       </c>
       <c r="R32" s="18">
-        <f>(2*$B32*$B32*$B32)/G32/1000000</f>
+        <f t="shared" si="14"/>
         <v>3884.5427569463181</v>
       </c>
     </row>
@@ -33531,47 +33770,47 @@
         <v>264.99400000000003</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99895181847306769</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.54485210741941559</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.81699651685041252</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.082526396824079</v>
       </c>
       <c r="L33" s="12">
+        <f t="shared" si="19"/>
+        <v>1.499483081234567</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3250073586571771</v>
+      </c>
+      <c r="N33" s="18">
         <f t="shared" si="10"/>
-        <v>1.499483081234567</v>
-      </c>
-      <c r="M33" s="12">
+        <v>3569.6482292941232</v>
+      </c>
+      <c r="O33" s="18">
         <f t="shared" si="11"/>
-        <v>1.3250073586571771</v>
-      </c>
-      <c r="N33" s="18">
-        <f>(2*$B33*$B33*$B33)/C33/1000000</f>
-        <v>3569.6482292941232</v>
-      </c>
-      <c r="O33" s="18">
-        <f>(2*$B33*$B33*$B33)/D33/1000000</f>
         <v>3565.9065899625302</v>
       </c>
       <c r="P33" s="18">
-        <f>(2*$B33*$B33*$B33)/E33/1000000</f>
+        <f t="shared" si="12"/>
         <v>1944.9303604768879</v>
       </c>
       <c r="Q33" s="18">
-        <f>(2*$B33*$B33*$B33)/F33/1000000</f>
+        <f t="shared" si="13"/>
         <v>2916.3901697145411</v>
       </c>
       <c r="R33" s="18">
-        <f>(2*$B33*$B33*$B33)/G33/1000000</f>
+        <f t="shared" si="14"/>
         <v>3864.2384355872205</v>
       </c>
     </row>
@@ -33595,7 +33834,7 @@
         <v>517.62400000000002</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.99902933025568696</v>
       </c>
       <c r="I34" s="12">
@@ -33603,39 +33842,39 @@
         <v>0.54544968338182442</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.81836034098651489</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0836495216605102</v>
       </c>
       <c r="L34" s="12">
+        <f t="shared" si="19"/>
+        <v>1.5003406655452181</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3241715994621579</v>
+      </c>
+      <c r="N34" s="18">
         <f t="shared" si="10"/>
-        <v>1.5003406655452181</v>
-      </c>
-      <c r="M34" s="12">
+        <v>3565.5517780515329</v>
+      </c>
+      <c r="O34" s="18">
         <f t="shared" si="11"/>
-        <v>1.3241715994621579</v>
-      </c>
-      <c r="N34" s="18">
-        <f>(2*$B34*$B34*$B34)/C34/1000000</f>
-        <v>3565.5517780515329</v>
-      </c>
-      <c r="O34" s="18">
-        <f>(2*$B34*$B34*$B34)/D34/1000000</f>
         <v>3562.0908048187966</v>
       </c>
       <c r="P34" s="18">
-        <f>(2*$B34*$B34*$B34)/E34/1000000</f>
+        <f t="shared" si="12"/>
         <v>1944.8290884197097</v>
       </c>
       <c r="Q34" s="18">
-        <f>(2*$B34*$B34*$B34)/F34/1000000</f>
+        <f t="shared" si="13"/>
         <v>2917.9061688913271</v>
       </c>
       <c r="R34" s="18">
-        <f>(2*$B34*$B34*$B34)/G34/1000000</f>
+        <f t="shared" si="14"/>
         <v>3863.8084787413254</v>
       </c>
     </row>
@@ -33689,7 +33928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="G22" workbookViewId="0">
       <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
@@ -34642,8 +34881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34652,7 +34891,8 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -34690,22 +34930,21 @@
         <v>600</v>
       </c>
       <c r="C4" s="17">
-        <v>27122148</v>
+        <v>27118239</v>
       </c>
       <c r="D4" s="7">
-        <v>61045414</v>
+        <v>60782230</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E14" si="0">2*POWER(B4,3)</f>
-        <v>432000000</v>
+        <v>1517110291</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:F10" si="1">C4/E4</f>
-        <v>6.2782749999999998E-2</v>
+        <f t="shared" ref="F4:F10" si="0">C4/E4</f>
+        <v>1.7874929173491448E-2</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G10" si="2">D4/E4</f>
-        <v>0.1413088287037037</v>
+        <f t="shared" ref="G4:G10" si="1">D4/E4</f>
+        <v>4.0064476762553314E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -34713,22 +34952,21 @@
         <v>1000</v>
       </c>
       <c r="C5" s="17">
-        <v>125698205</v>
+        <v>125705957</v>
       </c>
       <c r="D5" s="7">
-        <v>261856296</v>
+        <v>260780329</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" si="0"/>
-        <v>2000000000</v>
+        <v>7014077112</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" si="1"/>
-        <v>6.2849102500000004E-2</v>
+        <f t="shared" ref="F5:F10" si="2">C5/E5</f>
+        <v>1.7921952523866122E-2</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="2"/>
-        <v>0.13092814799999999</v>
+        <f t="shared" ref="G5:G10" si="3">D5/E5</f>
+        <v>3.7179564016176163E-2</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -34736,45 +34974,43 @@
         <v>1400</v>
       </c>
       <c r="C6" s="17">
-        <v>346919524</v>
+        <v>346875192</v>
       </c>
       <c r="D6" s="7">
-        <v>710373756</v>
+        <v>705784785</v>
       </c>
       <c r="E6" s="17">
-        <f t="shared" si="0"/>
-        <v>5488000000</v>
+        <v>19235531654</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" si="1"/>
-        <v>6.3214198979591837E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8033044172598569E-2</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="2"/>
-        <v>0.12944128206997085</v>
+        <f t="shared" si="3"/>
+        <v>3.6691722261455305E-2</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>1800</v>
       </c>
-      <c r="C7" s="17">
-        <v>740659276</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1511340246</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="0"/>
-        <v>11664000000</v>
+      <c r="C7">
+        <v>740645397</v>
+      </c>
+      <c r="D7">
+        <v>1494507032</v>
+      </c>
+      <c r="E7">
+        <v>40869467485</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="1"/>
-        <v>6.3499594993141284E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8122217943549995E-2</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="2"/>
-        <v>0.12957306635802468</v>
+        <f t="shared" si="3"/>
+        <v>3.6567812696569078E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -34782,22 +35018,21 @@
         <v>2200</v>
       </c>
       <c r="C8" s="17">
-        <v>2048718443</v>
+        <v>1942974410</v>
       </c>
       <c r="D8" s="7">
-        <v>2753833160</v>
+        <v>2726954085</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="0"/>
-        <v>21296000000</v>
+        <v>74603882914</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="1"/>
-        <v>9.6202030569120967E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.6043877799762426E-2</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="2"/>
-        <v>0.12931222577009768</v>
+        <f t="shared" si="3"/>
+        <v>3.655244175619532E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -34805,22 +35040,21 @@
         <v>2600</v>
       </c>
       <c r="C9" s="17">
-        <v>4373741778</v>
+        <v>4387780051</v>
       </c>
       <c r="D9" s="7">
-        <v>4559666661</v>
+        <v>4494239215</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="0"/>
-        <v>35152000000</v>
+        <v>123126779072</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
-        <v>0.1244236964610833</v>
+        <f t="shared" si="2"/>
+        <v>3.5636277372562371E-2</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="2"/>
-        <v>0.12971286586822942</v>
+        <f t="shared" si="3"/>
+        <v>3.6500907835588993E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -34828,1233 +35062,814 @@
         <v>3000</v>
       </c>
       <c r="C10" s="17">
-        <v>6762208063</v>
+        <v>6760971656</v>
       </c>
       <c r="D10" s="7">
-        <v>7003555308</v>
+        <v>6900253494</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="0"/>
-        <v>54000000000</v>
+        <v>189126154586</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.12522607524074075</v>
+        <f t="shared" si="2"/>
+        <v>3.5748475248174261E-2</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="2"/>
-        <v>0.12969546866666667</v>
+        <f t="shared" si="3"/>
+        <v>3.6484924621371165E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C11" s="17">
-        <v>16054766836</v>
-      </c>
-      <c r="D11" s="7">
-        <v>16606792682</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>128000000000</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" ref="F11:F14" si="3">C11/E11</f>
-        <v>0.12542786590624999</v>
-      </c>
-      <c r="G11" s="16">
-        <f t="shared" ref="G11:G14" si="4">D11/E11</f>
-        <v>0.12974056782812499</v>
-      </c>
+    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C12" s="17">
-        <v>54108919327</v>
-      </c>
-      <c r="D12" s="7">
-        <v>56067889906</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" si="0"/>
-        <v>432000000000</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="3"/>
-        <v>0.12525212807175926</v>
-      </c>
-      <c r="G12" s="16">
-        <f t="shared" si="4"/>
-        <v>0.12978678218981482</v>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C13" s="17">
-        <v>128598185230</v>
-      </c>
-      <c r="D13" s="7">
-        <v>132776205772</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
-        <v>1024000000000</v>
+        <v>600</v>
+      </c>
+      <c r="C13" s="5">
+        <v>27122969</v>
+      </c>
+      <c r="D13" s="5">
+        <v>58541880</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1519263410</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
-        <v>0.12558416526367189</v>
+        <f>C13/E13</f>
+        <v>1.7852709952384097E-2</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="4"/>
-        <v>0.12966426344921875</v>
+        <f>D13/E13</f>
+        <v>3.8533067810801812E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C14" s="17">
-        <v>250407970741</v>
-      </c>
-      <c r="D14">
-        <v>259802532962</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" si="0"/>
-        <v>2000000000000</v>
+        <v>1000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>125739342</v>
+      </c>
+      <c r="D14" s="5">
+        <v>264577826</v>
+      </c>
+      <c r="E14" s="18">
+        <v>7020076449</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="3"/>
-        <v>0.12520398537050001</v>
+        <f t="shared" ref="F14:F19" si="4">C14/E14</f>
+        <v>1.7911392121365201E-2</v>
       </c>
       <c r="G14" s="16">
+        <f t="shared" ref="G14:G19" si="5">D14/E14</f>
+        <v>3.7688738566043496E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="5">
+        <v>346636717</v>
+      </c>
+      <c r="D15" s="5">
+        <v>713523237</v>
+      </c>
+      <c r="E15" s="18">
+        <v>19247290906</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="4"/>
-        <v>0.12990126648100001</v>
+        <v>1.8009636716819311E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="5"/>
+        <v>3.7071359314134536E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>14</v>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C16" s="5">
+        <v>740099251</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1509307371</v>
+      </c>
+      <c r="E16" s="18">
+        <v>40888906695</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="4"/>
+        <v>1.8100245538981388E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="5"/>
+        <v>3.6912392455447141E-2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>600</v>
-      </c>
-      <c r="C17" s="7">
-        <v>27122969</v>
-      </c>
-      <c r="D17" s="7">
-        <v>58541880</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1519263410</v>
+        <v>2200</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2033514474</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2753704482</v>
+      </c>
+      <c r="E17" s="18">
+        <v>74632921994</v>
       </c>
       <c r="F17" s="15">
-        <f>C17/E17</f>
-        <v>1.7852709952384097E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7246882738471385E-2</v>
       </c>
       <c r="G17" s="16">
-        <f>D17/E17</f>
-        <v>3.8533067810801812E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.6896645721862263E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="7">
-        <v>125739342</v>
-      </c>
-      <c r="D18" s="7">
-        <v>264577826</v>
-      </c>
-      <c r="E18" s="17">
-        <v>7020076449</v>
+        <v>2600</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4401192924</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4552164674</v>
+      </c>
+      <c r="E18" s="18">
+        <v>123167337412</v>
       </c>
       <c r="F18" s="15">
-        <f>C18/E18</f>
-        <v>1.7911392121365201E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5733442132290495E-2</v>
       </c>
       <c r="G18" s="16">
-        <f>D18/E18</f>
-        <v>3.7688738566043496E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.695918714856046E-2</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C19" s="7">
-        <v>346636717</v>
-      </c>
-      <c r="D19" s="7">
-        <v>713523237</v>
-      </c>
-      <c r="E19" s="17">
-        <v>19247290906</v>
+        <v>3000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6762477442</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6993669938</v>
+      </c>
+      <c r="E19" s="18">
+        <v>189180153097</v>
       </c>
       <c r="F19" s="15">
-        <f>C19/E19</f>
-        <v>1.8009636716819311E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5746230940687608E-2</v>
       </c>
       <c r="G19" s="16">
-        <f>D19/E19</f>
-        <v>3.7071359314134536E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.696830678857773E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>1800</v>
-      </c>
-      <c r="C20" s="7">
-        <v>740099251</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1509307371</v>
-      </c>
-      <c r="E20" s="17">
-        <v>40888906695</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" ref="F20:F23" si="5">C20/E20</f>
-        <v>1.8100245538981388E-2</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" ref="G20:G23" si="6">D20/E20</f>
-        <v>3.6912392455447141E-2</v>
-      </c>
+    <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2033514474</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2753704482</v>
-      </c>
-      <c r="E21" s="17">
-        <v>74632921994</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="5"/>
-        <v>2.7246882738471385E-2</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="6"/>
-        <v>3.6896645721862263E-2</v>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <v>2600</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4401192924</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4552164674</v>
-      </c>
-      <c r="E22" s="17">
-        <v>123167337412</v>
+        <v>600</v>
+      </c>
+      <c r="C22" s="5">
+        <v>13552623</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28757928</v>
+      </c>
+      <c r="E22" s="18">
+        <v>761136581</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="5"/>
-        <v>3.5733442132290495E-2</v>
+        <f>C22/E22</f>
+        <v>1.7805770131550148E-2</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="6"/>
-        <v>3.695918714856046E-2</v>
+        <f>D22/E22</f>
+        <v>3.7782874608676839E-2</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6762477442</v>
-      </c>
-      <c r="D23" s="7">
-        <v>6993669938</v>
-      </c>
-      <c r="E23" s="17">
-        <v>189180153097</v>
+        <v>1000</v>
+      </c>
+      <c r="C23" s="5">
+        <v>62892286</v>
+      </c>
+      <c r="D23" s="5">
+        <v>128071252</v>
+      </c>
+      <c r="E23" s="18">
+        <v>3516170307</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="5"/>
-        <v>3.5746230940687608E-2</v>
+        <f t="shared" ref="F23:F28" si="6">C23/E23</f>
+        <v>1.7886586970714671E-2</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="6"/>
-        <v>3.696830678857773E-2</v>
+        <f t="shared" ref="G23:G28" si="7">D23/E23</f>
+        <v>3.6423506490864635E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C24">
-        <v>16054245378</v>
-      </c>
-      <c r="D24">
-        <v>16593173487</v>
-      </c>
-      <c r="E24" s="17">
-        <v>448320193426</v>
+        <v>1400</v>
+      </c>
+      <c r="C24" s="5">
+        <v>173668193</v>
+      </c>
+      <c r="D24" s="5">
+        <v>347397270</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9633620883</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" ref="F24:F27" si="7">C24/E24</f>
-        <v>3.5809775275380103E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.8027301998822076E-2</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" ref="G24:G27" si="8">D24/E24</f>
-        <v>3.7011880638695517E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6060923947405454E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C25">
-        <v>54108990996</v>
-      </c>
-      <c r="D25">
-        <v>55994417156</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1512720295122</v>
+        <v>1800</v>
+      </c>
+      <c r="C25" s="5">
+        <v>370652951</v>
+      </c>
+      <c r="D25" s="5">
+        <v>737300807</v>
+      </c>
+      <c r="E25" s="18">
+        <v>20459553639</v>
       </c>
       <c r="F25" s="15">
+        <f t="shared" si="6"/>
+        <v>1.8116375241611398E-2</v>
+      </c>
+      <c r="G25" s="16">
         <f t="shared" si="7"/>
-        <v>3.5769329710510785E-2</v>
-      </c>
-      <c r="G25" s="16">
-        <f t="shared" si="8"/>
-        <v>3.7015710925914484E-2</v>
+        <v>3.6036993768747583E-2</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C26">
-        <v>128542962934</v>
-      </c>
-      <c r="D26">
-        <v>132726171103</v>
-      </c>
-      <c r="E26" s="17">
-        <v>3585280420873</v>
+        <v>2200</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1032290659</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1341184539</v>
+      </c>
+      <c r="E26" s="18">
+        <v>37337966153</v>
       </c>
       <c r="F26" s="15">
+        <f t="shared" si="6"/>
+        <v>2.7647211815715313E-2</v>
+      </c>
+      <c r="G26" s="16">
         <f t="shared" si="7"/>
-        <v>3.5852973225090255E-2</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="8"/>
-        <v>3.7019746162751131E-2</v>
+        <v>3.5920128415785166E-2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C27">
-        <v>250409346698</v>
-      </c>
-      <c r="D27">
-        <v>255257040831</v>
-      </c>
-      <c r="E27" s="17">
-        <v>7002000573327</v>
+        <v>2600</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2187516109</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2218489414</v>
+      </c>
+      <c r="E27" s="18">
+        <v>61612858474</v>
       </c>
       <c r="F27" s="15">
+        <f t="shared" si="6"/>
+        <v>3.5504213944612055E-2</v>
+      </c>
+      <c r="G27" s="16">
         <f t="shared" si="7"/>
-        <v>3.5762543015476794E-2</v>
-      </c>
-      <c r="G27" s="16">
-        <f t="shared" si="8"/>
-        <v>3.6454872883524295E-2</v>
+        <v>3.6006922401371461E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3380836733</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3406405375</v>
+      </c>
+      <c r="E28" s="18">
+        <v>94628230201</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="6"/>
+        <v>3.5727570153417834E-2</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="7"/>
+        <v>3.5997771148889163E-2</v>
+      </c>
     </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <v>600</v>
-      </c>
-      <c r="C30" s="7">
-        <v>13552623</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28757928</v>
-      </c>
-      <c r="E30" s="17">
-        <v>761136581</v>
-      </c>
-      <c r="F30" s="15">
-        <f>C30/E30</f>
-        <v>1.7805770131550148E-2</v>
-      </c>
-      <c r="G30" s="16">
-        <f>D30/E30</f>
-        <v>3.7782874608676839E-2</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="7">
-        <v>62892286</v>
-      </c>
-      <c r="D31" s="7">
-        <v>128071252</v>
-      </c>
-      <c r="E31" s="17">
-        <v>3516170307</v>
+        <v>600</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9066127</v>
+      </c>
+      <c r="D31" s="4">
+        <v>19264039</v>
+      </c>
+      <c r="E31" s="20">
+        <v>508444180</v>
       </c>
       <c r="F31" s="15">
-        <f>C31/E31</f>
-        <v>1.7886586970714671E-2</v>
+        <f t="shared" ref="F31:F37" si="8">C31/E31</f>
+        <v>1.7831115698875737E-2</v>
       </c>
       <c r="G31" s="16">
-        <f>D31/E31</f>
-        <v>3.6423506490864635E-2</v>
+        <f t="shared" ref="G31:G37" si="9">D31/E31</f>
+        <v>3.7888208298499947E-2</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C32" s="7">
-        <v>173668193</v>
-      </c>
-      <c r="D32" s="7">
-        <v>347397270</v>
-      </c>
-      <c r="E32" s="17">
-        <v>9633620883</v>
+        <v>1000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>42130151</v>
+      </c>
+      <c r="D32" s="4">
+        <v>85777422</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2352174646</v>
       </c>
       <c r="F32" s="15">
-        <f>C32/E32</f>
-        <v>1.8027301998822076E-2</v>
+        <f t="shared" ref="F32:F37" si="10">C32/E32</f>
+        <v>1.7911149187686635E-2</v>
       </c>
       <c r="G32" s="16">
-        <f>D32/E32</f>
-        <v>3.6060923947405454E-2</v>
+        <f t="shared" ref="G32:G37" si="11">D32/E32</f>
+        <v>3.6467284496016966E-2</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
-        <v>1800</v>
-      </c>
-      <c r="C33" s="7">
-        <v>370652951</v>
-      </c>
-      <c r="D33" s="7">
-        <v>737300807</v>
-      </c>
-      <c r="E33" s="17">
-        <v>20459553639</v>
+        <v>1400</v>
+      </c>
+      <c r="C33" s="4">
+        <v>115996704</v>
+      </c>
+      <c r="D33" s="4">
+        <v>232737152</v>
+      </c>
+      <c r="E33" s="20">
+        <v>6432943792</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" ref="F33:F36" si="9">C33/E33</f>
-        <v>1.8116375241611398E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.8031667577175683E-2</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" ref="G33:G36" si="10">D33/E33</f>
-        <v>3.6036993768747583E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6178950030533702E-2</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1032290659</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1341184539</v>
-      </c>
-      <c r="E34" s="17">
-        <v>37337966153</v>
+        <v>1800</v>
+      </c>
+      <c r="C34" s="4">
+        <v>247362799</v>
+      </c>
+      <c r="D34" s="4">
+        <v>493439059</v>
+      </c>
+      <c r="E34" s="20">
+        <v>13649069509</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="9"/>
-        <v>2.7647211815715313E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.812305218585725E-2</v>
       </c>
       <c r="G34" s="16">
-        <f t="shared" si="10"/>
-        <v>3.5920128415785166E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6151846004933402E-2</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <v>2600</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2187516109</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2218489414</v>
-      </c>
-      <c r="E35" s="17">
-        <v>61612858474</v>
+        <v>2200</v>
+      </c>
+      <c r="C35" s="4">
+        <v>674184310</v>
+      </c>
+      <c r="D35" s="4">
+        <v>900494197</v>
+      </c>
+      <c r="E35" s="20">
+        <v>24928218325</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="9"/>
-        <v>3.5504213944612055E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.7045025890353118E-2</v>
       </c>
       <c r="G35" s="16">
-        <f t="shared" si="10"/>
-        <v>3.6006922401371461E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6123488059189246E-2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3380836733</v>
-      </c>
-      <c r="D36" s="7">
-        <v>3406405375</v>
-      </c>
-      <c r="E36" s="17">
-        <v>94628230201</v>
+        <v>2600</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1468597194</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1485854097</v>
+      </c>
+      <c r="E36" s="20">
+        <v>41109782649</v>
       </c>
       <c r="F36" s="15">
-        <f t="shared" si="9"/>
-        <v>3.5727570153417834E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5723788825133176E-2</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="10"/>
-        <v>3.5997771148889163E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6143564895158686E-2</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C37">
-        <v>8028765374</v>
-      </c>
-      <c r="D37">
-        <v>8072275886</v>
-      </c>
-      <c r="E37" s="17">
-        <v>224226259792</v>
+        <v>3000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2255662819</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2278507350</v>
+      </c>
+      <c r="E37" s="20">
+        <v>63110222836</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" ref="F37:F40" si="11">C37/E37</f>
-        <v>3.5806534798590313E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5741639272319305E-2</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" ref="G37:G40" si="12">D37/E37</f>
-        <v>3.600058215076201E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6103617569549599E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C38">
-        <v>27059008703</v>
-      </c>
-      <c r="D38">
-        <v>27240991547</v>
-      </c>
-      <c r="E38" s="17">
-        <v>756506334252</v>
-      </c>
-      <c r="F38" s="15">
-        <f t="shared" si="11"/>
-        <v>3.5768383525505772E-2</v>
-      </c>
-      <c r="G38" s="16">
-        <f t="shared" si="12"/>
-        <v>3.6008940459083781E-2</v>
-      </c>
+    <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C39">
-        <v>64303562683</v>
-      </c>
-      <c r="D39">
-        <v>64540040828</v>
-      </c>
-      <c r="E39" s="17">
-        <v>1792898422043</v>
-      </c>
-      <c r="F39" s="15">
-        <f t="shared" si="11"/>
-        <v>3.586570320572114E-2</v>
-      </c>
-      <c r="G39" s="16">
-        <f t="shared" si="12"/>
-        <v>3.599760032944694E-2</v>
+    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C40">
-        <v>125217389635</v>
-      </c>
-      <c r="D40">
-        <v>126567713253</v>
-      </c>
-      <c r="E40" s="17">
-        <v>3501402558635</v>
-      </c>
-      <c r="F40" s="15">
-        <f t="shared" si="11"/>
-        <v>3.5762066068694261E-2</v>
-      </c>
-      <c r="G40" s="16">
-        <f t="shared" si="12"/>
-        <v>3.6147718273885548E-2</v>
+        <v>600</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6811025</v>
+      </c>
+      <c r="D40" s="5">
+        <v>15319146</v>
+      </c>
+      <c r="E40" s="18">
+        <v>382042941</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" ref="F40:F46" si="12">C40/E40</f>
+        <v>1.7827904324503669E-2</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" ref="G40:G46" si="13">D40/E40</f>
+        <v>4.0097968987208694E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="5">
+        <v>31587949</v>
+      </c>
+      <c r="D41" s="5">
+        <v>65956773</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1763165589</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" ref="F41:F46" si="14">C41/E41</f>
+        <v>1.7915474982650652E-2</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" ref="G41:G46" si="15">D41/E41</f>
+        <v>3.740815576908358E-2</v>
+      </c>
     </row>
-    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>14</v>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C42" s="5">
+        <v>87037432</v>
+      </c>
+      <c r="D42" s="5">
+        <v>175727559</v>
+      </c>
+      <c r="E42" s="18">
+        <v>4825736631</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="14"/>
+        <v>1.8036092446670451E-2</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="15"/>
+        <v>3.6414660068919955E-2</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
-        <v>600</v>
-      </c>
-      <c r="C43" s="7">
-        <v>9067835</v>
-      </c>
-      <c r="D43" s="7">
-        <v>19382784</v>
-      </c>
-      <c r="E43" s="17">
-        <f t="shared" ref="E43:E53" si="13">2*POWER(B43,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F43" s="15">
-        <f t="shared" ref="F43:F49" si="14">C43/E43</f>
-        <v>2.0990358796296297E-2</v>
-      </c>
-      <c r="G43" s="16">
-        <f t="shared" ref="G43:G49" si="15">D43/E43</f>
-        <v>4.4867555555555556E-2</v>
+        <v>1800</v>
+      </c>
+      <c r="C43" s="5">
+        <v>185738485</v>
+      </c>
+      <c r="D43" s="5">
+        <v>373411023</v>
+      </c>
+      <c r="E43" s="18">
+        <v>10243827514</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="14"/>
+        <v>1.8131746629485468E-2</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="15"/>
+        <v>3.6452295051792691E-2</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C44" s="7">
-        <v>42123275</v>
-      </c>
-      <c r="D44" s="7">
-        <v>87222043</v>
-      </c>
-      <c r="E44" s="17">
-        <f t="shared" si="13"/>
-        <v>2000000000</v>
-      </c>
-      <c r="F44" s="15">
+        <v>2200</v>
+      </c>
+      <c r="C44" s="5">
+        <v>516743973</v>
+      </c>
+      <c r="D44" s="5">
+        <v>676357926</v>
+      </c>
+      <c r="E44" s="18">
+        <v>18689438222</v>
+      </c>
+      <c r="F44" s="21">
         <f t="shared" si="14"/>
-        <v>2.1061637500000001E-2</v>
-      </c>
-      <c r="G44" s="16">
+        <v>2.7648983712721894E-2</v>
+      </c>
+      <c r="G44" s="22">
         <f t="shared" si="15"/>
-        <v>4.36110215E-2</v>
+        <v>3.6189312806836273E-2</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C45" s="7">
-        <v>115958147</v>
-      </c>
-      <c r="D45" s="7">
-        <v>233721370</v>
-      </c>
-      <c r="E45" s="17">
-        <f t="shared" si="13"/>
-        <v>5488000000</v>
-      </c>
-      <c r="F45" s="15">
+        <v>2600</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1101403909</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1114036186</v>
+      </c>
+      <c r="E45" s="18">
+        <v>30834569206</v>
+      </c>
+      <c r="F45" s="21">
         <f t="shared" si="14"/>
-        <v>2.1129399963556852E-2</v>
-      </c>
-      <c r="G45" s="16">
+        <v>3.5719776126649477E-2</v>
+      </c>
+      <c r="G45" s="22">
         <f t="shared" si="15"/>
-        <v>4.2587713192419822E-2</v>
+        <v>3.6129455176017934E-2</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
-        <v>1800</v>
-      </c>
-      <c r="C46" s="7">
-        <v>247255936</v>
-      </c>
-      <c r="D46" s="7">
-        <v>495611026</v>
-      </c>
-      <c r="E46" s="17">
-        <f t="shared" si="13"/>
-        <v>11664000000</v>
-      </c>
-      <c r="F46" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1692074535</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1694938079</v>
+      </c>
+      <c r="E46" s="18">
+        <v>47351219363</v>
+      </c>
+      <c r="F46" s="21">
         <f t="shared" si="14"/>
-        <v>2.1198211248285321E-2</v>
-      </c>
-      <c r="G46" s="16">
+        <v>3.5734550403620197E-2</v>
+      </c>
+      <c r="G46" s="22">
         <f t="shared" si="15"/>
-        <v>4.2490657235939644E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C47" s="7">
-        <v>689266546</v>
-      </c>
-      <c r="D47" s="7">
-        <v>894777185</v>
-      </c>
-      <c r="E47" s="17">
-        <f t="shared" si="13"/>
-        <v>21296000000</v>
-      </c>
-      <c r="F47" s="15">
-        <f t="shared" si="14"/>
-        <v>3.236600986100676E-2</v>
-      </c>
-      <c r="G47" s="16">
-        <f t="shared" si="15"/>
-        <v>4.2016208912471827E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="5">
-        <v>2600</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1468741005</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1477021762</v>
-      </c>
-      <c r="E48" s="17">
-        <f t="shared" si="13"/>
-        <v>35152000000</v>
-      </c>
-      <c r="F48" s="15">
-        <f t="shared" si="14"/>
-        <v>4.1782572968821118E-2</v>
-      </c>
-      <c r="G48" s="16">
-        <f t="shared" si="15"/>
-        <v>4.201814297906236E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C49" s="7">
-        <v>2255563001</v>
-      </c>
-      <c r="D49" s="7">
-        <v>2270493948</v>
-      </c>
-      <c r="E49" s="17">
-        <f t="shared" si="13"/>
-        <v>54000000000</v>
-      </c>
-      <c r="F49" s="15">
-        <f t="shared" si="14"/>
-        <v>4.1769685203703701E-2</v>
-      </c>
-      <c r="G49" s="16">
-        <f t="shared" si="15"/>
-        <v>4.204618422222222E-2</v>
+        <v>3.5795024960316356E-2</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C50">
-        <v>5356704081</v>
-      </c>
-      <c r="D50">
-        <v>5365554108</v>
-      </c>
-      <c r="E50" s="17">
-        <f t="shared" si="13"/>
-        <v>128000000000</v>
-      </c>
-      <c r="F50" s="15">
-        <f t="shared" ref="F50:F53" si="16">C50/E50</f>
-        <v>4.1849250632812501E-2</v>
-      </c>
-      <c r="G50" s="16">
-        <f t="shared" ref="G50:G53" si="17">D50/E50</f>
-        <v>4.1918391468750003E-2</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C51">
-        <v>18041959514</v>
-      </c>
-      <c r="D51">
-        <v>18063851453</v>
-      </c>
-      <c r="E51" s="17">
-        <f t="shared" si="13"/>
-        <v>432000000000</v>
-      </c>
-      <c r="F51" s="15">
-        <f t="shared" si="16"/>
-        <v>4.1763795171296296E-2</v>
-      </c>
-      <c r="G51" s="16">
-        <f t="shared" si="17"/>
-        <v>4.1814470956018521E-2</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C52">
-        <v>42881927782</v>
-      </c>
-      <c r="D52">
-        <v>42825173051</v>
-      </c>
-      <c r="E52" s="17">
-        <f t="shared" si="13"/>
-        <v>1024000000000</v>
-      </c>
-      <c r="F52" s="15">
-        <f t="shared" si="16"/>
-        <v>4.1876882599609373E-2</v>
-      </c>
-      <c r="G52" s="16">
-        <f t="shared" si="17"/>
-        <v>4.1821458057617188E-2</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C53">
-        <v>83502883721</v>
-      </c>
-      <c r="D53">
-        <v>83899472149</v>
-      </c>
-      <c r="E53" s="17">
-        <f t="shared" si="13"/>
-        <v>2000000000000</v>
-      </c>
-      <c r="F53" s="15">
-        <f t="shared" si="16"/>
-        <v>4.1751441860499998E-2</v>
-      </c>
-      <c r="G53" s="16">
-        <f t="shared" si="17"/>
-        <v>4.1949736074499998E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="5">
-        <v>600</v>
-      </c>
-      <c r="C56" s="7">
-        <v>6812471</v>
-      </c>
-      <c r="D56" s="7">
-        <v>15308696</v>
-      </c>
-      <c r="E56" s="17">
-        <f t="shared" ref="E56:E66" si="18">2*POWER(B56,3)</f>
-        <v>432000000</v>
-      </c>
-      <c r="F56" s="15">
-        <f t="shared" ref="F56:F62" si="19">C56/E56</f>
-        <v>1.5769608796296297E-2</v>
-      </c>
-      <c r="G56" s="16">
-        <f t="shared" ref="G56:G62" si="20">D56/E56</f>
-        <v>3.54367962962963E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C57" s="7">
-        <v>31577512</v>
-      </c>
-      <c r="D57" s="7">
-        <v>66481100</v>
-      </c>
-      <c r="E57" s="17">
-        <f t="shared" si="18"/>
-        <v>2000000000</v>
-      </c>
-      <c r="F57" s="15">
-        <f t="shared" si="19"/>
-        <v>1.5788756000000001E-2</v>
-      </c>
-      <c r="G57" s="16">
-        <f t="shared" si="20"/>
-        <v>3.3240550000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C58" s="7">
-        <v>87070806</v>
-      </c>
-      <c r="D58" s="7">
-        <v>179142326</v>
-      </c>
-      <c r="E58" s="17">
-        <f t="shared" si="18"/>
-        <v>5488000000</v>
-      </c>
-      <c r="F58" s="15">
-        <f t="shared" si="19"/>
-        <v>1.5865671647230319E-2</v>
-      </c>
-      <c r="G58" s="16">
-        <f t="shared" si="20"/>
-        <v>3.2642552113702622E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="5">
-        <v>1800</v>
-      </c>
-      <c r="C59" s="7">
-        <v>185772947</v>
-      </c>
-      <c r="D59" s="7">
-        <v>380827334</v>
-      </c>
-      <c r="E59" s="17">
-        <f t="shared" si="18"/>
-        <v>11664000000</v>
-      </c>
-      <c r="F59" s="15">
-        <f t="shared" si="19"/>
-        <v>1.5927035922496571E-2</v>
-      </c>
-      <c r="G59" s="16">
-        <f t="shared" si="20"/>
-        <v>3.2649805727023321E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C60" s="7">
-        <v>516834742</v>
-      </c>
-      <c r="D60" s="7">
-        <v>691748875</v>
-      </c>
-      <c r="E60" s="17">
-        <f t="shared" si="18"/>
-        <v>21296000000</v>
-      </c>
-      <c r="F60" s="15">
-        <f t="shared" si="19"/>
-        <v>2.4269099455296768E-2</v>
-      </c>
-      <c r="G60" s="16">
-        <f t="shared" si="20"/>
-        <v>3.2482573018407214E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="5">
-        <v>2600</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1101419744</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1141369499</v>
-      </c>
-      <c r="E61" s="17">
-        <f t="shared" si="18"/>
-        <v>35152000000</v>
-      </c>
-      <c r="F61" s="15">
-        <f t="shared" si="19"/>
-        <v>3.1333060537096037E-2</v>
-      </c>
-      <c r="G61" s="16">
-        <f t="shared" si="20"/>
-        <v>3.2469546512289484E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C62" s="7">
-        <v>1692279158</v>
-      </c>
-      <c r="D62" s="7">
-        <v>1752041615</v>
-      </c>
-      <c r="E62" s="17">
-        <f t="shared" si="18"/>
-        <v>54000000000</v>
-      </c>
-      <c r="F62" s="15">
-        <f t="shared" si="19"/>
-        <v>3.1338502925925923E-2</v>
-      </c>
-      <c r="G62" s="16">
-        <f t="shared" si="20"/>
-        <v>3.2445215092592593E-2</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C63">
-        <v>4016674971</v>
-      </c>
-      <c r="D63">
-        <v>4126160563</v>
-      </c>
-      <c r="E63" s="17">
-        <f t="shared" si="18"/>
-        <v>128000000000</v>
-      </c>
-      <c r="F63" s="15">
-        <f t="shared" ref="F63:F66" si="21">C63/E63</f>
-        <v>3.1380273210937497E-2</v>
-      </c>
-      <c r="G63" s="16">
-        <f t="shared" ref="G63:G66" si="22">D63/E63</f>
-        <v>3.22356293984375E-2</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C64">
-        <v>13533969593</v>
-      </c>
-      <c r="D64">
-        <v>13820853265</v>
-      </c>
-      <c r="E64" s="17">
-        <f t="shared" si="18"/>
-        <v>432000000000</v>
-      </c>
-      <c r="F64" s="15">
-        <f t="shared" si="21"/>
-        <v>3.132863331712963E-2</v>
-      </c>
-      <c r="G64" s="16">
-        <f t="shared" si="22"/>
-        <v>3.1992715891203706E-2</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C65">
-        <v>32161832141</v>
-      </c>
-      <c r="D65">
-        <v>32662229208</v>
-      </c>
-      <c r="E65" s="17">
-        <f t="shared" si="18"/>
-        <v>1024000000000</v>
-      </c>
-      <c r="F65" s="15">
-        <f t="shared" si="21"/>
-        <v>3.140803920019531E-2</v>
-      </c>
-      <c r="G65" s="16">
-        <f t="shared" si="22"/>
-        <v>3.1896708210937499E-2</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C66">
-        <v>62621909347</v>
-      </c>
-      <c r="D66">
-        <v>62823007351</v>
-      </c>
-      <c r="E66" s="17">
-        <f t="shared" si="18"/>
-        <v>2000000000000</v>
-      </c>
-      <c r="F66" s="15">
-        <f t="shared" si="21"/>
-        <v>3.1310954673500001E-2</v>
-      </c>
-      <c r="G66" s="16">
-        <f t="shared" si="22"/>
-        <v>3.1411503675499997E-2</v>
-      </c>
+      <c r="B66" s="5"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36065,8 +35880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:J44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36505,7 +36320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>

--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C++" sheetId="3" r:id="rId1"/>
@@ -284,14 +284,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1188,11 +1188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1730738304"/>
-        <c:axId val="-1730739936"/>
+        <c:axId val="766324880"/>
+        <c:axId val="766328688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1730738304"/>
+        <c:axId val="766324880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1265,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1730739936"/>
+        <c:crossAx val="766328688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1273,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1730739936"/>
+        <c:axId val="766328688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1381,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1730738304"/>
+        <c:crossAx val="766324880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2070,11 +2070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943918080"/>
-        <c:axId val="-1664505344"/>
+        <c:axId val="812990560"/>
+        <c:axId val="812986752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943918080"/>
+        <c:axId val="812990560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2147,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664505344"/>
+        <c:crossAx val="812986752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1664505344"/>
+        <c:axId val="812986752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943918080"/>
+        <c:crossAx val="812990560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3000000000"/>
@@ -2956,11 +2956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1664508064"/>
-        <c:axId val="-1664507520"/>
+        <c:axId val="812987296"/>
+        <c:axId val="812988384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1664508064"/>
+        <c:axId val="812987296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3033,7 +3033,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664507520"/>
+        <c:crossAx val="812988384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3041,7 +3041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1664507520"/>
+        <c:axId val="812988384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3149,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664508064"/>
+        <c:crossAx val="812987296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000004E-2"/>
@@ -3839,11 +3839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1664497728"/>
-        <c:axId val="-1664505888"/>
+        <c:axId val="812411824"/>
+        <c:axId val="812403664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1664497728"/>
+        <c:axId val="812411824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3916,7 +3916,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664505888"/>
+        <c:crossAx val="812403664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3924,7 +3924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1664505888"/>
+        <c:axId val="812403664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,7 +4032,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664497728"/>
+        <c:crossAx val="812411824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000004E-2"/>
@@ -4722,11 +4722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1664504800"/>
-        <c:axId val="-1664504256"/>
+        <c:axId val="812413456"/>
+        <c:axId val="812403120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1664504800"/>
+        <c:axId val="812413456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4799,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664504256"/>
+        <c:crossAx val="812403120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4807,7 +4807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1664504256"/>
+        <c:axId val="812403120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4849,7 +4849,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Cache Misses</a:t>
+                  <a:t>Cache Misses (Millions)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4915,9 +4915,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664504800"/>
+        <c:crossAx val="812413456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -5604,11 +5607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1664511872"/>
-        <c:axId val="-1664501536"/>
+        <c:axId val="812414544"/>
+        <c:axId val="812415632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1664511872"/>
+        <c:axId val="812414544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,7 +5684,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664501536"/>
+        <c:crossAx val="812415632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5689,7 +5692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1664501536"/>
+        <c:axId val="812415632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000000000"/>
@@ -5799,7 +5802,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664511872"/>
+        <c:crossAx val="812414544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000000000"/>
@@ -6492,11 +6495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1664500448"/>
-        <c:axId val="-1664498816"/>
+        <c:axId val="812404752"/>
+        <c:axId val="812416720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1664500448"/>
+        <c:axId val="812404752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,7 +6572,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664498816"/>
+        <c:crossAx val="812416720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6577,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1664498816"/>
+        <c:axId val="812416720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0000000000000008E-2"/>
@@ -6687,7 +6690,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1664500448"/>
+        <c:crossAx val="812404752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.5000000000000005E-3"/>
@@ -7377,11 +7380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665268304"/>
-        <c:axId val="-1665281904"/>
+        <c:axId val="812406384"/>
+        <c:axId val="812409648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665268304"/>
+        <c:axId val="812406384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7454,7 +7457,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665281904"/>
+        <c:crossAx val="812409648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7462,7 +7465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665281904"/>
+        <c:axId val="812409648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.200000000000001E-2"/>
@@ -7572,7 +7575,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665268304"/>
+        <c:crossAx val="812406384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000012E-4"/>
@@ -8175,11 +8178,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665267216"/>
-        <c:axId val="-1665269392"/>
+        <c:axId val="812408016"/>
+        <c:axId val="812410736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665267216"/>
+        <c:axId val="812408016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8308,7 +8311,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665269392"/>
+        <c:crossAx val="812410736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8316,7 +8319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665269392"/>
+        <c:axId val="812410736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -8425,7 +8428,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665267216"/>
+        <c:crossAx val="812408016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8818,11 +8821,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665277008"/>
-        <c:axId val="-1665277552"/>
+        <c:axId val="815088816"/>
+        <c:axId val="815087184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665277008"/>
+        <c:axId val="815088816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,7 +8954,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665277552"/>
+        <c:crossAx val="815087184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8959,7 +8962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665277552"/>
+        <c:axId val="815087184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9067,7 +9070,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665277008"/>
+        <c:crossAx val="815088816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9468,11 +9471,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665273200"/>
-        <c:axId val="-1665275920"/>
+        <c:axId val="815082832"/>
+        <c:axId val="815082288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665273200"/>
+        <c:axId val="815082832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9601,7 +9604,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665275920"/>
+        <c:crossAx val="815082288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9609,7 +9612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665275920"/>
+        <c:axId val="815082288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9717,7 +9720,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665273200"/>
+        <c:crossAx val="815082832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10680,11 +10683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1730743200"/>
-        <c:axId val="-1730738848"/>
+        <c:axId val="766335216"/>
+        <c:axId val="766339024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1730743200"/>
+        <c:axId val="766335216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10727,7 +10730,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1730738848"/>
+        <c:crossAx val="766339024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10735,7 +10738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1730738848"/>
+        <c:axId val="766339024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10843,7 +10846,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1730743200"/>
+        <c:crossAx val="766335216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11243,11 +11246,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665268848"/>
-        <c:axId val="-1665274288"/>
+        <c:axId val="815083920"/>
+        <c:axId val="815085552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665268848"/>
+        <c:axId val="815083920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11376,7 +11379,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665274288"/>
+        <c:crossAx val="815085552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11384,7 +11387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665274288"/>
+        <c:axId val="815085552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11492,7 +11495,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665268848"/>
+        <c:crossAx val="815083920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11825,11 +11828,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665272656"/>
-        <c:axId val="-1665272112"/>
+        <c:axId val="815090992"/>
+        <c:axId val="815092080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665272656"/>
+        <c:axId val="815090992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11958,7 +11961,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665272112"/>
+        <c:crossAx val="815092080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11966,7 +11969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665272112"/>
+        <c:axId val="815092080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12074,7 +12077,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665272656"/>
+        <c:crossAx val="815090992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12549,11 +12552,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1665269936"/>
-        <c:axId val="-1665279728"/>
+        <c:axId val="815077936"/>
+        <c:axId val="815080112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1665269936"/>
+        <c:axId val="815077936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12682,7 +12685,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665279728"/>
+        <c:crossAx val="815080112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12690,7 +12693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665279728"/>
+        <c:axId val="815080112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12798,7 +12801,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665269936"/>
+        <c:crossAx val="815077936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -13481,11 +13484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1730742112"/>
-        <c:axId val="-1729792752"/>
+        <c:axId val="766328144"/>
+        <c:axId val="766330864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1730742112"/>
+        <c:axId val="766328144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13558,7 +13561,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1729792752"/>
+        <c:crossAx val="766330864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13566,7 +13569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1729792752"/>
+        <c:axId val="766330864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13674,7 +13677,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1730742112"/>
+        <c:crossAx val="766328144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -14263,11 +14266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1729795472"/>
-        <c:axId val="-1729793840"/>
+        <c:axId val="766336304"/>
+        <c:axId val="766331952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1729795472"/>
+        <c:axId val="766336304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14340,7 +14343,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1729793840"/>
+        <c:crossAx val="766331952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14348,7 +14351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1729793840"/>
+        <c:axId val="766331952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14400,7 +14403,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1729795472"/>
+        <c:crossAx val="766336304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -15079,11 +15082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1729806352"/>
-        <c:axId val="-1729805264"/>
+        <c:axId val="812993280"/>
+        <c:axId val="812993824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1729806352"/>
+        <c:axId val="812993280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15156,7 +15159,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1729805264"/>
+        <c:crossAx val="812993824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15164,7 +15167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1729805264"/>
+        <c:axId val="812993824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15216,7 +15219,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1729806352"/>
+        <c:crossAx val="812993280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -16019,11 +16022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727297456"/>
-        <c:axId val="-1727301808"/>
+        <c:axId val="812994912"/>
+        <c:axId val="812988928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727297456"/>
+        <c:axId val="812994912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16096,7 +16099,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727301808"/>
+        <c:crossAx val="812988928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16104,7 +16107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727301808"/>
+        <c:axId val="812988928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16156,7 +16159,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727297456"/>
+        <c:crossAx val="812994912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16688,11 +16691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727306160"/>
-        <c:axId val="-1943678960"/>
+        <c:axId val="812992736"/>
+        <c:axId val="812995456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727306160"/>
+        <c:axId val="812992736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16764,7 +16767,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943678960"/>
+        <c:crossAx val="812995456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16772,7 +16775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943678960"/>
+        <c:axId val="812995456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16824,7 +16827,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727306160"/>
+        <c:crossAx val="812992736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17203,11 +17206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943673520"/>
-        <c:axId val="-1943688752"/>
+        <c:axId val="812996544"/>
+        <c:axId val="812985664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943673520"/>
+        <c:axId val="812996544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17280,7 +17283,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943688752"/>
+        <c:crossAx val="812985664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17288,7 +17291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943688752"/>
+        <c:axId val="812985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17340,7 +17343,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943673520"/>
+        <c:crossAx val="812996544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.4"/>
@@ -18023,11 +18026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1767382224"/>
-        <c:axId val="-1767383312"/>
+        <c:axId val="812998176"/>
+        <c:axId val="812989472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1767382224"/>
+        <c:axId val="812998176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18100,7 +18103,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1767383312"/>
+        <c:crossAx val="812989472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18108,7 +18111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1767383312"/>
+        <c:axId val="812989472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18152,6 +18155,11 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Cache Misses</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Millions)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -18216,9 +18224,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1767382224"/>
+        <c:crossAx val="812998176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -32340,8 +32351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N154" sqref="N154"/>
+    <sheetView topLeftCell="D57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32360,17 +32371,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -33920,7 +33931,8 @@
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33928,8 +33940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33945,14 +33957,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -34129,14 +34141,14 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
@@ -34313,14 +34325,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
@@ -34497,14 +34509,14 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
@@ -34681,14 +34693,14 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
@@ -34881,8 +34893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34896,14 +34908,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -34939,11 +34951,11 @@
         <v>1517110291</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:F10" si="0">C4/E4</f>
+        <f t="shared" ref="F4" si="0">C4/E4</f>
         <v>1.7874929173491448E-2</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G10" si="1">D4/E4</f>
+        <f t="shared" ref="G4" si="1">D4/E4</f>
         <v>4.0064476762553314E-2</v>
       </c>
     </row>
@@ -35080,14 +35092,14 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
@@ -35264,14 +35276,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
@@ -35448,14 +35460,14 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
@@ -35487,15 +35499,15 @@
       <c r="D31" s="4">
         <v>19264039</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>508444180</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" ref="F31:F37" si="8">C31/E31</f>
+        <f t="shared" ref="F31" si="8">C31/E31</f>
         <v>1.7831115698875737E-2</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" ref="G31:G37" si="9">D31/E31</f>
+        <f t="shared" ref="G31" si="9">D31/E31</f>
         <v>3.7888208298499947E-2</v>
       </c>
     </row>
@@ -35509,7 +35521,7 @@
       <c r="D32" s="4">
         <v>85777422</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>2352174646</v>
       </c>
       <c r="F32" s="15">
@@ -35531,7 +35543,7 @@
       <c r="D33" s="4">
         <v>232737152</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>6432943792</v>
       </c>
       <c r="F33" s="15">
@@ -35553,7 +35565,7 @@
       <c r="D34" s="4">
         <v>493439059</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>13649069509</v>
       </c>
       <c r="F34" s="15">
@@ -35575,7 +35587,7 @@
       <c r="D35" s="4">
         <v>900494197</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>24928218325</v>
       </c>
       <c r="F35" s="15">
@@ -35597,7 +35609,7 @@
       <c r="D36" s="4">
         <v>1485854097</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>41109782649</v>
       </c>
       <c r="F36" s="15">
@@ -35619,7 +35631,7 @@
       <c r="D37" s="4">
         <v>2278507350</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>63110222836</v>
       </c>
       <c r="F37" s="15">
@@ -35632,14 +35644,14 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
@@ -35674,12 +35686,12 @@
       <c r="E40" s="18">
         <v>382042941</v>
       </c>
-      <c r="F40" s="21">
-        <f t="shared" ref="F40:F46" si="12">C40/E40</f>
+      <c r="F40" s="20">
+        <f t="shared" ref="F40" si="12">C40/E40</f>
         <v>1.7827904324503669E-2</v>
       </c>
-      <c r="G40" s="22">
-        <f t="shared" ref="G40:G46" si="13">D40/E40</f>
+      <c r="G40" s="21">
+        <f t="shared" ref="G40" si="13">D40/E40</f>
         <v>4.0097968987208694E-2</v>
       </c>
     </row>
@@ -35696,11 +35708,11 @@
       <c r="E41" s="18">
         <v>1763165589</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <f t="shared" ref="F41:F46" si="14">C41/E41</f>
         <v>1.7915474982650652E-2</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <f t="shared" ref="G41:G46" si="15">D41/E41</f>
         <v>3.740815576908358E-2</v>
       </c>
@@ -35718,11 +35730,11 @@
       <c r="E42" s="18">
         <v>4825736631</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <f t="shared" si="14"/>
         <v>1.8036092446670451E-2</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="21">
         <f t="shared" si="15"/>
         <v>3.6414660068919955E-2</v>
       </c>
@@ -35740,11 +35752,11 @@
       <c r="E43" s="18">
         <v>10243827514</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <f t="shared" si="14"/>
         <v>1.8131746629485468E-2</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <f t="shared" si="15"/>
         <v>3.6452295051792691E-2</v>
       </c>
@@ -35762,11 +35774,11 @@
       <c r="E44" s="18">
         <v>18689438222</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <f t="shared" si="14"/>
         <v>2.7648983712721894E-2</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <f t="shared" si="15"/>
         <v>3.6189312806836273E-2</v>
       </c>
@@ -35784,11 +35796,11 @@
       <c r="E45" s="18">
         <v>30834569206</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <f t="shared" si="14"/>
         <v>3.5719776126649477E-2</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <f t="shared" si="15"/>
         <v>3.6129455176017934E-2</v>
       </c>
@@ -35806,11 +35818,11 @@
       <c r="E46" s="18">
         <v>47351219363</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <f t="shared" si="14"/>
         <v>3.5734550403620197E-2</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="21">
         <f t="shared" si="15"/>
         <v>3.5795024960316356E-2</v>
       </c>
@@ -35880,8 +35892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35899,17 +35911,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -36292,15 +36304,15 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -36320,8 +36332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="E33" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36338,17 +36350,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
